--- a/Excel/FL4W/2.1 DataFile_NAP_FL4W.xlsx
+++ b/Excel/FL4W/2.1 DataFile_NAP_FL4W.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="769" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="769" firstSheet="15" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="0.Setting" sheetId="5" r:id="rId1"/>
@@ -26560,16 +26560,16 @@
     <t>$Reserve Fund 7</t>
   </si>
   <si>
-    <t>-;Failed Verify Match / Equal</t>
-  </si>
-  <si>
     <t>;</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>0002APP20221206309</t>
+    <t>0002APP20221206320</t>
+  </si>
+  <si>
+    <t>-;Failed Verify Match / Equal;Failed Verify Match / Equal</t>
   </si>
 </sst>
 </file>
@@ -32456,7 +32456,7 @@
         <v>3387</v>
       </c>
       <c r="B21" t="s">
-        <v>3641</v>
+        <v>3640</v>
       </c>
       <c r="C21" t="s">
         <v>3598</v>
@@ -34123,7 +34123,7 @@
         <v>3204</v>
       </c>
       <c r="B2" t="s">
-        <v>3639</v>
+        <v>3642</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>3046</v>
@@ -35009,7 +35009,7 @@
         <v>3204</v>
       </c>
       <c r="B2" t="s">
-        <v>3639</v>
+        <v>3642</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>3046</v>
@@ -35326,7 +35326,7 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B16" sqref="B16"/>
     </sheetView>
@@ -35512,7 +35512,7 @@
         <v>3404</v>
       </c>
       <c r="B17" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
       <c r="C17" t="s">
         <v>3630</v>
@@ -35567,10 +35567,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="G20" sqref="G20"/>
-      <selection pane="topRight" activeCell="B13" sqref="B13"/>
+      <selection pane="topRight" activeCell="C1" sqref="B1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35699,7 +35699,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>

--- a/Excel/FL4W/2.1 DataFile_NAP_FL4W.xlsx
+++ b/Excel/FL4W/2.1 DataFile_NAP_FL4W.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="9" firstSheet="6" tabRatio="769" windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="11" firstSheet="6" tabRatio="769" windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="0.Setting" r:id="rId1" sheetId="5"/>
@@ -23,71 +23,72 @@
     <sheet name="6.TabApplicationData" r:id="rId9" sheetId="12"/>
     <sheet name="7.TabAssetData" r:id="rId10" sheetId="8"/>
     <sheet name="7a.Accessories" r:id="rId11" sheetId="9"/>
-    <sheet name="8.TabInsuranceData" r:id="rId12" sheetId="13"/>
-    <sheet name="9.TabLifeInsuranceData" r:id="rId13" sheetId="14"/>
-    <sheet name="10.TabFinancialData" r:id="rId14" sheetId="21"/>
-    <sheet name="11.TabTermConditionData" r:id="rId15" sheetId="15"/>
-    <sheet name="12.TabUploadDocument" r:id="rId16" sheetId="11"/>
-    <sheet name="13.TabCommissionData" r:id="rId17" sheetId="18"/>
-    <sheet name="14.TabReservedFundData" r:id="rId18" sheetId="19"/>
-    <sheet name="15.CustomerDataCompletion" r:id="rId19" sheetId="17"/>
-    <sheet name="Master" r:id="rId20" sheetId="20"/>
+    <sheet name="7b.CollateralData" r:id="rId12" sheetId="23"/>
+    <sheet name="8.TabInsuranceData" r:id="rId13" sheetId="13"/>
+    <sheet name="9.TabLifeInsuranceData" r:id="rId14" sheetId="14"/>
+    <sheet name="10.TabFinancialData" r:id="rId15" sheetId="21"/>
+    <sheet name="11.TabTermConditionData" r:id="rId16" sheetId="15"/>
+    <sheet name="12.TabUploadDocument" r:id="rId17" sheetId="11"/>
+    <sheet name="13.TabCommissionData" r:id="rId18" sheetId="18"/>
+    <sheet name="14.TabReservedFundData" r:id="rId19" sheetId="19"/>
+    <sheet name="15.CustomerDataCompletion" r:id="rId20" sheetId="17"/>
+    <sheet name="Master" r:id="rId21" sheetId="20"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
   </externalReferences>
   <definedNames>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_1">Master!$A$1:$B$43</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_10">Master!$AB$1:$AB$14</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_11">Master!$AD$1:$AD$3</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_12">Master!$AF$1:$AF$5</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_13">Master!$AH$1:$AH$7</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_14">Master!$AJ$1:$AJ$3</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_15">Master!$AL$1:$AL$6</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_16">Master!$AN$1:$AN$30</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_17">Master!$AP$1:$AP$4</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_18">Master!$AR$1:$AS$476</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_19">Master!$AU$1:$AV$7</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_2">Master!$E$1:$F$242</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_20">Master!$AX$1:$AX$16</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_21">Master!$AZ$1:$AZ$3</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_22">Master!$BB$1:$BB$17</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_23">Master!$BD$1:$BD$10</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_24">Master!$BF$1:$BF$3</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_25">Master!$BH$1:$BH$8</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_26">Master!$BJ$1:$BJ$17</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_27">Master!$BL$1:$BL$6</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_28">Master!$BN$1:$BN$4</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_29">Master!$BP$1:$BP$10</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_3">Master!$I$1:$J$30</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_30">Master!$BR$3:$BR$11</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_31">Master!$BT$1:$BT$3</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_32">Master!$BV$1:$BV$4</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_33">Master!$BX$2:$BX$10</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_34">Master!$BZ$1:$BZ$5</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_35">Master!$CB$1:$CB$5</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_36">Master!$CD$1:$CD$5</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_37">Master!$CF$1:$CF$3</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_38">Master!$CH$1:$CH$30</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_39">Master!$CJ$1:$CJ$4</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_4">Master!$M$1:$N$492</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_40">Master!$CO$1:$CO$14</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_41">Master!$CQ$1:$CQ$9</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_42">Master!$CS$1:$CS$3</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_43">Master!$CU$1:$CU$6</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_44">Master!$CW$1:$CW$6</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_45">Master!$CY$1:$CY$8</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_46">Master!$DA$1:$DA$3</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_47">Master!$DC$1:$DC$3</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_48">Master!$DG$1:$DH$33</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_49">Master!$DJ$1:$DK$6</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_5">Master!$Q$1:$R$9</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_50">Master!$DM$1:$DN$15</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_51">Master!$DP$1:$DQ$94</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_6">Master!$T$1:$T$15</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_7">Master!$V$1:$V$4</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_8">Master!$X$1:$X$4</definedName>
-    <definedName hidden="1" localSheetId="19" name="ExternalData_9">Master!$Z$1:$Z$9</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_1">Master!$A$1:$B$43</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_10">Master!$AB$1:$AB$14</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_11">Master!$AD$1:$AD$3</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_12">Master!$AF$1:$AF$5</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_13">Master!$AH$1:$AH$7</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_14">Master!$AJ$1:$AJ$3</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_15">Master!$AL$1:$AL$6</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_16">Master!$AN$1:$AN$30</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_17">Master!$AP$1:$AP$4</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_18">Master!$AR$1:$AS$476</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_19">Master!$AU$1:$AV$7</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_2">Master!$E$1:$F$242</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_20">Master!$AX$1:$AX$16</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_21">Master!$AZ$1:$AZ$3</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_22">Master!$BB$1:$BB$17</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_23">Master!$BD$1:$BD$10</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_24">Master!$BF$1:$BF$3</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_25">Master!$BH$1:$BH$8</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_26">Master!$BJ$1:$BJ$17</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_27">Master!$BL$1:$BL$6</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_28">Master!$BN$1:$BN$4</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_29">Master!$BP$1:$BP$10</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_3">Master!$I$1:$J$30</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_30">Master!$BR$3:$BR$11</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_31">Master!$BT$1:$BT$3</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_32">Master!$BV$1:$BV$4</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_33">Master!$BX$2:$BX$10</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_34">Master!$BZ$1:$BZ$5</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_35">Master!$CB$1:$CB$5</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_36">Master!$CD$1:$CD$5</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_37">Master!$CF$1:$CF$3</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_38">Master!$CH$1:$CH$30</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_39">Master!$CJ$1:$CJ$4</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_4">Master!$M$1:$N$492</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_40">Master!$CO$1:$CO$14</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_41">Master!$CQ$1:$CQ$9</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_42">Master!$CS$1:$CS$3</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_43">Master!$CU$1:$CU$6</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_44">Master!$CW$1:$CW$6</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_45">Master!$CY$1:$CY$8</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_46">Master!$DA$1:$DA$3</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_47">Master!$DC$1:$DC$3</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_48">Master!$DG$1:$DH$33</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_49">Master!$DJ$1:$DK$6</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_5">Master!$Q$1:$R$9</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_50">Master!$DM$1:$DN$15</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_51">Master!$DP$1:$DQ$94</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_6">Master!$T$1:$T$15</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_7">Master!$V$1:$V$4</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_8">Master!$X$1:$X$4</definedName>
+    <definedName hidden="1" localSheetId="20" name="ExternalData_9">Master!$Z$1:$Z$9</definedName>
     <definedName name="ListApplicationSource">Master!$AX$2:INDEX(Master!$AX:$AX,SUMPRODUCT(--(Master!$AX:$AX&lt;&gt;"")))</definedName>
     <definedName name="ListAssetRegion">Master!$CB$2:INDEX(Master!$CB:$CB,SUMPRODUCT(--(Master!$CB:$CB&lt;&gt;"")))</definedName>
     <definedName name="ListAuthorityAML">Master!$Q$2:INDEX(Master!$Q:$Q,SUMPRODUCT(--(Master!$Q:$Q&lt;&gt;"")))</definedName>
@@ -347,7 +348,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-diisi YES/NO, jika NO semua kolom dibawahnya tidak perlu diisi</t>
+Jika Insured By Customer, hanya perlu mengisi bagian customer. Jika insured by multifinance, hanya perlu mengisi bagian company. Jika insured by customer-multifinance, perlu mengisi keduanya. Jika insured by off system, tidak perlu mengisi keduanya.</t>
         </r>
       </text>
     </comment>
@@ -355,11 +356,146 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Jeremy Andreas:
+numeric</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A16" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Jeremy Andreas:
+numeric</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A18" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Jeremy Andreas:
+MM/DD/YYYY format date</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A19" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Jeremy Andreas:
+MM/DD/YYYY format date</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A23" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Jeremy Andreas:
+numeric</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A28" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Jeremy Andreas:
+numeric, wajib diisi jika Cover Period = Partial Tenor atau Over Tenor. Jika cover period = partial tenor, insurance length &lt; tenor. Jika cover period = over tenor, insurance length &gt; tenor.</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A30" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Jeremy Andreas:
+jika yes, tidak perlu diisi admin fee &amp; customer stampduty fee. Jika no, perlu mengisinya</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A31" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Jeremy Andreas:
+numeric</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A32" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Jeremy Andreas:
+numeric</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A45" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
           </rPr>
           <t>Jeremy Andreas:</t>
         </r>
@@ -368,22 +504,22 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Harus diisi jika Premium Payment Method = Paid in Advance &amp; Capitalized Mix, dikosongkan jika premium payment method yang lain. Input harus diisi dalam format 'angka spasi persen'</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="B15" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+diisi yes/no sesuai dengan urutan year num, menggunakan pemisah/delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A46" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
           </rPr>
           <t>Jeremy Andreas:</t>
         </r>
@@ -392,22 +528,22 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi dalam numeric %</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A18" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+dapat diisi sesuai urutan yearnum menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="B46" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
           </rPr>
           <t>Jeremy Andreas:</t>
         </r>
@@ -416,22 +552,22 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi YES/NO</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A19" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+dapat diisi customer/multifinance</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A47" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
           </rPr>
           <t>Jeremy Andreas:</t>
         </r>
@@ -440,22 +576,22 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi YES/NO/YES PARTIAL</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A20" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+dapat diisi sesuai urutan yearnum menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A48" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
           </rPr>
           <t>Jeremy Andreas:</t>
         </r>
@@ -464,22 +600,22 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi YES/NO</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A21" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+dapat diisi sesuai urutan yearnum menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A50" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
           </rPr>
           <t>Jeremy Andreas:</t>
         </r>
@@ -488,22 +624,22 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi jika guarantor lebih dari 1, dengan yang diisi yang ingin dicentang parsial, diisi menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A23" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+diisi yes/no dalam array jika ingin mengubah default (apply to all) sesuai urutan yearnum, jika tidak diisi maka akan mengikuti nilai dari apply to all, diisi menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A51" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
           </rPr>
           <t>Jeremy Andreas:</t>
         </r>
@@ -512,10 +648,361 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi dengan numeric</t>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+diisi yes/no dalam array jika ingin mengubah default (apply to all) sesuai urutan yearnum, jika tidak diisi maka akan mengikuti nilai dari apply to all, diisi menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A52" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+diisi yes/no dalam array jika ingin mengubah default (apply to all) sesuai urutan yearnum, jika tidak diisi maka akan mengikuti nilai dari apply to all, diisi menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A53" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+diisi yes/no dalam array jika ingin mengubah default (apply to all) sesuai urutan yearnum, jika tidak diisi maka akan mengikuti nilai dari apply to all, diisi menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A54" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+diisi yes/no dalam array jika ingin mengubah default (apply to all) sesuai urutan yearnum, jika tidak diisi maka akan mengikuti nilai dari apply to all, diisi menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A55" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+diisi yes/no dalam array jika ingin mengubah default (apply to all) sesuai urutan yearnum, jika tidak diisi maka akan mengikuti nilai dari apply to all, diisi menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A56" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+diisi yes/no dalam array jika ingin mengubah default (apply to all) sesuai urutan yearnum, jika tidak diisi maka akan mengikuti nilai dari apply to all, diisi menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A59" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+diisi index dropdownlist yang ingin dipilih sesuai urutan yearnum, menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A60" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+diisi index dropdownlist yang ingin dipilih sesuai urutan yearnum, menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A61" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+diisi index dropdownlist yang ingin dipilih sesuai urutan yearnum, menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A62" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+diisi index dropdownlist yang ingin dipilih sesuai urutan yearnum, menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A63" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+diisi index dropdownlist yang ingin dipilih sesuai urutan yearnum, menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A64" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+diisi index dropdownlist yang ingin dipilih sesuai urutan yearnum, menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A65" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+diisi index dropdownlist yang ingin dipilih sesuai urutan yearnum, menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A81" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Jeremy Andreas:
+numeric</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A82" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Diskon akan mengikuti nilai disini jika min ada 1 yearnum yang paid by multifinance, Field ini tidak perlu diisi, karena akan terisi otomatis oleh Katalon.</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="B92" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Angka ini + 1 = Jumlah Yearnum yang akan terbentuk</t>
         </r>
       </text>
     </comment>
@@ -576,11 +1063,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mandatory Jika TabInsuranceData field Discount lebih dari 0</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A13" shapeId="0">
+diisi YES/NO, jika NO semua kolom dibawahnya tidak perlu diisi</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A15" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -600,11 +1087,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mandatory Jika TabInsuranceData field Discount lebih dari 0</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A14" shapeId="0">
+Harus diisi jika Premium Payment Method = Paid in Advance &amp; Capitalized Mix, dikosongkan jika premium payment method yang lain. Input harus diisi dalam format 'angka spasi persen'</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="B15" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -624,11 +1111,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mandatory Jika TabInsuranceData field Discount lebih dari 0</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A15" shapeId="0">
+diisi dalam numeric %</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A18" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -648,11 +1135,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mandatory Jika TabInsuranceData field Discount lebih dari 0</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A16" shapeId="0">
+diisi YES/NO</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A19" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -672,11 +1159,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mandatory Jika TabInsuranceData field Discount lebih dari 0</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A17" shapeId="0">
+diisi YES/NO/YES PARTIAL</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A20" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -696,11 +1183,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mandatory Jika TabInsuranceData field Discount lebih dari 0</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A18" shapeId="0">
+diisi YES/NO</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A21" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -720,11 +1207,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mandatory Jika TabInsuranceData field Discount lebih dari 0</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A47" shapeId="0">
+diisi jika guarantor lebih dari 1, dengan yang diisi yang ingin dicentang parsial, diisi menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A23" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -744,79 +1231,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-hanye berlaku jika Installment Type Arrear</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A48" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-hanye berlaku jika Installment Type Arrear</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A51" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-timpa amount discount insurance pada subsidy? Jika pilih yes, amount existing pada excel akan ditimpa dengan nilai discount paid by multifinance saat menjalankan katalon</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A53" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi sesuai dengan jumlah subsidy dp pada section subsidy</t>
+diisi dengan numeric</t>
         </r>
       </text>
     </comment>
@@ -877,7 +1292,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-default required yes check, jika ingin uncheck required yes perlu diisi</t>
+Mandatory Jika TabInsuranceData field Discount lebih dari 0</t>
         </r>
       </text>
     </comment>
@@ -901,7 +1316,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-wajib diisi jika ada Yes Uncheck, format date diisi dalam MM/DD/YYYY, promise date &gt; business date, diisi sesuai dengan urutan dalam required yes uncheck</t>
+Mandatory Jika TabInsuranceData field Discount lebih dari 0</t>
         </r>
       </text>
     </comment>
@@ -925,7 +1340,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-default required no uncheck, jika ingin required no check perlu diisi</t>
+Mandatory Jika TabInsuranceData field Discount lebih dari 0</t>
         </r>
       </text>
     </comment>
@@ -949,7 +1364,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-hanya dokumen yang kolom checknya tercentang yang dapat diisi expired date</t>
+Mandatory Jika TabInsuranceData field Discount lebih dari 0</t>
         </r>
       </text>
     </comment>
@@ -973,7 +1388,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Diisi sesuai dengan urutan dalam expired date document. Format tanggal MM/DD/YYYY, antar tanggal menggunakan delimiter ;</t>
+Mandatory Jika TabInsuranceData field Discount lebih dari 0</t>
         </r>
       </text>
     </comment>
@@ -997,7 +1412,127 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Diisi nama dokumen yang ingin dan bisa diwaive</t>
+Mandatory Jika TabInsuranceData field Discount lebih dari 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A18" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mandatory Jika TabInsuranceData field Discount lebih dari 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A47" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+hanye berlaku jika Installment Type Arrear</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A48" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+hanye berlaku jika Installment Type Arrear</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A51" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+timpa amount discount insurance pada subsidy? Jika pilih yes, amount existing pada excel akan ditimpa dengan nilai discount paid by multifinance saat menjalankan katalon</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A53" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+diisi sesuai dengan jumlah subsidy dp pada section subsidy</t>
         </r>
       </text>
     </comment>
@@ -1009,6 +1544,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Fendy Tio</author>
+    <author>Jeremy Andreas</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="B10" shapeId="0">
@@ -1034,6 +1570,150 @@
 Yes = Copy dan tidak edit
 No = Tidak copy App
 Edit = Copy dan edit data app</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A12" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+default required yes check, jika ingin uncheck required yes perlu diisi</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A13" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+wajib diisi jika ada Yes Uncheck, format date diisi dalam MM/DD/YYYY, promise date &gt; business date, diisi sesuai dengan urutan dalam required yes uncheck</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A14" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+default required no uncheck, jika ingin required no check perlu diisi</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A15" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+hanya dokumen yang kolom checknya tercentang yang dapat diisi expired date</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A16" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Diisi sesuai dengan urutan dalam expired date document. Format tanggal MM/DD/YYYY, antar tanggal menggunakan delimiter ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A17" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Diisi nama dokumen yang ingin dan bisa diwaive</t>
         </r>
       </text>
     </comment>
@@ -1045,7 +1725,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Fendy Tio</author>
-    <author>Jeremy Andreas</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="B10" shapeId="0">
@@ -1071,56 +1750,6 @@
 Yes = Copy dan tidak edit
 No = Tidak copy App
 Edit = Copy dan edit data app</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A28" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-posisi dibuat sejajar dengan supplier employee name yang ingin didelete</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A54" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-jika yes, lakukan return handling dan tidak akan input data commission.
-Jika no atau bernilai kosong atau Done lakukan input commission seperti biasa
-Done menandakan return handling telah dilakukan</t>
         </r>
       </text>
     </comment>
@@ -1161,6 +1790,93 @@
         </r>
       </text>
     </comment>
+    <comment authorId="1" ref="A28" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+posisi dibuat sejajar dengan supplier employee name yang ingin didelete</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A54" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+jika yes, lakukan return handling dan tidak akan input data commission.
+Jika no atau bernilai kosong atau Done lakukan input commission seperti biasa
+Done menandakan return handling telah dilakukan</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Fendy Tio</author>
+    <author>Jeremy Andreas</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="B10" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fendy Tio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Yes = Copy dan tidak edit
+No = Tidak copy App
+Edit = Copy dan edit data app</t>
+        </r>
+      </text>
+    </comment>
     <comment authorId="1" ref="A12" shapeId="0">
       <text>
         <r>
@@ -14744,7 +15460,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="1" ref="A12" shapeId="0">
+    <comment authorId="1" ref="A20" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -14764,661 +15480,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Jika Insured By Customer, hanya perlu mengisi bagian customer. Jika insured by multifinance, hanya perlu mengisi bagian company. Jika insured by customer-multifinance, perlu mengisi keduanya. Jika insured by off system, tidak perlu mengisi keduanya.</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A15" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Jeremy Andreas:
-numeric</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A16" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Jeremy Andreas:
-numeric</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A18" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Jeremy Andreas:
-MM/DD/YYYY format date</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A19" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Jeremy Andreas:
-MM/DD/YYYY format date</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A23" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Jeremy Andreas:
-numeric</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A28" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Jeremy Andreas:
-numeric, wajib diisi jika Cover Period = Partial Tenor atau Over Tenor. Jika cover period = partial tenor, insurance length &lt; tenor. Jika cover period = over tenor, insurance length &gt; tenor.</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A30" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Jeremy Andreas:
-jika yes, tidak perlu diisi admin fee &amp; customer stampduty fee. Jika no, perlu mengisinya</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A31" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Jeremy Andreas:
-numeric</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A32" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Jeremy Andreas:
-numeric</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A45" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi yes/no sesuai dengan urutan year num, menggunakan pemisah/delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A46" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-dapat diisi sesuai urutan yearnum menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="B46" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-dapat diisi customer/multifinance</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A47" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-dapat diisi sesuai urutan yearnum menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A48" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-dapat diisi sesuai urutan yearnum menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A50" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi yes/no dalam array jika ingin mengubah default (apply to all) sesuai urutan yearnum, jika tidak diisi maka akan mengikuti nilai dari apply to all, diisi menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A51" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi yes/no dalam array jika ingin mengubah default (apply to all) sesuai urutan yearnum, jika tidak diisi maka akan mengikuti nilai dari apply to all, diisi menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A52" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi yes/no dalam array jika ingin mengubah default (apply to all) sesuai urutan yearnum, jika tidak diisi maka akan mengikuti nilai dari apply to all, diisi menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A53" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi yes/no dalam array jika ingin mengubah default (apply to all) sesuai urutan yearnum, jika tidak diisi maka akan mengikuti nilai dari apply to all, diisi menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A54" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi yes/no dalam array jika ingin mengubah default (apply to all) sesuai urutan yearnum, jika tidak diisi maka akan mengikuti nilai dari apply to all, diisi menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A55" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi yes/no dalam array jika ingin mengubah default (apply to all) sesuai urutan yearnum, jika tidak diisi maka akan mengikuti nilai dari apply to all, diisi menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A56" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi yes/no dalam array jika ingin mengubah default (apply to all) sesuai urutan yearnum, jika tidak diisi maka akan mengikuti nilai dari apply to all, diisi menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A59" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi index dropdownlist yang ingin dipilih sesuai urutan yearnum, menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A60" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi index dropdownlist yang ingin dipilih sesuai urutan yearnum, menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A61" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi index dropdownlist yang ingin dipilih sesuai urutan yearnum, menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A62" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi index dropdownlist yang ingin dipilih sesuai urutan yearnum, menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A63" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi index dropdownlist yang ingin dipilih sesuai urutan yearnum, menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A64" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi index dropdownlist yang ingin dipilih sesuai urutan yearnum, menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A65" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-diisi index dropdownlist yang ingin dipilih sesuai urutan yearnum, menggunakan delimiter ;</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A81" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Jeremy Andreas:
-numeric</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A82" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Diskon akan mengikuti nilai disini jika min ada 1 yearnum yang paid by multifinance, Field ini tidak perlu diisi, karena akan terisi otomatis oleh Katalon.</t>
-        </r>
-      </text>
-    </comment>
-    <comment authorId="1" ref="B92" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jeremy Andreas:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Angka ini + 1 = Jumlah Yearnum yang akan terbentuk</t>
+Format MM/DD/YYYY</t>
         </r>
       </text>
     </comment>
@@ -15585,7 +15647,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4948" uniqueCount="3640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5073" uniqueCount="3677">
   <si>
     <t>Count</t>
   </si>
@@ -26403,9 +26465,6 @@
     <t>FT BUDIAWAN;</t>
   </si>
   <si>
-    <t>FL4W YAN 2022</t>
-  </si>
-  <si>
     <t>1;1;1</t>
   </si>
   <si>
@@ -26433,9 +26492,6 @@
     <t>0002APP20221206334</t>
   </si>
   <si>
-    <t>0002APP20221206371</t>
-  </si>
-  <si>
     <t>MOU CUST</t>
   </si>
   <si>
@@ -26505,13 +26561,130 @@
     <t>Dupcheck Output</t>
   </si>
   <si>
+    <t>$Collateral Status</t>
+  </si>
+  <si>
+    <t>$Collateral Type</t>
+  </si>
+  <si>
+    <t>CRUX</t>
+  </si>
+  <si>
+    <t>$Collateral Code</t>
+  </si>
+  <si>
+    <t>$Collateral Condition</t>
+  </si>
+  <si>
+    <t>$Collateral Usage</t>
+  </si>
+  <si>
+    <t>$Collateral Price</t>
+  </si>
+  <si>
+    <t>$Portion Percentage</t>
+  </si>
+  <si>
+    <t>$Portion Amount</t>
+  </si>
+  <si>
+    <t>$Remaining Portion Percentage</t>
+  </si>
+  <si>
+    <t>$Serial 1</t>
+  </si>
+  <si>
+    <t>$Serial 2</t>
+  </si>
+  <si>
+    <t>$Serial 3</t>
+  </si>
+  <si>
+    <t>Collateral Form</t>
+  </si>
+  <si>
+    <t>Collateral Info</t>
+  </si>
+  <si>
+    <t>Collateral Attribute</t>
+  </si>
+  <si>
+    <t>Collateral Owner</t>
+  </si>
+  <si>
+    <t>Collateral Owner &amp; Collateral Location Address</t>
+  </si>
+  <si>
+    <t>BOAT</t>
+  </si>
+  <si>
+    <t>7777PP</t>
+  </si>
+  <si>
+    <t>7124PPP</t>
+  </si>
+  <si>
+    <t>$Collateral Name</t>
+  </si>
+  <si>
+    <t>THE CRUX</t>
+  </si>
+  <si>
+    <t>Collateral Tax Date</t>
+  </si>
+  <si>
+    <t>New Collateral</t>
+  </si>
+  <si>
+    <t>.TOYOTA.CAMRY.3.5Q</t>
+  </si>
+  <si>
+    <t>TOYOTA CAMRY 3.5Q</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>FL4W_MRA_PROD_OFFERING</t>
+  </si>
+  <si>
     <t>FAILED</t>
   </si>
   <si>
-    <t>Button Save Tidak Berfungsi</t>
-  </si>
-  <si>
-    <t>Button Save Tidak Berfungsi;Failed Store DB</t>
+    <t>-;Failed Verify Match / Equal;Failed Verify Data DDLInstallment Scheme;Failed Verify Match / Equal;Failed Verify Data DDLInstallment Scheme</t>
+  </si>
+  <si>
+    <t>Collateral Existing</t>
+  </si>
+  <si>
+    <t>Amount &gt;=</t>
+  </si>
+  <si>
+    <t>Amount &lt;=</t>
+  </si>
+  <si>
+    <t>MONSTER</t>
+  </si>
+  <si>
+    <t>Button Save Tidak Berfungsi;Failed Verify Data DDLJumlah Asset Usage</t>
+  </si>
+  <si>
+    <t>Used</t>
+  </si>
+  <si>
+    <t>Non Commercial</t>
+  </si>
+  <si>
+    <t>Existing Collateral</t>
+  </si>
+  <si>
+    <t>0002APP20211204379</t>
+  </si>
+  <si>
+    <t>-;Failed Store DB</t>
+  </si>
+  <si>
+    <t>-;Failed Store DB;Failed Store DB</t>
   </si>
 </sst>
 </file>
@@ -26527,7 +26700,7 @@
     <numFmt numFmtId="167" formatCode="#,##0.000000"/>
     <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -26650,6 +26823,12 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -27075,7 +27254,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="43"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="44"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="202">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
@@ -27325,6 +27504,10 @@
     <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="1" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="43" xfId="2"/>
     <xf applyAlignment="1" applyBorder="1" borderId="15" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -27393,7 +27576,7 @@
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="171">
+  <dxfs count="184">
     <dxf>
       <numFmt formatCode="General" numFmtId="0"/>
     </dxf>
@@ -27867,6 +28050,97 @@
       <fill>
         <patternFill>
           <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -29831,10 +30105,10 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
       <selection activeCell="G20" sqref="G20"/>
-      <selection activeCell="D1" pane="topRight" sqref="B1:D2"/>
+      <selection activeCell="A23" pane="topRight" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29850,10 +30124,10 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3637</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3637</v>
+        <v>3664</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>7</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>7</v>
@@ -29873,10 +30147,10 @@
         <v>3192</v>
       </c>
       <c r="B2" t="s">
-        <v>3638</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3639</v>
+        <v>3670</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>3037</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>3037</v>
@@ -29918,11 +30192,11 @@
       </c>
       <c r="B8" s="18" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20221206371</v>
+        <v>0002APP20211204379</v>
       </c>
       <c r="C8" s="18" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20221206371</v>
+        <v>0002APP20211204379</v>
       </c>
     </row>
     <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -29941,24 +30215,24 @@
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="169" t="s">
+    <row customFormat="1" r="11" s="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="171" t="s">
         <v>3009</v>
       </c>
-      <c r="B11" s="170"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
+      <c r="B11" s="172"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="172"/>
     </row>
     <row customFormat="1" r="12" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
         <v>3313</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>3627</v>
+        <v>3625</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>3627</v>
+        <v>3625</v>
       </c>
     </row>
     <row customFormat="1" r="13" s="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -29966,10 +30240,10 @@
         <v>3314</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
     </row>
     <row customFormat="1" r="14" s="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -29977,10 +30251,10 @@
         <v>3315</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>3629</v>
+        <v>3627</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>3629</v>
+        <v>3627</v>
       </c>
     </row>
     <row customFormat="1" r="15" s="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -29988,30 +30262,30 @@
         <v>91</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>3630</v>
+        <v>3628</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>3630</v>
-      </c>
-    </row>
-    <row customFormat="1" r="16" s="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="169" t="s">
+        <v>3628</v>
+      </c>
+    </row>
+    <row customFormat="1" r="16" s="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="171" t="s">
         <v>3010</v>
       </c>
-      <c r="B16" s="170"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
+      <c r="B16" s="172"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="172"/>
     </row>
     <row customFormat="1" r="17" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="57" t="s">
         <v>3316</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>3631</v>
+        <v>3629</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>3632</v>
+        <v>3630</v>
       </c>
     </row>
     <row customFormat="1" r="18" s="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -30190,11 +30464,11 @@
       <c r="B33" s="127"/>
       <c r="C33" s="127"/>
     </row>
-    <row customFormat="1" r="34" s="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="169" t="s">
+    <row customFormat="1" r="34" s="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="171" t="s">
         <v>3011</v>
       </c>
-      <c r="B34" s="170"/>
+      <c r="B34" s="172"/>
     </row>
     <row customFormat="1" r="35" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="57" t="s">
@@ -30207,11 +30481,11 @@
         <v>3061</v>
       </c>
     </row>
-    <row customFormat="1" r="36" s="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="169" t="s">
+    <row customFormat="1" r="36" s="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="171" t="s">
         <v>3012</v>
       </c>
-      <c r="B36" s="170"/>
+      <c r="B36" s="172"/>
     </row>
     <row customFormat="1" r="37" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
@@ -30246,11 +30520,11 @@
         <v>271</v>
       </c>
     </row>
-    <row customFormat="1" r="40" s="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="169" t="s">
+    <row customFormat="1" r="40" s="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="171" t="s">
         <v>3013</v>
       </c>
-      <c r="B40" s="170"/>
+      <c r="B40" s="172"/>
     </row>
     <row customFormat="1" r="41" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
@@ -30282,7 +30556,7 @@
         <v>3125</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>3635</v>
+        <v>3633</v>
       </c>
     </row>
     <row customFormat="1" r="44" s="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -30364,11 +30638,11 @@
         <v>1231413</v>
       </c>
     </row>
-    <row customFormat="1" r="51" s="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="169" t="s">
+    <row customFormat="1" r="51" s="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="171" t="s">
         <v>3312</v>
       </c>
-      <c r="B51" s="170"/>
+      <c r="B51" s="172"/>
     </row>
     <row customFormat="1" r="52" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="56" t="s">
@@ -30469,11 +30743,11 @@
         <v>3124</v>
       </c>
     </row>
-    <row customFormat="1" r="61" s="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="169" t="s">
+    <row customFormat="1" r="61" s="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="171" t="s">
         <v>3064</v>
       </c>
-      <c r="B61" s="170"/>
+      <c r="B61" s="172"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="106" t="s">
@@ -30491,11 +30765,11 @@
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
     </row>
-    <row customFormat="1" r="63" s="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="169" t="s">
+    <row customFormat="1" r="63" s="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="171" t="s">
         <v>3429</v>
       </c>
-      <c r="B63" s="170"/>
+      <c r="B63" s="172"/>
     </row>
     <row customFormat="1" r="64" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
@@ -30523,11 +30797,11 @@
         <v>3461</v>
       </c>
     </row>
-    <row customFormat="1" r="68" s="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="169" t="s">
+    <row customFormat="1" r="68" s="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="171" t="s">
         <v>3442</v>
       </c>
-      <c r="B68" s="170"/>
+      <c r="B68" s="172"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="116" t="s">
@@ -30568,57 +30842,57 @@
     <mergeCell ref="A40:XFD40"/>
   </mergeCells>
   <conditionalFormatting sqref="A27:XFD27">
-    <cfRule dxfId="123" priority="16" type="expression">
+    <cfRule dxfId="136" priority="16" type="expression">
       <formula>A$26="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:XFD28">
-    <cfRule dxfId="122" priority="15" type="expression">
+    <cfRule dxfId="135" priority="15" type="expression">
       <formula>A$26="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:XFD39">
-    <cfRule dxfId="121" priority="14" type="expression">
+    <cfRule dxfId="134" priority="14" type="expression">
       <formula>A$37="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:XFD50">
-    <cfRule dxfId="120" priority="13" type="expression">
+    <cfRule dxfId="133" priority="13" type="expression">
       <formula>A$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A60 D54:XFD60">
-    <cfRule dxfId="119" priority="10" type="expression">
+    <cfRule dxfId="132" priority="10" type="expression">
       <formula>A$52="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:XFD53">
-    <cfRule dxfId="118" priority="9" type="expression">
+    <cfRule dxfId="131" priority="9" type="expression">
       <formula>A$52="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:XFD47">
-    <cfRule dxfId="117" priority="8" type="expression">
+    <cfRule dxfId="130" priority="8" type="expression">
       <formula>A$42="Personal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:XFD46">
-    <cfRule dxfId="116" priority="7" type="expression">
+    <cfRule dxfId="129" priority="7" type="expression">
       <formula>A$42="Company"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:XFD62">
-    <cfRule dxfId="115" priority="6" type="expression">
+    <cfRule dxfId="128" priority="6" type="expression">
       <formula>A$18="New"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:C60">
-    <cfRule dxfId="114" priority="5" type="expression">
+    <cfRule dxfId="127" priority="5" type="expression">
       <formula>B$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:C60">
-    <cfRule dxfId="113" priority="4" type="expression">
+    <cfRule dxfId="126" priority="4" type="expression">
       <formula>B$52="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30827,7 +31101,7 @@
     <row customFormat="1" r="9" s="18" spans="1:8" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="10" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>3633</v>
+        <v>3631</v>
       </c>
       <c r="B10" s="18" t="str">
         <f>'7.TabAssetData'!B17</f>
@@ -30851,11 +31125,11 @@
       </c>
       <c r="B12" s="18" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20221206371</v>
+        <v>0002APP20211204379</v>
       </c>
       <c r="C12" s="18" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20221206371</v>
+        <v>0002APP20211204379</v>
       </c>
     </row>
     <row customFormat="1" r="13" s="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -30863,10 +31137,10 @@
         <v>3313</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3627</v>
+        <v>3625</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>3627</v>
+        <v>3625</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -30879,10 +31153,10 @@
         <v>3314</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>3134</v>
@@ -30905,10 +31179,10 @@
         <v>3346</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>3634</v>
+        <v>3632</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>3634</v>
+        <v>3632</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -30921,10 +31195,10 @@
         <v>3347</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>3634</v>
+        <v>3632</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>3634</v>
+        <v>3632</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>3062</v>
@@ -31054,17 +31328,17 @@
         <v>3472</v>
       </c>
     </row>
-    <row customFormat="1" r="22" s="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="173" t="s">
+    <row customFormat="1" r="22" s="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="175" t="s">
         <v>3442</v>
       </c>
-      <c r="B22" s="174"/>
-      <c r="C22" s="174"/>
-      <c r="D22" s="174"/>
-      <c r="E22" s="174"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="174"/>
-      <c r="H22" s="174"/>
+      <c r="B22" s="176"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="176"/>
+      <c r="E22" s="176"/>
+      <c r="F22" s="176"/>
+      <c r="G22" s="176"/>
+      <c r="H22" s="176"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="116" t="s">
@@ -31097,22 +31371,22 @@
     <mergeCell ref="A22:XFD22"/>
   </mergeCells>
   <conditionalFormatting sqref="B19:XFD19">
-    <cfRule dxfId="112" priority="6" type="expression">
+    <cfRule dxfId="125" priority="6" type="expression">
       <formula>B$18="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:XFD20">
-    <cfRule dxfId="111" priority="5" type="expression">
+    <cfRule dxfId="124" priority="5" type="expression">
       <formula>B$18="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule dxfId="110" priority="2" type="expression">
+    <cfRule dxfId="123" priority="2" type="expression">
       <formula>A$18="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule dxfId="109" priority="1" type="expression">
+    <cfRule dxfId="122" priority="1" type="expression">
       <formula>A$18="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31138,6 +31412,837 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:H64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
+      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C62" pane="topRight" sqref="C62:C64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="138" width="34.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="38.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="138" width="44.140625" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" style="138" width="11.7109375" collapsed="true"/>
+    <col min="6" max="16384" style="138" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" r="1" s="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3664</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>3192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3676</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>3037</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>3037</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>3037</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>3037</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row customFormat="1" r="3" s="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row customFormat="1" r="4" s="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>3275</v>
+      </c>
+      <c r="B4" s="18">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row customFormat="1" r="5" s="18" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="6" s="18" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="7" s="18" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18" t="str">
+        <f>'1.TabCustomerMainData'!B$13</f>
+        <v>0002APP20211204379</v>
+      </c>
+      <c r="C8" s="18" t="str">
+        <f>'1.TabCustomerMainData'!B$13</f>
+        <v>0002APP20211204379</v>
+      </c>
+    </row>
+    <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>3420</v>
+      </c>
+    </row>
+    <row customFormat="1" r="10" s="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>3412</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row customFormat="1" r="11" s="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="171" t="s">
+        <v>3648</v>
+      </c>
+      <c r="B11" s="172"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="172"/>
+    </row>
+    <row customFormat="1" r="12" s="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="57" t="s">
+        <v>3635</v>
+      </c>
+      <c r="B12" s="165" t="s">
+        <v>3659</v>
+      </c>
+      <c r="C12" s="165" t="s">
+        <v>3673</v>
+      </c>
+      <c r="D12" s="165"/>
+    </row>
+    <row customFormat="1" r="13" s="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="171" t="s">
+        <v>3649</v>
+      </c>
+      <c r="B13" s="172"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="172"/>
+    </row>
+    <row customFormat="1" r="14" s="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="57" t="s">
+        <v>3636</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>3653</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>3662</v>
+      </c>
+    </row>
+    <row customFormat="1" r="15" s="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="57" t="s">
+        <v>3638</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>3637</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>3660</v>
+      </c>
+    </row>
+    <row customFormat="1" r="16" s="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="57" t="s">
+        <v>3656</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>3657</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>3661</v>
+      </c>
+    </row>
+    <row customFormat="1" r="17" s="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="57" t="s">
+        <v>3320</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2022</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2022</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2022</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row customFormat="1" r="18" s="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="57" t="s">
+        <v>3639</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>3671</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>3132</v>
+      </c>
+    </row>
+    <row customFormat="1" r="19" s="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="57" t="s">
+        <v>3640</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>3672</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row customFormat="1" r="20" s="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>3658</v>
+      </c>
+      <c r="B20" s="72">
+        <v>44369</v>
+      </c>
+      <c r="C20" s="72">
+        <v>44370</v>
+      </c>
+    </row>
+    <row customFormat="1" r="21" s="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="57" t="s">
+        <v>3641</v>
+      </c>
+      <c r="B21" s="54">
+        <v>1000000000</v>
+      </c>
+      <c r="C21" s="54">
+        <v>3000000000</v>
+      </c>
+    </row>
+    <row customFormat="1" r="22" s="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="58" t="s">
+        <v>3642</v>
+      </c>
+      <c r="B22" s="146">
+        <v>20</v>
+      </c>
+      <c r="C22" s="146">
+        <v>50</v>
+      </c>
+      <c r="D22" s="10">
+        <v>30</v>
+      </c>
+      <c r="E22" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row customFormat="1" r="23" s="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="58" t="s">
+        <v>3643</v>
+      </c>
+      <c r="B23" s="54">
+        <f>B21*B22%</f>
+        <v>200000000</v>
+      </c>
+      <c r="C23" s="54">
+        <f ref="C23:E23" si="0" t="shared">C21*C22%</f>
+        <v>1500000000</v>
+      </c>
+      <c r="D23" s="54">
+        <f si="0" t="shared"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="54">
+        <f si="0" t="shared"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row customFormat="1" r="24" s="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="58" t="s">
+        <v>3644</v>
+      </c>
+      <c r="B24" s="54">
+        <f>100-B22</f>
+        <v>80</v>
+      </c>
+      <c r="C24" s="54">
+        <f ref="C24:E24" si="1" t="shared">100-C22</f>
+        <v>50</v>
+      </c>
+      <c r="D24" s="54">
+        <f si="1" t="shared"/>
+        <v>70</v>
+      </c>
+      <c r="E24" s="54">
+        <f si="1" t="shared"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row customFormat="1" r="25" s="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row customFormat="1" r="26" s="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="57" t="s">
+        <v>3645</v>
+      </c>
+      <c r="B26" s="112" t="s">
+        <v>3654</v>
+      </c>
+      <c r="C26" s="112" t="s">
+        <v>3655</v>
+      </c>
+    </row>
+    <row customFormat="1" r="27" s="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="57" t="s">
+        <v>3646</v>
+      </c>
+      <c r="B27" s="112"/>
+      <c r="C27" s="112"/>
+    </row>
+    <row customFormat="1" r="28" s="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="57" t="s">
+        <v>3647</v>
+      </c>
+      <c r="B28" s="112"/>
+      <c r="C28" s="112"/>
+    </row>
+    <row customFormat="1" r="29" s="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="57" t="s">
+        <v>3327</v>
+      </c>
+      <c r="B29" s="112"/>
+      <c r="C29" s="112"/>
+    </row>
+    <row customFormat="1" r="30" s="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="57" t="s">
+        <v>3328</v>
+      </c>
+      <c r="B30" s="127"/>
+      <c r="C30" s="127"/>
+    </row>
+    <row customFormat="1" r="31" s="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="171" t="s">
+        <v>3650</v>
+      </c>
+      <c r="B31" s="172"/>
+    </row>
+    <row customFormat="1" r="32" s="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="57" t="s">
+        <v>3329</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>3061</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+    <row customFormat="1" r="33" s="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="171" t="s">
+        <v>3651</v>
+      </c>
+      <c r="B33" s="172"/>
+    </row>
+    <row customFormat="1" r="34" s="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row customFormat="1" r="35" s="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="58" t="s">
+        <v>3332</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row customFormat="1" r="36" s="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="58" t="s">
+        <v>3333</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>3560</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>3633</v>
+      </c>
+    </row>
+    <row customFormat="1" r="37" s="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="58" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customFormat="1" r="38" s="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="18" t="str">
+        <f>VLOOKUP(B39,Master!$A:$B,2,FALSE)</f>
+        <v>EMP0004</v>
+      </c>
+      <c r="C38" s="18" t="str">
+        <f>VLOOKUP(C39,Master!$A:$B,2,FALSE)</f>
+        <v>EMP0006</v>
+      </c>
+    </row>
+    <row customFormat="1" r="39" s="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row customFormat="1" r="40" s="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row customFormat="1" r="41" s="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="58" t="s">
+        <v>3335</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row customFormat="1" r="42" s="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="58" t="s">
+        <v>3336</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>3498</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row customFormat="1" r="43" s="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>3539</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1231413</v>
+      </c>
+    </row>
+    <row customFormat="1" r="44" s="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="171" t="s">
+        <v>3652</v>
+      </c>
+      <c r="B44" s="172"/>
+    </row>
+    <row customFormat="1" r="45" s="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row customFormat="1" r="46" s="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="58" t="s">
+        <v>3337</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row customFormat="1" r="47" s="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="58" t="s">
+        <v>3266</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>3499</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row customFormat="1" r="48" s="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="58" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" r="49" s="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="58" t="s">
+        <v>3268</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row customFormat="1" r="50" s="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="58" t="s">
+        <v>3269</v>
+      </c>
+      <c r="B50" s="2">
+        <v>40242</v>
+      </c>
+      <c r="C50" s="2">
+        <v>40242</v>
+      </c>
+    </row>
+    <row customFormat="1" r="51" s="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="58" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>3059</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row customFormat="1" r="52" s="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="58" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>3060</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row customFormat="1" r="53" s="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="58" t="s">
+        <v>3272</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>3124</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>3124</v>
+      </c>
+    </row>
+    <row customFormat="1" r="54" s="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="171" t="s">
+        <v>3064</v>
+      </c>
+      <c r="B54" s="172"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="106" t="s">
+        <v>3338</v>
+      </c>
+      <c r="B55" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row customFormat="1" r="56" s="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="171" t="s">
+        <v>3429</v>
+      </c>
+      <c r="B56" s="172"/>
+    </row>
+    <row customFormat="1" r="57" s="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="18" t="s">
+        <v>3430</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row customFormat="1" r="58" s="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="18" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row customFormat="1" r="59" s="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row customFormat="1" r="60" s="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>3432</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row customFormat="1" r="61" s="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="171" t="s">
+        <v>3666</v>
+      </c>
+      <c r="B61" s="172"/>
+    </row>
+    <row customFormat="1" r="62" s="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="57" t="s">
+        <v>3656</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>3669</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>3669</v>
+      </c>
+    </row>
+    <row customFormat="1" r="63" s="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
+        <v>3667</v>
+      </c>
+      <c r="B63" s="166">
+        <v>100000</v>
+      </c>
+      <c r="C63" s="166">
+        <v>100000</v>
+      </c>
+    </row>
+    <row customFormat="1" r="64" s="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>3668</v>
+      </c>
+      <c r="B64" s="166">
+        <v>9999999999</v>
+      </c>
+      <c r="C64" s="166">
+        <v>9999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A54:XFD54"/>
+    <mergeCell ref="A56:XFD56"/>
+    <mergeCell ref="A61:XFD61"/>
+    <mergeCell ref="A11:XFD11"/>
+    <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="A31:XFD31"/>
+    <mergeCell ref="A33:XFD33"/>
+    <mergeCell ref="A44:XFD44"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A24:B24 F24:XFD24">
+    <cfRule dxfId="121" priority="13" type="expression">
+      <formula>#REF!="Percentage"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:XFD43">
+    <cfRule dxfId="120" priority="11" type="expression">
+      <formula>A$34="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:A53 D47:XFD53">
+    <cfRule dxfId="119" priority="10" type="expression">
+      <formula>A$45="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:XFD46">
+    <cfRule dxfId="118" priority="9" type="expression">
+      <formula>A$45="No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:XFD40">
+    <cfRule dxfId="117" priority="8" type="expression">
+      <formula>A$35="Personal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:XFD39">
+    <cfRule dxfId="116" priority="7" type="expression">
+      <formula>A$35="Company"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:XFD55">
+    <cfRule dxfId="115" priority="6" type="expression">
+      <formula>A$18="New"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:C53">
+    <cfRule dxfId="114" priority="5" type="expression">
+      <formula>B$34="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:C53">
+    <cfRule dxfId="113" priority="4" type="expression">
+      <formula>B$45="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:XFD22">
+    <cfRule dxfId="112" priority="26" type="expression">
+      <formula>#REF!="Amount"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:B23 F23:XFD23">
+    <cfRule dxfId="111" priority="3" type="expression">
+      <formula>#REF!="Percentage"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:E24">
+    <cfRule dxfId="110" priority="2" type="expression">
+      <formula>#REF!="Percentage"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:E23">
+    <cfRule dxfId="109" priority="1" type="expression">
+      <formula>#REF!="Percentage"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="27">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B10:C10" type="list">
+      <formula1>"Yes, No, Edit"</formula1>
+    </dataValidation>
+    <dataValidation errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B37" type="list">
+      <formula1>IF(AND(B34="No",B35="Personal"),ListCustomerRelationship,ListGuarantorRelationshipCompany)</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B53:C53" type="custom">
+      <formula1>AND(#REF!="No",B45="No")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B52:C52" type="custom">
+      <formula1>AND(#REF!="No",B45="No")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B51:C51" type="custom">
+      <formula1>AND(#REF!="No",B45="No")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B50:C50" type="custom">
+      <formula1>AND(#REF!="No",B45="No")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B49:C49" type="custom">
+      <formula1>AND(#REF!="No",B45="No")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B48:C48" type="custom">
+      <formula1>AND(#REF!="No",B45="No")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B47:C47" type="custom">
+      <formula1>AND(#REF!="No",B45="No")</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B46:C46" type="list">
+      <formula1>ListCopyAddressCAPS</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B41:C41" type="list">
+      <formula1>ListIdType</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B40:C40" type="list">
+      <formula1>ListCompanyType</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B39:C39" type="list">
+      <formula1>ListJobProfessionEMP</formula1>
+    </dataValidation>
+    <dataValidation errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="C37" type="list">
+      <formula1>ListGuarantorRelationshipCompany</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B35:C35" type="list">
+      <formula1>ListOwnerType</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B55:C55 B34:C34 B45:C45" type="list">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B42:C42" type="custom">
+      <formula1>AND(B34="No",IF(B41="E-KTP",LEN(B42)=16,IF(B41="NPWP",LEN(B42)=15,LEN(B42)&gt;0)))</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B21:C21" type="custom">
+      <formula1>ISNUMBER(B21)</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B43:C43" type="custom">
+      <formula1>B34="No"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B36:C36" type="custom">
+      <formula1>B34="No"</formula1>
+    </dataValidation>
+    <dataValidation errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B38:C38" type="custom">
+      <formula1>AND(B34="No",B35="Personal")</formula1>
+    </dataValidation>
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="B59"/>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B32:C32" type="list">
+      <formula1>"REGION1, REGION2, REGION3"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B19:C19" type="list">
+      <formula1>"Commercial, Non Commercial"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B18:C18" type="list">
+      <formula1>"New, Used"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="D22:E22" type="custom">
+      <formula1>AND(#REF!="Percentage",ISNUMBER(D22))</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B23:E24 B22:C22"/>
+  </dataValidations>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:H96"/>
   <sheetViews>
@@ -31228,7 +32333,7 @@
       </c>
       <c r="B8" s="18" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20221206309</v>
+        <v>0002APP20211204379</v>
       </c>
       <c r="C8" s="18">
         <f>'1.TabCustomerMainData'!C$13</f>
@@ -31253,14 +32358,14 @@
         <v>No</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="180" t="s">
+    <row customFormat="1" r="11" s="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="182" t="s">
         <v>3014</v>
       </c>
-      <c r="B11" s="181"/>
-      <c r="C11" s="181"/>
-      <c r="D11" s="181"/>
-      <c r="E11" s="182"/>
+      <c r="B11" s="183"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="184"/>
     </row>
     <row customFormat="1" r="12" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
@@ -31273,14 +32378,14 @@
         <v>219</v>
       </c>
     </row>
-    <row customFormat="1" r="13" s="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="183" t="s">
+    <row customFormat="1" r="13" s="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="185" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="184"/>
-      <c r="C13" s="184"/>
-      <c r="D13" s="184"/>
-      <c r="E13" s="185"/>
+      <c r="B13" s="186"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="186"/>
+      <c r="E13" s="187"/>
     </row>
     <row customFormat="1" r="14" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
@@ -31341,14 +32446,14 @@
         <v>110</v>
       </c>
     </row>
-    <row customFormat="1" r="21" s="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="183" t="s">
+    <row customFormat="1" r="21" s="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="185" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="184"/>
-      <c r="C21" s="184"/>
-      <c r="D21" s="184"/>
-      <c r="E21" s="185"/>
+      <c r="B21" s="186"/>
+      <c r="C21" s="186"/>
+      <c r="D21" s="186"/>
+      <c r="E21" s="187"/>
     </row>
     <row customFormat="1" r="22" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="58" t="s">
@@ -31421,14 +32526,14 @@
         <v>48</v>
       </c>
     </row>
-    <row customFormat="1" r="29" s="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="180" t="s">
+    <row customFormat="1" r="29" s="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="182" t="s">
         <v>3015</v>
       </c>
-      <c r="B29" s="181"/>
-      <c r="C29" s="181"/>
-      <c r="D29" s="181"/>
-      <c r="E29" s="182"/>
+      <c r="B29" s="183"/>
+      <c r="C29" s="183"/>
+      <c r="D29" s="183"/>
+      <c r="E29" s="184"/>
     </row>
     <row customFormat="1" r="30" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="63" t="s">
@@ -31463,14 +32568,14 @@
         <v>800000</v>
       </c>
     </row>
-    <row customFormat="1" r="33" s="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="187" t="s">
+    <row customFormat="1" r="33" s="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="189" t="s">
         <v>3016</v>
       </c>
-      <c r="B33" s="188"/>
-      <c r="C33" s="188"/>
-      <c r="D33" s="188"/>
-      <c r="E33" s="189"/>
+      <c r="B33" s="190"/>
+      <c r="C33" s="190"/>
+      <c r="D33" s="190"/>
+      <c r="E33" s="191"/>
     </row>
     <row customFormat="1" r="34" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="58" t="s">
@@ -31582,14 +32687,14 @@
       <c r="D43" s="98"/>
       <c r="E43" s="98"/>
     </row>
-    <row customFormat="1" r="44" s="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="191" t="s">
+    <row customFormat="1" r="44" s="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="193" t="s">
         <v>3155</v>
       </c>
-      <c r="B44" s="192"/>
-      <c r="C44" s="192"/>
-      <c r="D44" s="192"/>
-      <c r="E44" s="192"/>
+      <c r="B44" s="194"/>
+      <c r="C44" s="194"/>
+      <c r="D44" s="194"/>
+      <c r="E44" s="194"/>
     </row>
     <row customFormat="1" r="45" s="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="86" t="s">
@@ -32003,7 +33108,7 @@
       </c>
       <c r="B89" s="115">
         <f>B88+SUMIFS('7a.Accessories'!17:17,'7a.Accessories'!12:12,B8,'7a.Accessories'!4:4,"0",'7a.Accessories'!1:1,"SUCCESS")</f>
-        <v>1000000000</v>
+        <v>1002000000</v>
       </c>
       <c r="C89" s="115">
         <f>C88+SUMIFS('7a.Accessories'!17:17,'7a.Accessories'!12:12,C8,'7a.Accessories'!4:4,"0",'7a.Accessories'!1:1,"SUCCESS")</f>
@@ -32012,10 +33117,10 @@
     </row>
     <row customFormat="1" r="90" s="17" spans="1:3" x14ac:dyDescent="0.25"/>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="176" t="s">
+      <c r="A91" s="178" t="s">
         <v>3150</v>
       </c>
-      <c r="B91" s="177"/>
+      <c r="B91" s="179"/>
     </row>
     <row ht="30" r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="92" t="s">
@@ -32027,10 +33132,10 @@
       </c>
     </row>
     <row customHeight="1" ht="30" r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="178" t="s">
+      <c r="A93" s="180" t="s">
         <v>3149</v>
       </c>
-      <c r="B93" s="179"/>
+      <c r="B93" s="181"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="85" t="s">
@@ -32042,14 +33147,14 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="175" t="s">
+      <c r="A95" s="177" t="s">
         <v>3156</v>
       </c>
-      <c r="B95" s="175"/>
+      <c r="B95" s="177"/>
     </row>
     <row customHeight="1" ht="45.75" r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="175"/>
-      <c r="B96" s="175"/>
+      <c r="A96" s="177"/>
+      <c r="B96" s="177"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -32219,7 +33324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:H24"/>
@@ -32311,7 +33416,7 @@
       </c>
       <c r="B8" s="18" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20221206309</v>
+        <v>0002APP20211204379</v>
       </c>
       <c r="C8" s="18">
         <f>'1.TabCustomerMainData'!C$13</f>
@@ -32336,8 +33441,8 @@
         <v>No</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="168" t="s">
+    <row customFormat="1" r="11" s="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="170" t="s">
         <v>3018</v>
       </c>
     </row>
@@ -32390,8 +33495,8 @@
         <v>95</v>
       </c>
     </row>
-    <row customFormat="1" r="17" s="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="168" t="s">
+    <row customFormat="1" r="17" s="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="170" t="s">
         <v>3019</v>
       </c>
     </row>
@@ -32433,14 +33538,14 @@
         <v>3373</v>
       </c>
       <c r="B21" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="C21" t="s">
         <v>3577</v>
       </c>
     </row>
-    <row customFormat="1" r="22" s="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="168" t="s">
+    <row customFormat="1" r="22" s="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="170" t="s">
         <v>3020</v>
       </c>
     </row>
@@ -32555,7 +33660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:V73"/>
@@ -32646,7 +33751,7 @@
       </c>
       <c r="B8" s="18" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20221206309</v>
+        <v>0002APP20211204379</v>
       </c>
       <c r="C8" s="18">
         <f>'1.TabCustomerMainData'!C$13</f>
@@ -32669,14 +33774,14 @@
         <v>3426</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="180" t="s">
+    <row customFormat="1" r="11" s="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="182" t="s">
         <v>3021</v>
       </c>
-      <c r="B11" s="181"/>
-      <c r="C11" s="181"/>
-      <c r="D11" s="181"/>
-      <c r="E11" s="182"/>
+      <c r="B11" s="183"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="184"/>
     </row>
     <row customFormat="1" r="12" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="64" t="s">
@@ -32755,14 +33860,14 @@
         <v>3531</v>
       </c>
     </row>
-    <row customFormat="1" r="19" s="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="180" t="s">
+    <row customFormat="1" r="19" s="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="182" t="s">
         <v>3022</v>
       </c>
-      <c r="B19" s="181"/>
-      <c r="C19" s="181"/>
-      <c r="D19" s="181"/>
-      <c r="E19" s="181"/>
+      <c r="B19" s="183"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="183"/>
     </row>
     <row customFormat="1" r="20" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="56" t="s">
@@ -33006,14 +34111,14 @@
         <v>1000000</v>
       </c>
     </row>
-    <row customFormat="1" r="42" s="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="180" t="s">
+    <row customFormat="1" r="42" s="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="182" t="s">
         <v>3023</v>
       </c>
-      <c r="B42" s="181"/>
-      <c r="C42" s="181"/>
-      <c r="D42" s="181"/>
-      <c r="E42" s="181"/>
+      <c r="B42" s="183"/>
+      <c r="C42" s="183"/>
+      <c r="D42" s="183"/>
+      <c r="E42" s="183"/>
     </row>
     <row customFormat="1" r="43" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
@@ -33143,7 +34248,7 @@
       </c>
       <c r="B55" s="142">
         <f>SUM(B56:B57)</f>
-        <v>1000000000</v>
+        <v>1002000000</v>
       </c>
       <c r="C55" s="142">
         <f>SUM(C56:C57)</f>
@@ -33169,7 +34274,7 @@
       </c>
       <c r="B57" s="142">
         <f>SUMIFS('7a.Accessories'!17:17,'7a.Accessories'!12:12,B8,'7a.Accessories'!4:4,"0",'7a.Accessories'!1:1,"SUCCESS")</f>
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="C57" s="142">
         <f>SUMIFS('7a.Accessories'!17:17,'7a.Accessories'!12:12,C8,'7a.Accessories'!4:4,"0",'7a.Accessories'!1:1,"SUCCESS")</f>
@@ -33221,7 +34326,7 @@
       </c>
       <c r="B61" s="142">
         <f>SUMIFS('7a.Accessories'!24:24,'7a.Accessories'!12:12,B8,'7a.Accessories'!4:4,"0",'7a.Accessories'!1:1,"SUCCESS")+'7.TabAssetData'!B70</f>
-        <v>180000000</v>
+        <v>180370000</v>
       </c>
       <c r="C61" s="142">
         <f>SUMIFS('7a.Accessories'!24:24,'7a.Accessories'!12:12,C8,'7a.Accessories'!4:4,"0",'7a.Accessories'!1:1,"SUCCESS")+'7.TabAssetData'!C70</f>
@@ -33234,7 +34339,7 @@
       </c>
       <c r="B62" s="142">
         <f>B61-B53</f>
-        <v>179985000</v>
+        <v>180355000</v>
       </c>
       <c r="C62" s="142">
         <f>C61-C53</f>
@@ -33247,7 +34352,7 @@
       </c>
       <c r="B63" s="139">
         <f>IF(B37= "OTR-DP",B39/(B55-B61)*100,IF(B37="OTR-DP + Ins Cptlz + Fee Cptlz(Excl. Provision)",B39*100/(B55-B61+B60+(B59-B41))))</f>
-        <v>3.6998993979735122</v>
+        <v>3.6928292875359978</v>
       </c>
       <c r="C63" s="139">
         <f>IF(C37= "OTR-DP",C39/(C55-C61)*100,IF(C37="OTR-DP + Ins Cptlz + Fee Cptlz(Excl. Provision)",C39*100/(C55-C61+C60+(C59-C41))))</f>
@@ -33344,7 +34449,7 @@
       </c>
       <c r="B72" s="145">
         <f>B62*100/B55</f>
-        <v>17.9985</v>
+        <v>17.999500998003992</v>
       </c>
       <c r="C72" s="145">
         <f>C62*100/C55</f>
@@ -33357,7 +34462,7 @@
       </c>
       <c r="B73" s="138">
         <f>IF(B37= "OTR-DP",(B55-B61),IF(B37="OTR-DP + Ins Cptlz + Fee Cptlz(Excl. Provision)",(B55-B61+B60+(B59-B41))))</f>
-        <v>851374500</v>
+        <v>853004500</v>
       </c>
       <c r="C73" s="138">
         <f ref="C73:T73" si="0" t="shared">IF(C37= "OTR-DP",(C55-C61),IF(C37="OTR-DP + Ins Cptlz + Fee Cptlz(Excl. Provision)",(C55-C61+C60+(C59-C41))))</f>
@@ -33633,7 +34738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:H20"/>
@@ -33733,7 +34838,7 @@
       </c>
       <c r="B8" s="18" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20221206309</v>
+        <v>0002APP20211204379</v>
       </c>
       <c r="C8" s="18">
         <f>'1.TabCustomerMainData'!C$13</f>
@@ -33823,10 +34928,10 @@
       <c r="C19" s="16"/>
     </row>
     <row customFormat="1" customHeight="1" ht="101.25" r="20" s="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="193" t="s">
+      <c r="A20" s="195" t="s">
         <v>2439</v>
       </c>
-      <c r="B20" s="193"/>
+      <c r="B20" s="195"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -33849,7 +34954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:H17"/>
@@ -33961,7 +35066,7 @@
       </c>
       <c r="B12" s="18" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20221206309</v>
+        <v>0002APP20211204379</v>
       </c>
       <c r="C12" s="18">
         <f>'1.TabCustomerMainData'!$C$13</f>
@@ -34055,7 +35160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:H64"/>
@@ -34145,7 +35250,7 @@
       </c>
       <c r="B8" s="18" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20221206309</v>
+        <v>0002APP20211204379</v>
       </c>
       <c r="C8" s="18">
         <f>'1.TabCustomerMainData'!C$13</f>
@@ -34188,14 +35293,14 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" r="13" s="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="194" t="s">
+    <row customFormat="1" r="13" s="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="196" t="s">
         <v>2430</v>
       </c>
-      <c r="B13" s="195"/>
-      <c r="C13" s="195"/>
-      <c r="D13" s="195"/>
-      <c r="E13" s="196"/>
+      <c r="B13" s="197"/>
+      <c r="C13" s="197"/>
+      <c r="D13" s="197"/>
+      <c r="E13" s="198"/>
     </row>
     <row customFormat="1" r="14" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
@@ -34393,21 +35498,21 @@
         <v>1</v>
       </c>
     </row>
-    <row customFormat="1" r="26" s="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="194" t="s">
+    <row customFormat="1" r="26" s="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="196" t="s">
         <v>2434</v>
       </c>
-      <c r="B26" s="195"/>
-      <c r="C26" s="195"/>
-      <c r="D26" s="195"/>
-      <c r="E26" s="196"/>
+      <c r="B26" s="197"/>
+      <c r="C26" s="197"/>
+      <c r="D26" s="197"/>
+      <c r="E26" s="198"/>
     </row>
     <row customFormat="1" r="27" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>2435</v>
       </c>
       <c r="B27" s="164" t="s">
-        <v>3606</v>
+        <v>3605</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -34418,7 +35523,7 @@
         <v>2436</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>3607</v>
+        <v>3606</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -34429,7 +35534,7 @@
         <v>3294</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>3604</v>
+        <v>3603</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>3137</v>
@@ -34463,7 +35568,7 @@
         <v>2425</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>3604</v>
+        <v>3603</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>3571</v>
@@ -34497,7 +35602,7 @@
         <v>2433</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>3604</v>
+        <v>3603</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>3214</v>
@@ -34531,7 +35636,7 @@
         <v>2416</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>3604</v>
+        <v>3603</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>3217</v>
@@ -34565,7 +35670,7 @@
         <v>2418</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>3604</v>
+        <v>3603</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>3220</v>
@@ -34599,7 +35704,7 @@
         <v>2420</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>3604</v>
+        <v>3603</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>3223</v>
@@ -34633,7 +35738,7 @@
         <v>2422</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>3605</v>
+        <v>3604</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>3063</v>
@@ -34645,11 +35750,11 @@
         <v>3227</v>
       </c>
     </row>
-    <row customFormat="1" r="42" s="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="194" t="s">
+    <row customFormat="1" r="42" s="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="196" t="s">
         <v>2423</v>
       </c>
-      <c r="B42" s="195"/>
+      <c r="B42" s="197"/>
     </row>
     <row customFormat="1" r="43" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
@@ -34789,8 +35894,8 @@
         <v>3241</v>
       </c>
     </row>
-    <row customFormat="1" r="53" s="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="197" t="s">
+    <row customFormat="1" r="53" s="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="199" t="s">
         <v>3473</v>
       </c>
     </row>
@@ -34862,10 +35967,10 @@
       <c r="B61" s="19"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="198" t="s">
+      <c r="A62" s="200" t="s">
         <v>2427</v>
       </c>
-      <c r="B62" s="199"/>
+      <c r="B62" s="201"/>
     </row>
     <row ht="210" r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="24" t="s">
@@ -34941,7 +36046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:H27"/>
@@ -35031,7 +36136,7 @@
       </c>
       <c r="B8" s="18" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20221206309</v>
+        <v>0002APP20211204379</v>
       </c>
       <c r="C8" s="18">
         <f>'1.TabCustomerMainData'!C$13</f>
@@ -35147,7 +36252,7 @@
     </row>
     <row customFormat="1" ht="16.5" r="17" s="43" spans="1:5" thickBot="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="68" t="s">
-        <v>3608</v>
+        <v>3607</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -35164,7 +36269,7 @@
     </row>
     <row customFormat="1" ht="16.5" r="18" s="43" spans="1:5" thickBot="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" s="68" t="s">
-        <v>3609</v>
+        <v>3608</v>
       </c>
       <c r="B18" s="42">
         <v>0</v>
@@ -35192,8 +36297,8 @@
         <v>1000020</v>
       </c>
     </row>
-    <row customFormat="1" r="20" s="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="197" t="s">
+    <row customFormat="1" r="20" s="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="199" t="s">
         <v>3473</v>
       </c>
     </row>
@@ -35298,247 +36403,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
-      <selection activeCell="B16" pane="topRight" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="44.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row customFormat="1" r="1" s="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" r="2" s="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>3192</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>3037</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>3037</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>3037</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>3037</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>3037</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>3037</v>
-      </c>
-    </row>
-    <row customFormat="1" r="3" s="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>3193</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="16.5" r="4" s="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
-        <v>3275</v>
-      </c>
-      <c r="B4" s="105">
-        <f>COUNTIFS($A$12:$A$18, "*$*",B12:B18, "")</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="105">
-        <f>COUNTIFS($A$12:$A$18, "*$*",C12:C18, "")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row customFormat="1" r="5" s="18" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="6" s="18" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="7" s="18" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="18" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
-        <v>3420</v>
-      </c>
-    </row>
-    <row customFormat="1" r="10" s="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>3421</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>3426</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>3426</v>
-      </c>
-    </row>
-    <row customFormat="1" r="11" s="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="101"/>
-    </row>
-    <row customFormat="1" r="12" s="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="74" t="s">
-        <v>3339</v>
-      </c>
-      <c r="B12" s="18" t="str">
-        <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20221206309</v>
-      </c>
-      <c r="C12" s="18">
-        <f>'1.TabCustomerMainData'!$C$13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row customFormat="1" r="13" s="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
-        <v>3387</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3601</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3601</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>3189</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>3189</v>
-      </c>
-    </row>
-    <row customFormat="1" r="14" s="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
-        <v>3388</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row customFormat="1" r="15" s="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
-        <v>3389</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3578</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3578</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>3190</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>3190</v>
-      </c>
-    </row>
-    <row customFormat="1" r="16" s="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="56" t="s">
-        <v>3388</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row customFormat="1" r="17" s="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
-        <v>3390</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3610</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3602</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>3191</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>3191</v>
-      </c>
-    </row>
-    <row customFormat="1" r="18" s="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="56" t="s">
-        <v>3388</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="A10 A5:A8 D1:XFD10 A1:C3 B5:C10"/>
-  </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" type="list">
-          <x14:formula1>
-            <xm:f>Master!$CL$2:$CL$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B14:E14 B16:E16 B18:E18</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
@@ -35547,7 +36411,7 @@
     <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
       <selection activeCell="G20" sqref="G20"/>
-      <selection activeCell="C12" pane="topRight" sqref="C12"/>
+      <selection activeCell="B13" pane="topRight" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35668,10 +36532,10 @@
         <v>3413</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>3603</v>
+        <v>3663</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>3603</v>
+        <v>3663</v>
       </c>
     </row>
     <row customFormat="1" r="13" s="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -35679,10 +36543,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>3613</v>
+        <v>3674</v>
       </c>
       <c r="C13" t="s">
-        <v>3612</v>
+        <v>3611</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -35699,7 +36563,7 @@
         <v>2403</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>2404</v>
+        <v>3425</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>2404</v>
@@ -36076,27 +36940,27 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A16:XFD18">
-    <cfRule dxfId="170" priority="6" type="expression">
+    <cfRule dxfId="183" priority="6" type="expression">
       <formula>A$14="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:XFD31 A38:XFD45 A26:A31 A19:A24 C26:F30 C19:XFD24">
-    <cfRule dxfId="169" priority="5" type="expression">
+    <cfRule dxfId="182" priority="5" type="expression">
       <formula>A$14="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22 C22:XFD22">
-    <cfRule dxfId="168" priority="4" type="expression">
+    <cfRule dxfId="181" priority="4" type="expression">
       <formula>OR(A$21="E-KTP",A$21="AKTA",A$21="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B30 B19:B24">
-    <cfRule dxfId="167" priority="2" type="expression">
+    <cfRule dxfId="180" priority="2" type="expression">
       <formula>B$14="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule dxfId="166" priority="1" type="expression">
+    <cfRule dxfId="179" priority="1" type="expression">
       <formula>OR(B$21="E-KTP",B$21="AKTA",B$21="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36211,6 +37075,247 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet18"/>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
+      <selection activeCell="B16" pane="topRight" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" r="1" s="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>3192</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>3037</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>3037</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>3037</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>3037</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>3037</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row customFormat="1" r="3" s="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="16.5" r="4" s="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
+        <v>3275</v>
+      </c>
+      <c r="B4" s="105">
+        <f>COUNTIFS($A$12:$A$18, "*$*",B12:B18, "")</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="105">
+        <f>COUNTIFS($A$12:$A$18, "*$*",C12:C18, "")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row customFormat="1" r="5" s="18" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="6" s="18" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="7" s="18" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="18" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>3420</v>
+      </c>
+    </row>
+    <row customFormat="1" r="10" s="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>3426</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row customFormat="1" r="11" s="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="101"/>
+    </row>
+    <row customFormat="1" r="12" s="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="74" t="s">
+        <v>3339</v>
+      </c>
+      <c r="B12" s="18" t="str">
+        <f>'1.TabCustomerMainData'!$B$13</f>
+        <v>0002APP20211204379</v>
+      </c>
+      <c r="C12" s="18">
+        <f>'1.TabCustomerMainData'!$C$13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row customFormat="1" r="13" s="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
+        <v>3387</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3601</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3601</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>3189</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row customFormat="1" r="14" s="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="56" t="s">
+        <v>3388</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row customFormat="1" r="15" s="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="58" t="s">
+        <v>3389</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3578</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row customFormat="1" r="16" s="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="56" t="s">
+        <v>3388</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row customFormat="1" r="17" s="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="58" t="s">
+        <v>3390</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3602</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>3191</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row customFormat="1" r="18" s="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="56" t="s">
+        <v>3388</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="A10 A5:A8 D1:XFD10 A1:C3 B5:C10"/>
+  </dataValidations>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" type="list">
+          <x14:formula1>
+            <xm:f>Master!$CL$2:$CL$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B14:E14 B16:E16 B18:E18</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:DR492"/>
   <sheetViews>
@@ -36361,10 +37466,10 @@
         <v>2471</v>
       </c>
       <c r="AU1" s="29" t="s">
-        <v>3615</v>
+        <v>3613</v>
       </c>
       <c r="AV1" s="29" t="s">
-        <v>3616</v>
+        <v>3614</v>
       </c>
       <c r="AX1" s="29" t="s">
         <v>2947</v>
@@ -36555,10 +37660,10 @@
         <v>2472</v>
       </c>
       <c r="AU2" s="29" t="s">
-        <v>3617</v>
+        <v>3615</v>
       </c>
       <c r="AV2" s="29" t="s">
-        <v>3618</v>
+        <v>3616</v>
       </c>
       <c r="AX2" s="29" t="s">
         <v>235</v>
@@ -36747,10 +37852,10 @@
         <v>2473</v>
       </c>
       <c r="AU3" s="29" t="s">
-        <v>3619</v>
+        <v>3617</v>
       </c>
       <c r="AV3" s="29" t="s">
-        <v>3620</v>
+        <v>3618</v>
       </c>
       <c r="AX3" s="29" t="s">
         <v>274</v>
@@ -36935,10 +38040,10 @@
         <v>2474</v>
       </c>
       <c r="AU4" s="29" t="s">
-        <v>3621</v>
+        <v>3619</v>
       </c>
       <c r="AV4" s="29" t="s">
-        <v>3622</v>
+        <v>3620</v>
       </c>
       <c r="AX4" s="29" t="s">
         <v>211</v>
@@ -37090,10 +38195,10 @@
         <v>2475</v>
       </c>
       <c r="AU5" s="29" t="s">
-        <v>3623</v>
+        <v>3621</v>
       </c>
       <c r="AV5" s="29" t="s">
-        <v>3623</v>
+        <v>3621</v>
       </c>
       <c r="AX5" s="29" t="s">
         <v>301</v>
@@ -37233,10 +38338,10 @@
         <v>2476</v>
       </c>
       <c r="AU6" s="29" t="s">
-        <v>3624</v>
+        <v>3622</v>
       </c>
       <c r="AV6" s="29" t="s">
-        <v>3625</v>
+        <v>3623</v>
       </c>
       <c r="AX6" s="29" t="s">
         <v>289</v>
@@ -37364,10 +38469,10 @@
         <v>2477</v>
       </c>
       <c r="AU7" s="29" t="s">
+        <v>3622</v>
+      </c>
+      <c r="AV7" s="29" t="s">
         <v>3624</v>
-      </c>
-      <c r="AV7" s="29" t="s">
-        <v>3626</v>
       </c>
       <c r="AX7" s="29" t="s">
         <v>314</v>
@@ -47176,10 +48281,10 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CX61"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView topLeftCell="A8" workbookViewId="0" zoomScaleNormal="100">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
       <selection activeCell="G20" sqref="G20"/>
-      <selection activeCell="B19" pane="topRight" sqref="B19:B39"/>
+      <selection activeCell="B13" pane="topRight" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47582,7 +48687,7 @@
       </c>
       <c r="B12" s="51" t="str">
         <f>'1.TabCustomerMainData'!B13</f>
-        <v>0002APP20221206309</v>
+        <v>0002APP20211204379</v>
       </c>
       <c r="C12" s="51">
         <f>'1.TabCustomerMainData'!C13</f>
@@ -47594,7 +48699,7 @@
         <v>2403</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>2404</v>
+        <v>3425</v>
       </c>
       <c r="C13" s="47" t="s">
         <v>2404</v>
@@ -49131,16 +50236,16 @@
       </c>
     </row>
     <row customHeight="1" ht="15" r="60" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A60" s="165" t="s">
+      <c r="A60" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="B60" s="165" t="s">
+      <c r="B60" s="167" t="s">
         <v>3135</v>
       </c>
     </row>
     <row r="61" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A61" s="166"/>
-      <c r="B61" s="166"/>
+      <c r="A61" s="168"/>
+      <c r="B61" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -49148,62 +50253,62 @@
     <mergeCell ref="A60:A61"/>
   </mergeCells>
   <conditionalFormatting sqref="A15:XFD17">
-    <cfRule dxfId="165" priority="15" type="expression">
+    <cfRule dxfId="178" priority="15" type="expression">
       <formula>A$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:XFD34 A29:A34 A46:XFD54 A19:A24 G19:XFD19 C20:XFD24 C29:F30 C33:F34">
-    <cfRule dxfId="164" priority="14" type="expression">
+    <cfRule dxfId="177" priority="14" type="expression">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22 C22:XFD22">
-    <cfRule dxfId="163" priority="11" type="expression">
+    <cfRule dxfId="176" priority="11" type="expression">
       <formula>OR(A$21="E-KTP",A$21="AKTA",A$21="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A37 C36:XFD37">
-    <cfRule dxfId="162" priority="10" type="expression">
+    <cfRule dxfId="175" priority="10" type="expression">
       <formula>AND(A$35&lt;&gt;"Foreigner",A$35&lt;&gt;"Nationality",A$35&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:XFD54">
-    <cfRule dxfId="161" priority="9" type="expression">
+    <cfRule dxfId="174" priority="9" type="expression">
       <formula>A$46="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:F32">
-    <cfRule dxfId="160" priority="8" type="expression">
+    <cfRule dxfId="173" priority="8" type="expression">
       <formula>C$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:F19">
-    <cfRule dxfId="159" priority="7" type="expression">
+    <cfRule dxfId="172" priority="7" type="expression">
       <formula>C$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B24 B29:B30 B33:B34">
-    <cfRule dxfId="158" priority="5" type="expression">
+    <cfRule dxfId="171" priority="5" type="expression">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule dxfId="157" priority="4" type="expression">
+    <cfRule dxfId="170" priority="4" type="expression">
       <formula>OR(B$21="E-KTP",B$21="AKTA",B$21="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B37">
-    <cfRule dxfId="156" priority="3" type="expression">
+    <cfRule dxfId="169" priority="3" type="expression">
       <formula>AND(B$35&lt;&gt;"Foreigner",B$35&lt;&gt;"Nationality",B$35&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B32">
-    <cfRule dxfId="155" priority="2" type="expression">
+    <cfRule dxfId="168" priority="2" type="expression">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule dxfId="154" priority="1" type="expression">
+    <cfRule dxfId="167" priority="1" type="expression">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49498,7 +50603,7 @@
       </c>
       <c r="B12" s="18" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20221206309</v>
+        <v>0002APP20211204379</v>
       </c>
       <c r="C12" s="18">
         <f>'1.TabCustomerMainData'!$C$13</f>
@@ -49509,10 +50614,10 @@
       <c r="A14" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="167" t="s">
+      <c r="B14" s="169" t="s">
         <v>3136</v>
       </c>
-      <c r="C14" s="167"/>
+      <c r="C14" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -49674,8 +50779,8 @@
         <v>2404</v>
       </c>
     </row>
-    <row customFormat="1" r="14" s="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="168" t="s">
+    <row customFormat="1" r="14" s="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="170" t="s">
         <v>3003</v>
       </c>
     </row>
@@ -49974,8 +51079,8 @@
         <v>3165</v>
       </c>
     </row>
-    <row customFormat="1" r="32" s="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="168" t="s">
+    <row customFormat="1" r="32" s="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="170" t="s">
         <v>2999</v>
       </c>
     </row>
@@ -50055,7 +51160,7 @@
         <v>33</v>
       </c>
     </row>
-    <row customFormat="1" r="37" s="168" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="37" s="170" spans="1:6" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="38" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="56" t="s">
         <v>36</v>
@@ -50198,62 +51303,62 @@
     <mergeCell ref="A14:XFD14"/>
   </mergeCells>
   <conditionalFormatting sqref="B15:XFD17">
-    <cfRule dxfId="153" priority="12" type="expression">
+    <cfRule dxfId="166" priority="12" type="expression">
       <formula>B$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:XFD24 B26:XFD31 A38 D19:XFD19 C38:XFD46">
-    <cfRule dxfId="152" priority="11" type="expression">
+    <cfRule dxfId="165" priority="11" type="expression">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:XFD22">
-    <cfRule dxfId="151" priority="10" type="expression">
+    <cfRule dxfId="164" priority="10" type="expression">
       <formula>OR(B$21="E-KTP",B$21="AKTA",B$21="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:XFD46">
-    <cfRule dxfId="150" priority="9" type="expression">
+    <cfRule dxfId="163" priority="9" type="expression">
       <formula>C$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A17">
-    <cfRule dxfId="149" priority="8" type="expression">
+    <cfRule dxfId="162" priority="8" type="expression">
       <formula>A$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A24 A26:A31">
-    <cfRule dxfId="148" priority="7" type="expression">
+    <cfRule dxfId="161" priority="7" type="expression">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule dxfId="147" priority="6" type="expression">
+    <cfRule dxfId="160" priority="6" type="expression">
       <formula>OR(A$21="E-KTP",A$21="AKTA",A$21="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A46">
-    <cfRule dxfId="146" priority="5" type="expression">
+    <cfRule dxfId="159" priority="5" type="expression">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A46">
-    <cfRule dxfId="145" priority="4" type="expression">
+    <cfRule dxfId="158" priority="4" type="expression">
       <formula>A$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:C19">
-    <cfRule dxfId="144" priority="3" type="expression">
+    <cfRule dxfId="157" priority="3" type="expression">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:B46">
-    <cfRule dxfId="143" priority="2" type="expression">
+    <cfRule dxfId="156" priority="2" type="expression">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:B46">
-    <cfRule dxfId="142" priority="1" type="expression">
+    <cfRule dxfId="155" priority="1" type="expression">
       <formula>B$46="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50545,8 +51650,8 @@
         <v>2404</v>
       </c>
     </row>
-    <row customFormat="1" r="14" s="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="168" t="s">
+    <row customFormat="1" r="14" s="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="170" t="s">
         <v>3003</v>
       </c>
     </row>
@@ -50678,8 +51783,8 @@
         <v>51</v>
       </c>
     </row>
-    <row customFormat="1" r="22" s="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="168" t="s">
+    <row customFormat="1" r="22" s="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="170" t="s">
         <v>3000</v>
       </c>
     </row>
@@ -50824,37 +51929,37 @@
     <mergeCell ref="A22:XFD22"/>
   </mergeCells>
   <conditionalFormatting sqref="B15:XFD16">
-    <cfRule dxfId="141" priority="7" type="expression">
+    <cfRule dxfId="154" priority="7" type="expression">
       <formula>B$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:XFD19 B21:XFD21 A23:XFD23 B24:XFD31">
-    <cfRule dxfId="140" priority="6" type="expression">
+    <cfRule dxfId="153" priority="6" type="expression">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:XFD31">
-    <cfRule dxfId="139" priority="5" type="expression">
+    <cfRule dxfId="152" priority="5" type="expression">
       <formula>B$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule dxfId="138" priority="4" type="expression">
+    <cfRule dxfId="151" priority="4" type="expression">
       <formula>A$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21 A18:A19">
-    <cfRule dxfId="137" priority="3" type="expression">
+    <cfRule dxfId="150" priority="3" type="expression">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A31">
-    <cfRule dxfId="136" priority="2" type="expression">
+    <cfRule dxfId="149" priority="2" type="expression">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A31">
-    <cfRule dxfId="135" priority="1" type="expression">
+    <cfRule dxfId="148" priority="1" type="expression">
       <formula>A$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50936,7 +52041,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
-      <selection activeCell="A10" pane="topRight" sqref="A10"/>
+      <selection activeCell="B11" pane="topRight" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50952,7 +52057,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>3579</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>7</v>
@@ -51018,10 +52123,10 @@
     <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="10" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>3636</v>
+        <v>3634</v>
       </c>
       <c r="B10" s="162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="162">
         <v>1</v>
@@ -51036,7 +52141,7 @@
       </c>
       <c r="B12" s="18" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20221206309</v>
+        <v>0002APP20211204379</v>
       </c>
       <c r="C12" s="18">
         <f>'1.TabCustomerMainData'!$C$13</f>
@@ -51501,12 +52606,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A18:B18 D18:XFD18">
-    <cfRule dxfId="134" priority="2" type="expression">
+    <cfRule dxfId="147" priority="2" type="expression">
       <formula>AND(A$13&lt;&gt;"Customer",A$13&lt;&gt;"$Referantor Category")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule dxfId="133" priority="1" type="expression">
+    <cfRule dxfId="146" priority="1" type="expression">
       <formula>AND(C$13&lt;&gt;"Customer",C$13&lt;&gt;"$Referantor Category")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51559,8 +52664,8 @@
       <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="138" t="s">
-        <v>7</v>
+      <c r="B1" t="s">
+        <v>3664</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -51582,8 +52687,8 @@
       <c r="A2" s="18" t="s">
         <v>3192</v>
       </c>
-      <c r="B2" s="138" t="s">
-        <v>3037</v>
+      <c r="B2" t="s">
+        <v>3665</v>
       </c>
       <c r="C2" t="s">
         <v>3037</v>
@@ -51628,7 +52733,7 @@
       </c>
       <c r="B8" s="18" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20221206371</v>
+        <v>0002APP20211204379</v>
       </c>
       <c r="C8" s="18" t="str">
         <f>'1.TabCustomerMainData'!C$13</f>
@@ -51651,8 +52756,8 @@
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="168" t="s">
+    <row customFormat="1" r="11" s="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="170" t="s">
         <v>3004</v>
       </c>
     </row>
@@ -51694,8 +52799,8 @@
         <v>3393</v>
       </c>
     </row>
-    <row customFormat="1" r="16" s="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="168" t="s">
+    <row customFormat="1" r="16" s="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="170" t="s">
         <v>3005</v>
       </c>
     </row>
@@ -51745,7 +52850,7 @@
     </row>
     <row customFormat="1" r="21" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="57" t="s">
-        <v>3614</v>
+        <v>3612</v>
       </c>
     </row>
     <row customFormat="1" r="22" s="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -51830,8 +52935,8 @@
         <v>68</v>
       </c>
     </row>
-    <row customFormat="1" r="30" s="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="168" t="s">
+    <row customFormat="1" r="30" s="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="170" t="s">
         <v>3006</v>
       </c>
     </row>
@@ -51981,8 +53086,8 @@
         <v>81</v>
       </c>
     </row>
-    <row customFormat="1" r="50" s="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="168" t="s">
+    <row customFormat="1" r="50" s="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="170" t="s">
         <v>3007</v>
       </c>
     </row>
@@ -52040,8 +53145,8 @@
         <v>2284</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="13.5" r="56" s="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="168" t="s">
+    <row customFormat="1" customHeight="1" ht="13.5" r="56" s="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="170" t="s">
         <v>3008</v>
       </c>
     </row>
@@ -52085,14 +53190,14 @@
         <v>3311</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>3624</v>
+        <v>3622</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="14.25" r="61" s="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="168" t="s">
+    <row customFormat="1" customHeight="1" ht="14.25" r="61" s="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="170" t="s">
         <v>3463</v>
       </c>
     </row>
@@ -52130,47 +53235,47 @@
     <mergeCell ref="A56:XFD56"/>
   </mergeCells>
   <conditionalFormatting sqref="B24:XFD24">
-    <cfRule dxfId="132" priority="10" type="expression">
+    <cfRule dxfId="145" priority="10" type="expression">
       <formula>B$23="Fixed Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:XFD27">
-    <cfRule dxfId="131" priority="9" type="expression">
+    <cfRule dxfId="144" priority="9" type="expression">
       <formula>AND(B$26&lt;&gt;"Auto Debit",B$26&lt;&gt;"Way Of Payment",B$26&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:XFD38 B32:C35 B38:C38">
-    <cfRule dxfId="130" priority="8" type="expression">
+    <cfRule dxfId="143" priority="8" type="expression">
       <formula>AND(B$31&lt;&gt;"",B$31&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:XFD53">
-    <cfRule dxfId="129" priority="7" type="expression">
+    <cfRule dxfId="142" priority="7" type="expression">
       <formula>B$51="Lainnya"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:C37">
-    <cfRule dxfId="128" priority="5" type="expression">
+    <cfRule dxfId="141" priority="5" type="expression">
       <formula>AND(B$31&lt;&gt;"",B$31&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule dxfId="127" priority="4" type="expression">
+    <cfRule dxfId="140" priority="4" type="expression">
       <formula>A$23="Fixed Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule dxfId="126" priority="3" type="expression">
+    <cfRule dxfId="139" priority="3" type="expression">
       <formula>AND(A$26&lt;&gt;"Auto Debit",A$26&lt;&gt;"Way Of Payment",A$26&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:A38">
-    <cfRule dxfId="125" priority="2" type="expression">
+    <cfRule dxfId="138" priority="2" type="expression">
       <formula>AND(A$31&lt;&gt;"",A$31&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:A53">
-    <cfRule dxfId="124" priority="1" type="expression">
+    <cfRule dxfId="137" priority="1" type="expression">
       <formula>A$51="Lainnya"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Excel/FL4W/2.1 DataFile_NAP_FL4W.xlsx
+++ b/Excel/FL4W/2.1 DataFile_NAP_FL4W.xlsx
@@ -328,6 +328,32 @@
         </r>
       </text>
     </comment>
+    <comment authorId="0" ref="D10" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fendy Tio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Yes = Copy dan tidak edit
+No = Tidak copy App
+Edit = Copy dan edit data app</t>
+        </r>
+      </text>
+    </comment>
     <comment authorId="1" ref="A12" shapeId="0">
       <text>
         <r>
@@ -559,6 +585,30 @@
         </r>
       </text>
     </comment>
+    <comment authorId="1" ref="D46" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+dapat diisi customer/multifinance</t>
+        </r>
+      </text>
+    </comment>
     <comment authorId="1" ref="A47" shapeId="0">
       <text>
         <r>
@@ -983,6 +1033,30 @@
       </text>
     </comment>
     <comment authorId="1" ref="B92" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeremy Andreas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Angka ini + 1 = Jumlah Yearnum yang akan terbentuk</t>
+        </r>
+      </text>
+    </comment>
+    <comment authorId="1" ref="D92" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -15647,7 +15721,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5073" uniqueCount="3677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5147" uniqueCount="3674">
   <si>
     <t>Count</t>
   </si>
@@ -25031,9 +25105,6 @@
     <t>Bandung</t>
   </si>
   <si>
-    <t>WRY SATU</t>
-  </si>
-  <si>
     <t>JL ASDA</t>
   </si>
   <si>
@@ -26399,9 +26470,6 @@
     <t>6786500</t>
   </si>
   <si>
-    <t>21871000</t>
-  </si>
-  <si>
     <t>15000;6786500;0</t>
   </si>
   <si>
@@ -26417,9 +26485,6 @@
     <t>Is Vat</t>
   </si>
   <si>
-    <t>21455000</t>
-  </si>
-  <si>
     <t>Edit Additional Coverage</t>
   </si>
   <si>
@@ -26489,9 +26554,6 @@
     <t/>
   </si>
   <si>
-    <t>0002APP20221206334</t>
-  </si>
-  <si>
     <t>MOU CUST</t>
   </si>
   <si>
@@ -26531,30 +26593,9 @@
     <t>TESTERR WOYY</t>
   </si>
   <si>
-    <t>SUPPBRANCH09</t>
-  </si>
-  <si>
-    <t>JAYA RAYA AUTO</t>
-  </si>
-  <si>
-    <t>SALES PERSON SIT</t>
-  </si>
-  <si>
-    <t>Employee Pre SIT 01</t>
-  </si>
-  <si>
-    <t>WULING.CORTEX.1250CC</t>
-  </si>
-  <si>
-    <t>WULING.CORTEZ.1100CC</t>
-  </si>
-  <si>
     <t>Asset Code</t>
   </si>
   <si>
-    <t>MOLEN</t>
-  </si>
-  <si>
     <t>FT COMP</t>
   </si>
   <si>
@@ -26636,24 +26677,15 @@
     <t>New Collateral</t>
   </si>
   <si>
-    <t>.TOYOTA.CAMRY.3.5Q</t>
-  </si>
-  <si>
     <t>TOYOTA CAMRY 3.5Q</t>
   </si>
   <si>
-    <t>CAR</t>
-  </si>
-  <si>
     <t>FL4W_MRA_PROD_OFFERING</t>
   </si>
   <si>
     <t>FAILED</t>
   </si>
   <si>
-    <t>-;Failed Verify Match / Equal;Failed Verify Data DDLInstallment Scheme;Failed Verify Match / Equal;Failed Verify Data DDLInstallment Scheme</t>
-  </si>
-  <si>
     <t>Collateral Existing</t>
   </si>
   <si>
@@ -26666,9 +26698,6 @@
     <t>MONSTER</t>
   </si>
   <si>
-    <t>Button Save Tidak Berfungsi;Failed Verify Data DDLJumlah Asset Usage</t>
-  </si>
-  <si>
     <t>Used</t>
   </si>
   <si>
@@ -26678,13 +26707,49 @@
     <t>Existing Collateral</t>
   </si>
   <si>
+    <t>0002SB20211103134</t>
+  </si>
+  <si>
+    <t>A SUPPLIER SALES</t>
+  </si>
+  <si>
+    <t>A ADMIN MRA</t>
+  </si>
+  <si>
+    <t>MRA ASSET MOBIL.MOBIL 2.MOBIL 3</t>
+  </si>
+  <si>
+    <t>MRA01.MRA02.MRA03</t>
+  </si>
+  <si>
+    <t>MRA_BLACKBOX</t>
+  </si>
+  <si>
+    <t>Button Save Tidak Berfungsi</t>
+  </si>
+  <si>
+    <t>Please click Generate Insurance.</t>
+  </si>
+  <si>
+    <t>0002APP20221206445</t>
+  </si>
+  <si>
+    <t>-;Failed Verify Match / Equal;Failed Verify Data DDLInstallment Scheme</t>
+  </si>
+  <si>
+    <t>-;Failed Store DB</t>
+  </si>
+  <si>
     <t>0002APP20211204379</t>
   </si>
   <si>
-    <t>-;Failed Store DB</t>
-  </si>
-  <si>
-    <t>-;Failed Store DB;Failed Store DB</t>
+    <t>DUCATI</t>
+  </si>
+  <si>
+    <t>-;Failed Data Lookup Tidak Sesuai DB</t>
+  </si>
+  <si>
+    <t>Validasi field invalid</t>
   </si>
 </sst>
 </file>
@@ -27254,7 +27319,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="43"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="44"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="203">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
@@ -27407,7 +27472,6 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyBorder="1" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -27508,6 +27572,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="43" xfId="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="3" fontId="9" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="15" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -27576,7 +27642,7 @@
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="184">
+  <dxfs count="198">
     <dxf>
       <numFmt formatCode="General" numFmtId="0"/>
     </dxf>
@@ -27928,6 +27994,110 @@
       <fill>
         <patternFill>
           <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -30008,13 +30178,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>3396</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>3397</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>3398</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>3399</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -30041,11 +30211,11 @@
       </c>
       <c r="D2" s="18">
         <f>COUNTA('3b.TabGuarantorDataCompany'!$B$12:$XFD$12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <f>COUNTA('5.TabReferantorData'!$B$12:$XFD$12)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1">
         <f>COUNTA('7a.Accessories'!$B$12:$XFD$12)</f>
@@ -30058,24 +30228,24 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>3416</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>3417</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="18" t="s">
         <v>3418</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>3419</v>
-      </c>
       <c r="E4" s="18" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>3600</v>
+        <v>3597</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>37</v>
@@ -30105,10 +30275,10 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
       <selection activeCell="G20" sqref="G20"/>
-      <selection activeCell="A23" pane="topRight" sqref="A23:XFD23"/>
+      <selection activeCell="C22" pane="topRight" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30124,10 +30294,10 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3664</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>7</v>
+        <v>3578</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3651</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>7</v>
@@ -30144,13 +30314,13 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3192</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3670</v>
-      </c>
-      <c r="C2" s="18" t="s">
+        <v>3191</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>3037</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3669</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>3037</v>
@@ -30167,12 +30337,12 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="B4" s="18">
         <f ref="B4:C4" si="0" t="shared">COUNTIFS($A$12:$A$15,"*$*",B12:B15,"")+COUNTIFS($A$17:$A$20,"*$*",B17:B20,"")+COUNTIFS($A$25:$A$26,"*$*",B25:B26,"")+COUNTIFS($A$35,"*$*",B35,"")+IF(B18="Used",COUNTIFS($A$29:$A$33,"*$*",B29:B33,""),0)+IF(B26="Percentage",COUNTIFS($A$27,"*$*",B27,""),COUNTIFS($A$28,"*$*",B28,""))+IF(B37="No",COUNTIFS($A$38:$A$39,"*$*",B38:B39,""),0)+IF(AND(B41="No",B42="Personal"),COUNTIFS($A$42:$A$44,"*$*",B42:B44,"")+COUNTIFS($A$48:$A$49,"*$*",B48:B49,""),0)+IF(AND(B41="No",B42="Company"),COUNTIFS($A$42:$A$44,"*$*",B42:B44,"")+COUNTIFS($A$47:$A$49,"*$*",B47:B49,""),0)+IF(B52="Yes",COUNTIFS($A$53,"*$*",B53,""),0)+IF(B52="No",COUNTIFS($A$54:$A$60,"*$*",B54:B60,""),0)</f>
@@ -30201,12 +30371,12 @@
     </row>
     <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
     </row>
     <row customFormat="1" r="10" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>37</v>
@@ -30215,46 +30385,46 @@
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="171" t="s">
+    <row customFormat="1" r="11" s="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="172" t="s">
         <v>3009</v>
       </c>
-      <c r="B11" s="172"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="172"/>
+      <c r="B11" s="173"/>
+      <c r="C11" s="173"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="173"/>
     </row>
     <row customFormat="1" r="12" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>3625</v>
+        <v>3659</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>3625</v>
+        <v>3659</v>
       </c>
     </row>
     <row customFormat="1" r="13" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>3626</v>
+        <v>3133</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>3626</v>
+        <v>3133</v>
       </c>
     </row>
     <row customFormat="1" r="14" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>3627</v>
+        <v>3660</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>3627</v>
+        <v>3660</v>
       </c>
     </row>
     <row customFormat="1" r="15" s="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -30262,46 +30432,46 @@
         <v>91</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>3628</v>
+        <v>3661</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>3628</v>
-      </c>
-    </row>
-    <row customFormat="1" r="16" s="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="171" t="s">
+        <v>3661</v>
+      </c>
+    </row>
+    <row customFormat="1" r="16" s="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="172" t="s">
         <v>3010</v>
       </c>
-      <c r="B16" s="172"/>
-      <c r="C16" s="172"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="172"/>
+      <c r="B16" s="173"/>
+      <c r="C16" s="173"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="173"/>
     </row>
     <row customFormat="1" r="17" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="57" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>3629</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>3630</v>
+        <v>3662</v>
+      </c>
+      <c r="C17" s="110" t="s">
+        <v>3663</v>
       </c>
     </row>
     <row customFormat="1" r="18" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
     </row>
     <row customFormat="1" r="19" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="B19" s="54">
         <v>1000000000</v>
@@ -30312,13 +30482,13 @@
     </row>
     <row customFormat="1" r="20" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
     </row>
     <row customFormat="1" r="21" s="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -30326,10 +30496,10 @@
         <v>92</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
     </row>
     <row customFormat="1" r="22" s="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -30337,10 +30507,10 @@
         <v>93</v>
       </c>
       <c r="B22" s="81" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="C22" s="81" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
     </row>
     <row customFormat="1" r="23" s="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -30363,7 +30533,7 @@
     </row>
     <row customFormat="1" r="25" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="B25" s="7">
         <v>2022</v>
@@ -30380,7 +30550,7 @@
     </row>
     <row customFormat="1" r="26" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>96</v>
@@ -30397,12 +30567,12 @@
     </row>
     <row customFormat="1" r="27" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="58" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="B27" s="10">
         <v>20</v>
       </c>
-      <c r="C27" s="146">
+      <c r="C27" s="145">
         <v>60</v>
       </c>
       <c r="D27" s="10">
@@ -30414,7 +30584,7 @@
     </row>
     <row customFormat="1" r="28" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="58" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="B28" s="54">
         <v>180000000</v>
@@ -30431,48 +30601,48 @@
     </row>
     <row customFormat="1" r="29" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="57" t="s">
-        <v>3324</v>
-      </c>
-      <c r="B29" s="112"/>
-      <c r="C29" s="112"/>
+        <v>3323</v>
+      </c>
+      <c r="B29" s="111"/>
+      <c r="C29" s="111"/>
     </row>
     <row customFormat="1" r="30" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="57" t="s">
-        <v>3325</v>
-      </c>
-      <c r="B30" s="112"/>
-      <c r="C30" s="112"/>
+        <v>3324</v>
+      </c>
+      <c r="B30" s="111"/>
+      <c r="C30" s="111"/>
     </row>
     <row customFormat="1" r="31" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="57" t="s">
-        <v>3326</v>
-      </c>
-      <c r="B31" s="112"/>
-      <c r="C31" s="112"/>
+        <v>3325</v>
+      </c>
+      <c r="B31" s="111"/>
+      <c r="C31" s="111"/>
     </row>
     <row customFormat="1" r="32" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="57" t="s">
-        <v>3327</v>
-      </c>
-      <c r="B32" s="112"/>
-      <c r="C32" s="112"/>
+        <v>3326</v>
+      </c>
+      <c r="B32" s="111"/>
+      <c r="C32" s="111"/>
     </row>
     <row customFormat="1" r="33" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="57" t="s">
-        <v>3328</v>
-      </c>
-      <c r="B33" s="127"/>
-      <c r="C33" s="127"/>
-    </row>
-    <row customFormat="1" r="34" s="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="171" t="s">
+        <v>3327</v>
+      </c>
+      <c r="B33" s="126"/>
+      <c r="C33" s="126"/>
+    </row>
+    <row customFormat="1" r="34" s="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="172" t="s">
         <v>3011</v>
       </c>
-      <c r="B34" s="172"/>
+      <c r="B34" s="173"/>
     </row>
     <row customFormat="1" r="35" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="57" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>3061</v>
@@ -30481,18 +30651,18 @@
         <v>3061</v>
       </c>
     </row>
-    <row customFormat="1" r="36" s="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="171" t="s">
+    <row customFormat="1" r="36" s="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="172" t="s">
         <v>3012</v>
       </c>
-      <c r="B36" s="172"/>
+      <c r="B36" s="173"/>
     </row>
     <row customFormat="1" r="37" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>97</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>46</v>
@@ -30500,7 +30670,7 @@
     </row>
     <row customFormat="1" r="38" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="58" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>3058</v>
@@ -30511,7 +30681,7 @@
     </row>
     <row customFormat="1" r="39" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="58" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>11</v>
@@ -30520,11 +30690,11 @@
         <v>271</v>
       </c>
     </row>
-    <row customFormat="1" r="40" s="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="171" t="s">
+    <row customFormat="1" r="40" s="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="172" t="s">
         <v>3013</v>
       </c>
-      <c r="B40" s="172"/>
+      <c r="B40" s="173"/>
     </row>
     <row customFormat="1" r="41" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
@@ -30539,7 +30709,7 @@
     </row>
     <row customFormat="1" r="42" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="58" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>44</v>
@@ -30550,18 +30720,18 @@
     </row>
     <row customFormat="1" r="43" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="58" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>3125</v>
+        <v>5</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>3633</v>
+        <v>3622</v>
       </c>
     </row>
     <row customFormat="1" r="44" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="58" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>12</v>
@@ -30607,7 +30777,7 @@
     </row>
     <row customFormat="1" r="48" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="58" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="B48" s="18" t="s">
         <v>14</v>
@@ -30618,10 +30788,10 @@
     </row>
     <row customFormat="1" r="49" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="58" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>3123</v>
@@ -30632,17 +30802,17 @@
         <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="C50" s="2">
         <v>1231413</v>
       </c>
     </row>
-    <row customFormat="1" r="51" s="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="171" t="s">
-        <v>3312</v>
-      </c>
-      <c r="B51" s="172"/>
+    <row customFormat="1" r="51" s="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="172" t="s">
+        <v>3311</v>
+      </c>
+      <c r="B51" s="173"/>
     </row>
     <row customFormat="1" r="52" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="56" t="s">
@@ -30657,7 +30827,7 @@
     </row>
     <row customFormat="1" r="53" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="58" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="B53" s="18" t="s">
         <v>104</v>
@@ -30668,18 +30838,18 @@
     </row>
     <row customFormat="1" r="54" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="58" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
     </row>
     <row customFormat="1" r="55" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="58" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="B55" s="2">
         <v>1</v>
@@ -30690,7 +30860,7 @@
     </row>
     <row customFormat="1" r="56" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="58" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="B56" s="2">
         <v>1</v>
@@ -30701,7 +30871,7 @@
     </row>
     <row customFormat="1" r="57" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="58" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="B57" s="2">
         <v>40242</v>
@@ -30712,7 +30882,7 @@
     </row>
     <row customFormat="1" r="58" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="58" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>3059</v>
@@ -30723,7 +30893,7 @@
     </row>
     <row customFormat="1" r="59" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="58" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="B59" s="18" t="s">
         <v>3060</v>
@@ -30734,7 +30904,7 @@
     </row>
     <row customFormat="1" r="60" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="58" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="B60" s="18" t="s">
         <v>3124</v>
@@ -30743,15 +30913,15 @@
         <v>3124</v>
       </c>
     </row>
-    <row customFormat="1" r="61" s="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="171" t="s">
+    <row customFormat="1" r="61" s="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="172" t="s">
         <v>3064</v>
       </c>
-      <c r="B61" s="172"/>
+      <c r="B61" s="173"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="106" t="s">
-        <v>3338</v>
+      <c r="A62" s="105" t="s">
+        <v>3337</v>
       </c>
       <c r="B62" s="37" t="s">
         <v>46</v>
@@ -30765,15 +30935,15 @@
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
     </row>
-    <row customFormat="1" r="63" s="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="171" t="s">
-        <v>3429</v>
-      </c>
-      <c r="B63" s="172"/>
+    <row customFormat="1" r="63" s="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="172" t="s">
+        <v>3428</v>
+      </c>
+      <c r="B63" s="173"/>
     </row>
     <row customFormat="1" r="64" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="B64" s="18" t="s">
         <v>46</v>
@@ -30781,7 +30951,7 @@
     </row>
     <row customFormat="1" r="65" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
     </row>
     <row customFormat="1" r="66" s="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -30791,40 +30961,40 @@
     </row>
     <row customFormat="1" r="67" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>3461</v>
-      </c>
-    </row>
-    <row customFormat="1" r="68" s="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="171" t="s">
-        <v>3442</v>
-      </c>
-      <c r="B68" s="172"/>
+        <v>3460</v>
+      </c>
+    </row>
+    <row customFormat="1" r="68" s="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="172" t="s">
+        <v>3441</v>
+      </c>
+      <c r="B68" s="173"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="116" t="s">
-        <v>3434</v>
-      </c>
-      <c r="B69" s="117">
+      <c r="A69" s="115" t="s">
+        <v>3433</v>
+      </c>
+      <c r="B69" s="116">
         <f>IF(B26="Percentage",B27,B28/B19*100)</f>
         <v>18</v>
       </c>
-      <c r="C69" s="117">
+      <c r="C69" s="116">
         <f>IF(C26="Percentage",C27,C28/C19*100)</f>
         <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="116" t="s">
-        <v>3435</v>
-      </c>
-      <c r="B70" s="117">
+      <c r="A70" s="115" t="s">
+        <v>3434</v>
+      </c>
+      <c r="B70" s="116">
         <f>IF(B26="Amount",B28,B19*B27%)</f>
         <v>180000000</v>
       </c>
-      <c r="C70" s="117">
+      <c r="C70" s="116">
         <f>IF(C26="Amount",C28,C19*C27%)</f>
         <v>360000000</v>
       </c>
@@ -30842,57 +31012,57 @@
     <mergeCell ref="A40:XFD40"/>
   </mergeCells>
   <conditionalFormatting sqref="A27:XFD27">
-    <cfRule dxfId="136" priority="16" type="expression">
+    <cfRule dxfId="150" priority="16" type="expression">
       <formula>A$26="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:XFD28">
-    <cfRule dxfId="135" priority="15" type="expression">
+    <cfRule dxfId="149" priority="15" type="expression">
       <formula>A$26="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:XFD39">
-    <cfRule dxfId="134" priority="14" type="expression">
+    <cfRule dxfId="148" priority="14" type="expression">
       <formula>A$37="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:XFD50">
-    <cfRule dxfId="133" priority="13" type="expression">
+    <cfRule dxfId="147" priority="13" type="expression">
       <formula>A$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:A60 D54:XFD60">
-    <cfRule dxfId="132" priority="10" type="expression">
+    <cfRule dxfId="146" priority="10" type="expression">
       <formula>A$52="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:XFD53">
-    <cfRule dxfId="131" priority="9" type="expression">
+    <cfRule dxfId="145" priority="9" type="expression">
       <formula>A$52="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:XFD47">
-    <cfRule dxfId="130" priority="8" type="expression">
+    <cfRule dxfId="144" priority="8" type="expression">
       <formula>A$42="Personal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:XFD46">
-    <cfRule dxfId="129" priority="7" type="expression">
+    <cfRule dxfId="143" priority="7" type="expression">
       <formula>A$42="Company"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:XFD62">
-    <cfRule dxfId="128" priority="6" type="expression">
+    <cfRule dxfId="142" priority="6" type="expression">
       <formula>A$18="New"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:C60">
-    <cfRule dxfId="127" priority="5" type="expression">
+    <cfRule dxfId="141" priority="5" type="expression">
       <formula>B$41="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:C60">
-    <cfRule dxfId="126" priority="4" type="expression">
+    <cfRule dxfId="140" priority="4" type="expression">
       <formula>B$52="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31000,7 +31170,7 @@
     <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
       <selection activeCell="B17" sqref="B17"/>
-      <selection activeCell="D1" pane="topRight" sqref="B1:D2"/>
+      <selection activeCell="B13" pane="topRight" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31017,10 +31187,10 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="C1" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>7</v>
@@ -31040,7 +31210,7 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>3037</v>
@@ -31066,12 +31236,12 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="B4" s="18">
         <f>IF(B18="Amount",COUNTIFS($A13:$A18,"*$*",B13:B18,"")+COUNTIFS($A20:$A20,"*$*",B20:B20,""),IF(B18="Percentage",COUNTIFS($A13:$A18,"*$*",B13:B18,"")+COUNTIFS($A19:$A19,"*$*",B19:B19,"")))</f>
@@ -31101,23 +31271,23 @@
     <row customFormat="1" r="9" s="18" spans="1:8" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="10" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>3631</v>
+        <v>3621</v>
       </c>
       <c r="B10" s="18" t="str">
         <f>'7.TabAssetData'!B17</f>
-        <v>WULING.CORTEX.1250CC</v>
+        <v>MRA ASSET MOBIL.MOBIL 2.MOBIL 3</v>
       </c>
       <c r="C10" s="18" t="str">
         <f>'7.TabAssetData'!C17</f>
-        <v>WULING.CORTEZ.1100CC</v>
-      </c>
-    </row>
-    <row customFormat="1" r="11" s="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
+        <v>MRA01.MRA02.MRA03</v>
+      </c>
+    </row>
+    <row customFormat="1" r="11" s="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
     </row>
     <row customFormat="1" r="12" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
@@ -31134,13 +31304,13 @@
     </row>
     <row customFormat="1" r="13" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>3625</v>
+        <v>3659</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>3625</v>
+        <v>3659</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -31150,39 +31320,39 @@
     </row>
     <row customFormat="1" r="14" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>3626</v>
+        <v>3133</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>3626</v>
+        <v>3133</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
     </row>
     <row customFormat="1" r="15" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>3632</v>
+        <v>3664</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>3632</v>
+        <v>3664</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -31192,13 +31362,13 @@
     </row>
     <row customFormat="1" r="16" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
-        <v>3347</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>3632</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>3632</v>
+        <v>3346</v>
+      </c>
+      <c r="B16" s="110" t="s">
+        <v>3062</v>
+      </c>
+      <c r="C16" s="110" t="s">
+        <v>3062</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>3062</v>
@@ -31218,7 +31388,7 @@
     </row>
     <row customFormat="1" r="17" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="58" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="B17" s="28">
         <v>1000000</v>
@@ -31244,7 +31414,7 @@
     </row>
     <row customFormat="1" r="18" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="58" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>106</v>
@@ -31270,7 +31440,7 @@
     </row>
     <row customFormat="1" r="19" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="58" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="B19" s="18">
         <v>25</v>
@@ -31296,7 +31466,7 @@
     </row>
     <row customFormat="1" r="20" s="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="58" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="B20" s="28">
         <v>2500000</v>
@@ -31325,43 +31495,43 @@
         <v>95</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>3472</v>
-      </c>
-    </row>
-    <row customFormat="1" r="22" s="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="175" t="s">
-        <v>3442</v>
-      </c>
-      <c r="B22" s="176"/>
-      <c r="C22" s="176"/>
-      <c r="D22" s="176"/>
-      <c r="E22" s="176"/>
-      <c r="F22" s="176"/>
-      <c r="G22" s="176"/>
-      <c r="H22" s="176"/>
+        <v>3471</v>
+      </c>
+    </row>
+    <row customFormat="1" r="22" s="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="176" t="s">
+        <v>3441</v>
+      </c>
+      <c r="B22" s="177"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="177"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="116" t="s">
-        <v>3434</v>
-      </c>
-      <c r="B23" s="117">
+      <c r="A23" s="115" t="s">
+        <v>3433</v>
+      </c>
+      <c r="B23" s="116">
         <f>IF(B18="Percentage",B19,B20/B17*100)</f>
         <v>25</v>
       </c>
-      <c r="C23" s="117">
+      <c r="C23" s="116">
         <f>IF(C18="Percentage",C19,C20/C17*100)</f>
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="116" t="s">
-        <v>3435</v>
-      </c>
-      <c r="B24" s="117">
+      <c r="A24" s="115" t="s">
+        <v>3434</v>
+      </c>
+      <c r="B24" s="116">
         <f>IF(B18="Amount",B20,B17*B19%)</f>
         <v>250000</v>
       </c>
-      <c r="C24" s="117">
+      <c r="C24" s="116">
         <f>IF(C18="Amount",C20,C17*C19%)</f>
         <v>120000</v>
       </c>
@@ -31371,22 +31541,22 @@
     <mergeCell ref="A22:XFD22"/>
   </mergeCells>
   <conditionalFormatting sqref="B19:XFD19">
-    <cfRule dxfId="125" priority="6" type="expression">
+    <cfRule dxfId="139" priority="6" type="expression">
       <formula>B$18="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:XFD20">
-    <cfRule dxfId="124" priority="5" type="expression">
+    <cfRule dxfId="138" priority="5" type="expression">
       <formula>B$18="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule dxfId="123" priority="2" type="expression">
+    <cfRule dxfId="137" priority="2" type="expression">
       <formula>A$18="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule dxfId="122" priority="1" type="expression">
+    <cfRule dxfId="136" priority="1" type="expression">
       <formula>A$18="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31403,7 +31573,7 @@
     <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B20:H20" type="custom">
       <formula1>AND(B18="Amount",ISNUMBER(B20))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B13:C16"/>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B13:C15"/>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
@@ -31414,19 +31584,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
       <selection activeCell="G20" sqref="G20"/>
-      <selection activeCell="C62" pane="topRight" sqref="C62:C64"/>
+      <selection activeCell="C15" pane="topRight" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="138" width="34.5703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="137" width="34.5703125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="38.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="138" width="44.140625" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" style="138" width="11.7109375" collapsed="true"/>
-    <col min="6" max="16384" style="138" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="137" width="44.140625" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" style="137" width="11.7109375" collapsed="true"/>
+    <col min="6" max="16384" style="137" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -31434,10 +31604,10 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3664</v>
+        <v>3578</v>
       </c>
       <c r="C1" t="s">
-        <v>3579</v>
+        <v>3651</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>7</v>
@@ -31454,13 +31624,13 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3192</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3676</v>
-      </c>
-      <c r="C2" s="18" t="s">
+        <v>3191</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>3037</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3673</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>3037</v>
@@ -31477,12 +31647,12 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
@@ -31509,12 +31679,12 @@
     </row>
     <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
     </row>
     <row customFormat="1" r="10" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>37</v>
@@ -31523,72 +31693,72 @@
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="171" t="s">
-        <v>3648</v>
-      </c>
-      <c r="B11" s="172"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="172"/>
+    <row customFormat="1" r="11" s="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="172" t="s">
+        <v>3637</v>
+      </c>
+      <c r="B11" s="173"/>
+      <c r="C11" s="173"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="173"/>
     </row>
     <row customFormat="1" r="12" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
-        <v>3635</v>
-      </c>
-      <c r="B12" s="165" t="s">
-        <v>3659</v>
-      </c>
-      <c r="C12" s="165" t="s">
-        <v>3673</v>
-      </c>
-      <c r="D12" s="165"/>
-    </row>
-    <row customFormat="1" r="13" s="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="171" t="s">
-        <v>3649</v>
-      </c>
-      <c r="B13" s="172"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="172"/>
+        <v>3624</v>
+      </c>
+      <c r="B12" s="164" t="s">
+        <v>3648</v>
+      </c>
+      <c r="C12" s="164" t="s">
+        <v>3658</v>
+      </c>
+      <c r="D12" s="164"/>
+    </row>
+    <row customFormat="1" r="13" s="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="172" t="s">
+        <v>3638</v>
+      </c>
+      <c r="B13" s="173"/>
+      <c r="C13" s="173"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="173"/>
     </row>
     <row customFormat="1" r="14" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
-        <v>3636</v>
+        <v>3625</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>3653</v>
+        <v>3642</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>3662</v>
+        <v>3671</v>
       </c>
     </row>
     <row customFormat="1" r="15" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="57" t="s">
-        <v>3638</v>
+        <v>3627</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>3637</v>
+        <v>3626</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>3660</v>
+        <v>3655</v>
       </c>
     </row>
     <row customFormat="1" r="16" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
-        <v>3656</v>
+        <v>3645</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>3657</v>
+        <v>3646</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>3661</v>
+        <v>3649</v>
       </c>
     </row>
     <row customFormat="1" r="17" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="57" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="B17" s="7">
         <v>2022</v>
@@ -31605,29 +31775,29 @@
     </row>
     <row customFormat="1" r="18" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
-        <v>3639</v>
+        <v>3628</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>3671</v>
+        <v>3656</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
     </row>
     <row customFormat="1" r="19" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
-        <v>3640</v>
+        <v>3629</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>3672</v>
+        <v>3657</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
     </row>
     <row customFormat="1" r="20" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>3658</v>
+        <v>3647</v>
       </c>
       <c r="B20" s="72">
         <v>44369</v>
@@ -31638,7 +31808,7 @@
     </row>
     <row customFormat="1" r="21" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="57" t="s">
-        <v>3641</v>
+        <v>3630</v>
       </c>
       <c r="B21" s="54">
         <v>1000000000</v>
@@ -31649,12 +31819,12 @@
     </row>
     <row customFormat="1" r="22" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="58" t="s">
-        <v>3642</v>
-      </c>
-      <c r="B22" s="146">
+        <v>3631</v>
+      </c>
+      <c r="B22" s="145">
         <v>20</v>
       </c>
-      <c r="C22" s="146">
+      <c r="C22" s="145">
         <v>50</v>
       </c>
       <c r="D22" s="10">
@@ -31666,7 +31836,7 @@
     </row>
     <row customFormat="1" r="23" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="58" t="s">
-        <v>3643</v>
+        <v>3632</v>
       </c>
       <c r="B23" s="54">
         <f>B21*B22%</f>
@@ -31687,7 +31857,7 @@
     </row>
     <row customFormat="1" r="24" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="58" t="s">
-        <v>3644</v>
+        <v>3633</v>
       </c>
       <c r="B24" s="54">
         <f>100-B22</f>
@@ -31715,52 +31885,52 @@
     </row>
     <row customFormat="1" r="26" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
-        <v>3645</v>
-      </c>
-      <c r="B26" s="112" t="s">
-        <v>3654</v>
-      </c>
-      <c r="C26" s="112" t="s">
-        <v>3655</v>
+        <v>3634</v>
+      </c>
+      <c r="B26" s="111" t="s">
+        <v>3643</v>
+      </c>
+      <c r="C26" s="111" t="s">
+        <v>3644</v>
       </c>
     </row>
     <row customFormat="1" r="27" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="57" t="s">
-        <v>3646</v>
-      </c>
-      <c r="B27" s="112"/>
-      <c r="C27" s="112"/>
+        <v>3635</v>
+      </c>
+      <c r="B27" s="111"/>
+      <c r="C27" s="111"/>
     </row>
     <row customFormat="1" r="28" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="57" t="s">
-        <v>3647</v>
-      </c>
-      <c r="B28" s="112"/>
-      <c r="C28" s="112"/>
+        <v>3636</v>
+      </c>
+      <c r="B28" s="111"/>
+      <c r="C28" s="111"/>
     </row>
     <row customFormat="1" r="29" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="57" t="s">
-        <v>3327</v>
-      </c>
-      <c r="B29" s="112"/>
-      <c r="C29" s="112"/>
+        <v>3326</v>
+      </c>
+      <c r="B29" s="111"/>
+      <c r="C29" s="111"/>
     </row>
     <row customFormat="1" r="30" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="57" t="s">
-        <v>3328</v>
-      </c>
-      <c r="B30" s="127"/>
-      <c r="C30" s="127"/>
-    </row>
-    <row customFormat="1" r="31" s="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="171" t="s">
-        <v>3650</v>
-      </c>
-      <c r="B31" s="172"/>
+        <v>3327</v>
+      </c>
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+    </row>
+    <row customFormat="1" r="31" s="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="172" t="s">
+        <v>3639</v>
+      </c>
+      <c r="B31" s="173"/>
     </row>
     <row customFormat="1" r="32" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="57" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>3061</v>
@@ -31769,11 +31939,11 @@
         <v>3061</v>
       </c>
     </row>
-    <row customFormat="1" r="33" s="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="171" t="s">
-        <v>3651</v>
-      </c>
-      <c r="B33" s="172"/>
+    <row customFormat="1" r="33" s="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="172" t="s">
+        <v>3640</v>
+      </c>
+      <c r="B33" s="173"/>
     </row>
     <row customFormat="1" r="34" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
@@ -31788,7 +31958,7 @@
     </row>
     <row customFormat="1" r="35" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="58" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>44</v>
@@ -31799,18 +31969,18 @@
     </row>
     <row customFormat="1" r="36" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="58" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>3633</v>
+        <v>3622</v>
       </c>
     </row>
     <row customFormat="1" r="37" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="58" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>298</v>
@@ -31856,7 +32026,7 @@
     </row>
     <row customFormat="1" r="41" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="58" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="B41" s="18" t="s">
         <v>14</v>
@@ -31867,10 +32037,10 @@
     </row>
     <row customFormat="1" r="42" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="58" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>3123</v>
@@ -31881,17 +32051,17 @@
         <v>103</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="C43" s="2">
         <v>1231413</v>
       </c>
     </row>
-    <row customFormat="1" r="44" s="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="171" t="s">
-        <v>3652</v>
-      </c>
-      <c r="B44" s="172"/>
+    <row customFormat="1" r="44" s="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="172" t="s">
+        <v>3641</v>
+      </c>
+      <c r="B44" s="173"/>
     </row>
     <row customFormat="1" r="45" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="56" t="s">
@@ -31906,7 +32076,7 @@
     </row>
     <row customFormat="1" r="46" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="58" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="B46" s="18" t="s">
         <v>104</v>
@@ -31917,18 +32087,18 @@
     </row>
     <row customFormat="1" r="47" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="58" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
     </row>
     <row customFormat="1" r="48" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="58" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="B48" s="2">
         <v>1</v>
@@ -31939,7 +32109,7 @@
     </row>
     <row customFormat="1" r="49" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="58" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="B49" s="2">
         <v>1</v>
@@ -31950,7 +32120,7 @@
     </row>
     <row customFormat="1" r="50" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="58" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="B50" s="2">
         <v>40242</v>
@@ -31961,7 +32131,7 @@
     </row>
     <row customFormat="1" r="51" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="58" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="B51" s="18" t="s">
         <v>3059</v>
@@ -31972,7 +32142,7 @@
     </row>
     <row customFormat="1" r="52" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="58" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="B52" s="18" t="s">
         <v>3060</v>
@@ -31983,7 +32153,7 @@
     </row>
     <row customFormat="1" r="53" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="58" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="B53" s="18" t="s">
         <v>3124</v>
@@ -31992,15 +32162,15 @@
         <v>3124</v>
       </c>
     </row>
-    <row customFormat="1" r="54" s="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="171" t="s">
+    <row customFormat="1" r="54" s="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="172" t="s">
         <v>3064</v>
       </c>
-      <c r="B54" s="172"/>
+      <c r="B54" s="173"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="106" t="s">
-        <v>3338</v>
+      <c r="A55" s="105" t="s">
+        <v>3337</v>
       </c>
       <c r="B55" s="37" t="s">
         <v>46</v>
@@ -32009,15 +32179,15 @@
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" r="56" s="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="171" t="s">
-        <v>3429</v>
-      </c>
-      <c r="B56" s="172"/>
+    <row customFormat="1" r="56" s="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="172" t="s">
+        <v>3428</v>
+      </c>
+      <c r="B56" s="173"/>
     </row>
     <row customFormat="1" r="57" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="B57" s="18" t="s">
         <v>46</v>
@@ -32025,7 +32195,7 @@
     </row>
     <row customFormat="1" r="58" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
     </row>
     <row customFormat="1" r="59" s="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -32035,48 +32205,48 @@
     </row>
     <row customFormat="1" r="60" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>3461</v>
-      </c>
-    </row>
-    <row customFormat="1" r="61" s="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="171" t="s">
-        <v>3666</v>
-      </c>
-      <c r="B61" s="172"/>
+        <v>3460</v>
+      </c>
+    </row>
+    <row customFormat="1" r="61" s="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="172" t="s">
+        <v>3652</v>
+      </c>
+      <c r="B61" s="173"/>
     </row>
     <row customFormat="1" r="62" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="57" t="s">
-        <v>3656</v>
+        <v>3645</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>3669</v>
+        <v>3655</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>3669</v>
+        <v>3655</v>
       </c>
     </row>
     <row customFormat="1" r="63" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>3667</v>
-      </c>
-      <c r="B63" s="166">
+        <v>3653</v>
+      </c>
+      <c r="B63" s="165">
         <v>100000</v>
       </c>
-      <c r="C63" s="166">
+      <c r="C63" s="165">
         <v>100000</v>
       </c>
     </row>
     <row customFormat="1" r="64" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>3668</v>
-      </c>
-      <c r="B64" s="166">
+        <v>3654</v>
+      </c>
+      <c r="B64" s="165">
         <v>9999999999</v>
       </c>
-      <c r="C64" s="166">
+      <c r="C64" s="165">
         <v>9999999999</v>
       </c>
     </row>
@@ -32092,67 +32262,67 @@
     <mergeCell ref="A44:XFD44"/>
   </mergeCells>
   <conditionalFormatting sqref="A24:B24 F24:XFD24">
-    <cfRule dxfId="121" priority="13" type="expression">
+    <cfRule dxfId="135" priority="13" type="expression">
       <formula>#REF!="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:XFD43">
-    <cfRule dxfId="120" priority="11" type="expression">
+    <cfRule dxfId="134" priority="11" type="expression">
       <formula>A$34="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:A53 D47:XFD53">
-    <cfRule dxfId="119" priority="10" type="expression">
+    <cfRule dxfId="133" priority="10" type="expression">
       <formula>A$45="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:XFD46">
-    <cfRule dxfId="118" priority="9" type="expression">
+    <cfRule dxfId="132" priority="9" type="expression">
       <formula>A$45="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:XFD40">
-    <cfRule dxfId="117" priority="8" type="expression">
+    <cfRule dxfId="131" priority="8" type="expression">
       <formula>A$35="Personal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:XFD39">
-    <cfRule dxfId="116" priority="7" type="expression">
+    <cfRule dxfId="130" priority="7" type="expression">
       <formula>A$35="Company"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:XFD55">
-    <cfRule dxfId="115" priority="6" type="expression">
+    <cfRule dxfId="129" priority="6" type="expression">
       <formula>A$18="New"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:C53">
-    <cfRule dxfId="114" priority="5" type="expression">
+    <cfRule dxfId="128" priority="5" type="expression">
       <formula>B$34="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:C53">
-    <cfRule dxfId="113" priority="4" type="expression">
+    <cfRule dxfId="127" priority="4" type="expression">
       <formula>B$45="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:XFD22">
-    <cfRule dxfId="112" priority="26" type="expression">
+    <cfRule dxfId="126" priority="26" type="expression">
       <formula>#REF!="Amount"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:B23 F23:XFD23">
-    <cfRule dxfId="111" priority="3" type="expression">
+    <cfRule dxfId="125" priority="3" type="expression">
       <formula>#REF!="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:E24">
-    <cfRule dxfId="110" priority="2" type="expression">
+    <cfRule dxfId="124" priority="2" type="expression">
       <formula>#REF!="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:E23">
-    <cfRule dxfId="109" priority="1" type="expression">
+    <cfRule dxfId="123" priority="1" type="expression">
       <formula>#REF!="Percentage"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32246,29 +32416,30 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection activeCell="B12" pane="topRight" sqref="B12"/>
+      <selection activeCell="B86" pane="topRight" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="66.7109375" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="47.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="137" width="43.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="137" width="47.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="138" t="s">
-        <v>7</v>
+      <c r="B1" t="s">
+        <v>3651</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>3651</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>7</v>
@@ -32285,13 +32456,13 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3192</v>
-      </c>
-      <c r="B2" s="138" t="s">
-        <v>3037</v>
+        <v>3191</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3665</v>
       </c>
       <c r="C2" t="s">
-        <v>3037</v>
+        <v>3666</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>3037</v>
@@ -32308,12 +32479,12 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="B4" s="18">
         <f>IF(B12="Customer",COUNTIFS($A12:$A20,"*$*",B12:B20,""),IF(B12="Off System",COUNTIFS($A12:$A12,"*$*",B12:B12,""),IF(AND(B12="Multifinance",OR(B24="Over Tenor",B24="Partial Tenor")),COUNTIFS($A12:$A12,"*$*",B12:B12,"")+COUNTIFS($A22:$A43,"*$*",B22:B43,""),IF(AND(B12="Multifinance",OR(B24="Full Tenor",B24="Annualy")),COUNTIFS($A12:$A12,"*$*",B12:B12,"")+COUNTIFS($A22:$A26,"*$*",B22:B26,"")+COUNTIFS($A34:$A43,"*$*",B34:B43,""),IF(AND(B12="Customer - Multifinance",OR(B24="Over Tenor",B24="Partial Tenor")),COUNTIFS($A12:$A43,"*$*",B12:B43,""),IF(AND(B12="Customer - Multifinance",OR(B24="Full Tenor",B24="Annualy")),COUNTIFS($A12:$A26,"*$*",B12:B26,"")+COUNTIFS($A34:$A43,"*$*",B34:B43,"")))))))</f>
@@ -32323,10 +32494,31 @@
         <f>IF(C12="Customer",COUNTIFS($A12:$A20,"*$*",C12:C20,""),IF(C12="Off System",COUNTIFS($A12:$A12,"*$*",C12:C12,""),IF(AND(C12="Multifinance",OR(C24="Over Tenor",C24="Partial Tenor")),COUNTIFS($A12:$A12,"*$*",C12:C12,"")+COUNTIFS($A22:$A43,"*$*",C22:C43,""),IF(AND(C12="Multifinance",OR(C24="Full Tenor",C24="Annualy")),COUNTIFS($A12:$A12,"*$*",C12:C12,"")+COUNTIFS($A22:$A26,"*$*",C22:C26,"")+COUNTIFS($A34:$A43,"*$*",C34:C43,""),IF(AND(C12="Customer - Multifinance",OR(C24="Over Tenor",C24="Partial Tenor")),COUNTIFS($A12:$A43,"*$*",C12:C43,""),IF(AND(C12="Customer - Multifinance",OR(C24="Full Tenor",C24="Annualy")),COUNTIFS($A12:$A26,"*$*",C12:C26,"")+COUNTIFS($A34:$A43,"*$*",C34:C43,"")))))))</f>
         <v>0</v>
       </c>
+      <c r="D4" s="18">
+        <f>IF(D12="Customer",COUNTIFS($A12:$A20,"*$*",D12:D20,""),IF(D12="Off System",COUNTIFS($A12:$A12,"*$*",D12:D12,""),IF(AND(D12="Multifinance",OR(D24="Over Tenor",D24="Partial Tenor")),COUNTIFS($A12:$A12,"*$*",D12:D12,"")+COUNTIFS($A22:$A43,"*$*",D22:D43,""),IF(AND(D12="Multifinance",OR(D24="Full Tenor",D24="Annualy")),COUNTIFS($A12:$A12,"*$*",D12:D12,"")+COUNTIFS($A22:$A26,"*$*",D22:D26,"")+COUNTIFS($A34:$A43,"*$*",D34:D43,""),IF(AND(D12="Customer - Multifinance",OR(D24="Over Tenor",D24="Partial Tenor")),COUNTIFS($A12:$A43,"*$*",D12:D43,""),IF(AND(D12="Customer - Multifinance",OR(D24="Full Tenor",D24="Annualy")),COUNTIFS($A12:$A26,"*$*",D12:D26,"")+COUNTIFS($A34:$A43,"*$*",D34:D43,"")))))))</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="18">
+        <f>IF(E12="Customer",COUNTIFS($A12:$A20,"*$*",E12:E20,""),IF(E12="Off System",COUNTIFS($A12:$A12,"*$*",E12:E12,""),IF(AND(E12="Multifinance",OR(E24="Over Tenor",E24="Partial Tenor")),COUNTIFS($A12:$A12,"*$*",E12:E12,"")+COUNTIFS($A22:$A43,"*$*",E22:E43,""),IF(AND(E12="Multifinance",OR(E24="Full Tenor",E24="Annualy")),COUNTIFS($A12:$A12,"*$*",E12:E12,"")+COUNTIFS($A22:$A26,"*$*",E22:E26,"")+COUNTIFS($A34:$A43,"*$*",E34:E43,""),IF(AND(E12="Customer - Multifinance",OR(E24="Over Tenor",E24="Partial Tenor")),COUNTIFS($A12:$A43,"*$*",E12:E43,""),IF(AND(E12="Customer - Multifinance",OR(E24="Full Tenor",E24="Annualy")),COUNTIFS($A12:$A26,"*$*",E12:E26,"")+COUNTIFS($A34:$A43,"*$*",E34:E43,"")))))))</f>
+        <v>0</v>
+      </c>
     </row>
     <row customFormat="1" r="5" s="18" spans="1:7" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="6" s="18" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="7" s="18" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="7" s="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="str">
+        <f>'7.TabAssetData'!B17</f>
+        <v>MRA ASSET MOBIL.MOBIL 2.MOBIL 3</v>
+      </c>
+      <c r="C7" s="18" t="str">
+        <f>'7.TabAssetData'!C17</f>
+        <v>MRA01.MRA02.MRA03</v>
+      </c>
+      <c r="D7" s="18" t="str">
+        <f>'7b.CollateralData'!B15</f>
+        <v>CRUX</v>
+      </c>
+    </row>
     <row customFormat="1" r="8" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>6</v>
@@ -32335,19 +32527,23 @@
         <f>'1.TabCustomerMainData'!B$13</f>
         <v>0002APP20211204379</v>
       </c>
-      <c r="C8" s="18">
-        <f>'1.TabCustomerMainData'!C$13</f>
-        <v>0</v>
+      <c r="C8" s="18" t="str">
+        <f>'1.TabCustomerMainData'!B$13</f>
+        <v>0002APP20211204379</v>
+      </c>
+      <c r="D8" s="18" t="str">
+        <f>'1.TabCustomerMainData'!B$13</f>
+        <v>0002APP20211204379</v>
       </c>
     </row>
     <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
     </row>
     <row customFormat="1" r="10" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="B10" s="18" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -32357,55 +32553,81 @@
         <f>'1.TabCustomerMainData'!$B$10</f>
         <v>No</v>
       </c>
-    </row>
-    <row customFormat="1" r="11" s="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="182" t="s">
+      <c r="D10" s="18" t="str">
+        <f>'1.TabCustomerMainData'!$B$10</f>
+        <v>No</v>
+      </c>
+      <c r="E10" s="18" t="str">
+        <f>'1.TabCustomerMainData'!$B$10</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row customFormat="1" r="11" s="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="183" t="s">
         <v>3014</v>
       </c>
-      <c r="B11" s="183"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="184"/>
+      <c r="B11" s="184"/>
+      <c r="C11" s="184"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="185"/>
     </row>
     <row customFormat="1" r="12" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row customFormat="1" r="13" s="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="185" t="s">
+    </row>
+    <row customFormat="1" r="13" s="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="186" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="186"/>
-      <c r="C13" s="186"/>
-      <c r="D13" s="186"/>
-      <c r="E13" s="187"/>
+      <c r="B13" s="187"/>
+      <c r="C13" s="187"/>
+      <c r="D13" s="187"/>
+      <c r="E13" s="188"/>
     </row>
     <row customFormat="1" r="14" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>3127</v>
+        <v>3126</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>3126</v>
       </c>
     </row>
     <row customFormat="1" r="15" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="B15" s="27">
         <v>110000000</v>
       </c>
       <c r="C15" s="27">
+        <v>1000000</v>
+      </c>
+      <c r="D15" s="27">
+        <v>110000000</v>
+      </c>
+      <c r="E15" s="27">
         <v>1000000</v>
       </c>
     </row>
@@ -32421,7 +32643,7 @@
     </row>
     <row customFormat="1" r="18" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="58" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="B18" s="71">
         <v>44197</v>
@@ -32429,15 +32651,27 @@
       <c r="C18" s="71">
         <v>44197</v>
       </c>
+      <c r="D18" s="71">
+        <v>44197</v>
+      </c>
+      <c r="E18" s="71">
+        <v>44197</v>
+      </c>
     </row>
     <row customFormat="1" r="19" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="58" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="B19" s="71">
         <v>44623</v>
       </c>
       <c r="C19" s="71">
+        <v>44623</v>
+      </c>
+      <c r="D19" s="71">
+        <v>44623</v>
+      </c>
+      <c r="E19" s="71">
         <v>44623</v>
       </c>
     </row>
@@ -32446,18 +32680,18 @@
         <v>110</v>
       </c>
     </row>
-    <row customFormat="1" r="21" s="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="185" t="s">
+    <row customFormat="1" r="21" s="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="186" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="186"/>
-      <c r="C21" s="186"/>
-      <c r="D21" s="186"/>
-      <c r="E21" s="187"/>
+      <c r="B21" s="187"/>
+      <c r="C21" s="187"/>
+      <c r="D21" s="187"/>
+      <c r="E21" s="188"/>
     </row>
     <row customFormat="1" r="22" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="58" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>193</v>
@@ -32465,10 +32699,16 @@
       <c r="C22" s="18" t="s">
         <v>111</v>
       </c>
+      <c r="D22" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row customFormat="1" r="23" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="58" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="B23" s="27">
         <v>310000000</v>
@@ -32476,10 +32716,16 @@
       <c r="C23" s="27">
         <v>600000000</v>
       </c>
+      <c r="D23" s="27">
+        <v>310000000</v>
+      </c>
+      <c r="E23" s="27">
+        <v>600000000</v>
+      </c>
     </row>
     <row customFormat="1" r="24" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="58" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>112</v>
@@ -32487,10 +32733,16 @@
       <c r="C24" s="18" t="s">
         <v>260</v>
       </c>
+      <c r="D24" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row customFormat="1" r="25" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="58" t="s">
-        <v>3355</v>
+        <v>3354</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>190</v>
@@ -32498,15 +32750,27 @@
       <c r="C25" s="18" t="s">
         <v>190</v>
       </c>
+      <c r="D25" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row customFormat="1" r="26" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="58" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>386</v>
       </c>
       <c r="C26" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="E26" s="18" t="s">
         <v>386</v>
       </c>
     </row>
@@ -32517,7 +32781,7 @@
     </row>
     <row customFormat="1" r="28" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="58" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="B28" s="18">
         <v>16</v>
@@ -32525,15 +32789,21 @@
       <c r="C28" s="18">
         <v>48</v>
       </c>
-    </row>
-    <row customFormat="1" r="29" s="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="182" t="s">
+      <c r="D28" s="18">
+        <v>16</v>
+      </c>
+      <c r="E28" s="18">
+        <v>48</v>
+      </c>
+    </row>
+    <row customFormat="1" r="29" s="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="183" t="s">
         <v>3015</v>
       </c>
-      <c r="B29" s="183"/>
-      <c r="C29" s="183"/>
-      <c r="D29" s="183"/>
-      <c r="E29" s="184"/>
+      <c r="B29" s="184"/>
+      <c r="C29" s="184"/>
+      <c r="D29" s="184"/>
+      <c r="E29" s="185"/>
     </row>
     <row customFormat="1" r="30" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="63" t="s">
@@ -32545,6 +32815,12 @@
       <c r="C30" s="34" t="s">
         <v>116</v>
       </c>
+      <c r="D30" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row customFormat="1" r="31" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
@@ -32556,6 +32832,12 @@
       <c r="C31" s="35">
         <v>800000</v>
       </c>
+      <c r="D31" s="137">
+        <v>700000</v>
+      </c>
+      <c r="E31" s="35">
+        <v>800000</v>
+      </c>
     </row>
     <row customFormat="1" r="32" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="34" t="s">
@@ -32567,19 +32849,25 @@
       <c r="C32" s="35">
         <v>800000</v>
       </c>
-    </row>
-    <row customFormat="1" r="33" s="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="189" t="s">
+      <c r="D32" s="137">
+        <v>750000</v>
+      </c>
+      <c r="E32" s="35">
+        <v>800000</v>
+      </c>
+    </row>
+    <row customFormat="1" r="33" s="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="190" t="s">
         <v>3016</v>
       </c>
-      <c r="B33" s="190"/>
-      <c r="C33" s="190"/>
-      <c r="D33" s="190"/>
-      <c r="E33" s="191"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="191"/>
+      <c r="D33" s="191"/>
+      <c r="E33" s="192"/>
     </row>
     <row customFormat="1" r="34" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="58" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>120</v>
@@ -32587,19 +32875,25 @@
       <c r="C34" s="18" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row customFormat="1" r="35" s="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="153" t="s">
+      <c r="D34" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row customFormat="1" r="35" s="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="152" t="s">
         <v>121</v>
       </c>
-      <c r="B35" s="154"/>
-      <c r="C35" s="154"/>
-      <c r="D35" s="154"/>
-      <c r="E35" s="154"/>
+      <c r="B35" s="153"/>
+      <c r="C35" s="153"/>
+      <c r="D35" s="153"/>
+      <c r="E35" s="153"/>
     </row>
     <row customFormat="1" r="36" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="58" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>87</v>
@@ -32607,10 +32901,16 @@
       <c r="C36" s="18" t="s">
         <v>87</v>
       </c>
+      <c r="D36" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row customFormat="1" r="37" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="58" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>87</v>
@@ -32618,10 +32918,16 @@
       <c r="C37" s="18" t="s">
         <v>116</v>
       </c>
+      <c r="D37" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row customFormat="1" r="38" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="58" t="s">
-        <v>3360</v>
+        <v>3359</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>87</v>
@@ -32629,10 +32935,16 @@
       <c r="C38" s="18" t="s">
         <v>87</v>
       </c>
+      <c r="D38" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row customFormat="1" r="39" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="58" t="s">
-        <v>3361</v>
+        <v>3360</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>87</v>
@@ -32640,10 +32952,16 @@
       <c r="C39" s="18" t="s">
         <v>87</v>
       </c>
+      <c r="D39" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row customFormat="1" r="40" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="58" t="s">
-        <v>3362</v>
+        <v>3361</v>
       </c>
       <c r="B40" s="18" t="s">
         <v>87</v>
@@ -32651,10 +32969,16 @@
       <c r="C40" s="18" t="s">
         <v>87</v>
       </c>
+      <c r="D40" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row customFormat="1" r="41" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="58" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="B41" s="18" t="s">
         <v>87</v>
@@ -32662,10 +32986,16 @@
       <c r="C41" s="18" t="s">
         <v>87</v>
       </c>
+      <c r="D41" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row customFormat="1" r="42" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="58" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>87</v>
@@ -32673,10 +33003,16 @@
       <c r="C42" s="18" t="s">
         <v>116</v>
       </c>
+      <c r="D42" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row customFormat="1" r="43" s="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="107" t="s">
-        <v>3365</v>
+      <c r="A43" s="106" t="s">
+        <v>3364</v>
       </c>
       <c r="B43" s="18" t="s">
         <v>87</v>
@@ -32684,47 +33020,67 @@
       <c r="C43" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="98"/>
-      <c r="E43" s="98"/>
-    </row>
-    <row customFormat="1" r="44" s="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="193" t="s">
-        <v>3155</v>
-      </c>
-      <c r="B44" s="194"/>
-      <c r="C44" s="194"/>
-      <c r="D44" s="194"/>
-      <c r="E44" s="194"/>
+      <c r="D43" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row customFormat="1" r="44" s="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="194" t="s">
+        <v>3154</v>
+      </c>
+      <c r="B44" s="195"/>
+      <c r="C44" s="195"/>
+      <c r="D44" s="195"/>
+      <c r="E44" s="195"/>
     </row>
     <row customFormat="1" r="45" s="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="86" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
       <c r="B45" s="87" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="C45" s="87" t="s">
-        <v>3500</v>
+        <v>3499</v>
+      </c>
+      <c r="D45" s="87" t="s">
+        <v>3499</v>
+      </c>
+      <c r="E45" s="87" t="s">
+        <v>3499</v>
       </c>
     </row>
     <row customFormat="1" r="46" s="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="86" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="B46" s="87"/>
       <c r="C46" s="87" t="s">
-        <v>3569</v>
+        <v>3568</v>
+      </c>
+      <c r="D46" s="87"/>
+      <c r="E46" s="87" t="s">
+        <v>3568</v>
       </c>
     </row>
     <row customFormat="1" r="47" s="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="86" t="s">
-        <v>3140</v>
+        <v>3139</v>
       </c>
       <c r="B47" s="87" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="C47" s="87" t="s">
-        <v>3508</v>
+        <v>3507</v>
+      </c>
+      <c r="D47" s="87" t="s">
+        <v>3507</v>
+      </c>
+      <c r="E47" s="87" t="s">
+        <v>3507</v>
       </c>
     </row>
     <row customFormat="1" r="48" s="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -32733,27 +33089,37 @@
       </c>
       <c r="B48" s="87"/>
       <c r="C48" s="87" t="s">
-        <v>3509</v>
-      </c>
-    </row>
-    <row customFormat="1" r="49" s="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="147" t="s">
-        <v>3588</v>
-      </c>
-      <c r="B49" s="148"/>
-      <c r="C49" s="148"/>
-      <c r="D49" s="148"/>
-      <c r="E49" s="148"/>
+        <v>3508</v>
+      </c>
+      <c r="D48" s="87"/>
+      <c r="E48" s="87" t="s">
+        <v>3508</v>
+      </c>
+    </row>
+    <row customFormat="1" r="49" s="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="146" t="s">
+        <v>3585</v>
+      </c>
+      <c r="B49" s="147"/>
+      <c r="C49" s="147"/>
+      <c r="D49" s="147"/>
+      <c r="E49" s="147"/>
     </row>
     <row customFormat="1" r="50" s="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="86" t="s">
         <v>122</v>
       </c>
       <c r="B50" s="88" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="C50" s="88" t="s">
-        <v>3500</v>
+        <v>3499</v>
+      </c>
+      <c r="D50" s="88" t="s">
+        <v>3499</v>
+      </c>
+      <c r="E50" s="88" t="s">
+        <v>3499</v>
       </c>
     </row>
     <row customFormat="1" r="51" s="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -32762,7 +33128,11 @@
       </c>
       <c r="B51" s="88"/>
       <c r="C51" s="88" t="s">
-        <v>3510</v>
+        <v>3509</v>
+      </c>
+      <c r="D51" s="88"/>
+      <c r="E51" s="88" t="s">
+        <v>3509</v>
       </c>
     </row>
     <row customFormat="1" r="52" s="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -32770,10 +33140,16 @@
         <v>124</v>
       </c>
       <c r="B52" s="88" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
       <c r="C52" s="88" t="s">
-        <v>3511</v>
+        <v>3510</v>
+      </c>
+      <c r="D52" s="88" t="s">
+        <v>3510</v>
+      </c>
+      <c r="E52" s="88" t="s">
+        <v>3510</v>
       </c>
     </row>
     <row customFormat="1" r="53" s="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -32781,10 +33157,16 @@
         <v>125</v>
       </c>
       <c r="B53" s="88" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="C53" s="88" t="s">
-        <v>3512</v>
+        <v>3511</v>
+      </c>
+      <c r="D53" s="88" t="s">
+        <v>3511</v>
+      </c>
+      <c r="E53" s="88" t="s">
+        <v>3511</v>
       </c>
     </row>
     <row customFormat="1" r="54" s="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -32793,7 +33175,11 @@
       </c>
       <c r="B54" s="88"/>
       <c r="C54" s="88" t="s">
-        <v>3513</v>
+        <v>3512</v>
+      </c>
+      <c r="D54" s="88"/>
+      <c r="E54" s="88" t="s">
+        <v>3512</v>
       </c>
     </row>
     <row customFormat="1" r="55" s="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -32802,7 +33188,11 @@
       </c>
       <c r="B55" s="88"/>
       <c r="C55" s="88" t="s">
-        <v>3514</v>
+        <v>3513</v>
+      </c>
+      <c r="D55" s="88"/>
+      <c r="E55" s="88" t="s">
+        <v>3513</v>
       </c>
     </row>
     <row customFormat="1" r="56" s="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -32810,242 +33200,341 @@
         <v>128</v>
       </c>
       <c r="B56" s="88" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
       <c r="C56" s="88" t="s">
-        <v>3515</v>
+        <v>3514</v>
+      </c>
+      <c r="D56" s="88" t="s">
+        <v>3514</v>
+      </c>
+      <c r="E56" s="88" t="s">
+        <v>3514</v>
       </c>
     </row>
     <row customFormat="1" r="57" s="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="86" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B57" s="88" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
       <c r="C57" s="88" t="s">
-        <v>3516</v>
-      </c>
-    </row>
-    <row customFormat="1" r="58" s="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="149" t="s">
-        <v>3141</v>
+        <v>3515</v>
+      </c>
+      <c r="D57" s="88" t="s">
+        <v>3515</v>
+      </c>
+      <c r="E57" s="88" t="s">
+        <v>3515</v>
+      </c>
+    </row>
+    <row customFormat="1" r="58" s="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="148" t="s">
+        <v>3140</v>
       </c>
     </row>
     <row customFormat="1" r="59" s="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="13" t="s">
-        <v>3517</v>
+        <v>3516</v>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13" t="s">
+        <v>3516</v>
       </c>
     </row>
     <row customFormat="1" r="60" s="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="13" t="s">
-        <v>3518</v>
+        <v>3517</v>
+      </c>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13" t="s">
+        <v>3517</v>
       </c>
     </row>
     <row customFormat="1" r="61" s="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="13" t="s">
-        <v>3519</v>
+        <v>3518</v>
+      </c>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13" t="s">
+        <v>3518</v>
       </c>
     </row>
     <row customFormat="1" r="62" s="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="B62" s="13"/>
       <c r="C62" s="13" t="s">
-        <v>3520</v>
+        <v>3519</v>
+      </c>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13" t="s">
+        <v>3519</v>
       </c>
     </row>
     <row customFormat="1" r="63" s="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
       <c r="B63" s="13"/>
       <c r="C63" s="13" t="s">
-        <v>3521</v>
+        <v>3520</v>
+      </c>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13" t="s">
+        <v>3520</v>
       </c>
     </row>
     <row customFormat="1" r="64" s="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="B64" s="13"/>
       <c r="C64" s="13" t="s">
-        <v>3522</v>
-      </c>
-    </row>
-    <row customFormat="1" r="65" s="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3521</v>
+      </c>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13" t="s">
+        <v>3521</v>
+      </c>
+    </row>
+    <row customFormat="1" r="65" s="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="B65" s="13"/>
       <c r="C65" s="13" t="s">
-        <v>3523</v>
-      </c>
-    </row>
-    <row customFormat="1" r="66" s="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3522</v>
+      </c>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13" t="s">
+        <v>3522</v>
+      </c>
+    </row>
+    <row customFormat="1" r="66" s="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B66" s="13"/>
       <c r="C66" s="13" t="s">
-        <v>3524</v>
-      </c>
-    </row>
-    <row customFormat="1" r="67" s="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3523</v>
+      </c>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13" t="s">
+        <v>3523</v>
+      </c>
+    </row>
+    <row customFormat="1" r="67" s="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
-    </row>
-    <row customFormat="1" r="68" s="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+    </row>
+    <row customFormat="1" r="68" s="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="94" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B68" s="96"/>
       <c r="C68" s="96"/>
-    </row>
-    <row customFormat="1" r="69" s="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="96"/>
+      <c r="E68" s="96"/>
+    </row>
+    <row customFormat="1" r="69" s="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>3524</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>3569</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>3524</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>3569</v>
+      </c>
+    </row>
+    <row customFormat="1" r="70" s="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="95" t="s">
         <v>3173</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>3525</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>3570</v>
-      </c>
-    </row>
-    <row customFormat="1" r="70" s="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="95" t="s">
-        <v>3174</v>
       </c>
       <c r="B70" s="95"/>
       <c r="C70" s="95"/>
-    </row>
-    <row customFormat="1" r="71" s="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" s="95"/>
+      <c r="E70" s="95"/>
+    </row>
+    <row customFormat="1" r="71" s="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
-    </row>
-    <row customFormat="1" r="72" s="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+    </row>
+    <row customFormat="1" r="72" s="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="B72" s="13"/>
       <c r="C72" s="13" t="s">
-        <v>3501</v>
-      </c>
-    </row>
-    <row customFormat="1" r="73" s="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3500</v>
+      </c>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row customFormat="1" r="73" s="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="13" t="s">
+        <v>3501</v>
+      </c>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13" t="s">
+        <v>3501</v>
+      </c>
+    </row>
+    <row customFormat="1" r="74" s="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
+        <v>3177</v>
+      </c>
+      <c r="C74" s="13" t="s">
         <v>3502</v>
       </c>
-    </row>
-    <row customFormat="1" r="74" s="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
+      <c r="E74" s="13" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row customFormat="1" r="75" s="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
         <v>3178</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C75" s="13" t="s">
         <v>3503</v>
       </c>
-    </row>
-    <row customFormat="1" r="75" s="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
+      <c r="E75" s="13" t="s">
+        <v>3503</v>
+      </c>
+    </row>
+    <row customFormat="1" r="76" s="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
         <v>3179</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C76" s="13" t="s">
         <v>3504</v>
       </c>
-    </row>
-    <row customFormat="1" r="76" s="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="s">
+      <c r="E76" s="13" t="s">
+        <v>3504</v>
+      </c>
+    </row>
+    <row customFormat="1" r="77" s="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
         <v>3180</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C77" s="13" t="s">
         <v>3505</v>
       </c>
-    </row>
-    <row customFormat="1" r="77" s="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
-        <v>3181</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>3506</v>
-      </c>
-    </row>
-    <row customFormat="1" r="78" s="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E77" s="13" t="s">
+        <v>3505</v>
+      </c>
+    </row>
+    <row customFormat="1" r="78" s="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="86" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B78" s="87"/>
       <c r="C78" s="87" t="s">
-        <v>3507</v>
-      </c>
-    </row>
-    <row customFormat="1" r="79" s="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3506</v>
+      </c>
+      <c r="D78" s="87"/>
+      <c r="E78" s="87" t="s">
+        <v>3506</v>
+      </c>
+    </row>
+    <row customFormat="1" r="79" s="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
-    </row>
-    <row customFormat="1" r="80" s="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="136" t="s">
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+    </row>
+    <row customFormat="1" r="80" s="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="135" t="s">
         <v>3017</v>
       </c>
-      <c r="B80" s="137"/>
-    </row>
-    <row customFormat="1" r="81" s="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="136"/>
+      <c r="D80" s="167"/>
+      <c r="E80" s="166"/>
+    </row>
+    <row customFormat="1" r="81" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
         <v>129</v>
       </c>
       <c r="B81" s="27">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="C81" s="27">
         <v>20000</v>
       </c>
-    </row>
-    <row customFormat="1" r="82" s="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" s="27">
+        <v>10000</v>
+      </c>
+      <c r="E81" s="27">
+        <v>20000</v>
+      </c>
+    </row>
+    <row customFormat="1" r="82" s="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="89" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="B82" t="s">
-        <v>3580</v>
+        <v>3579</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>3199</v>
-      </c>
-    </row>
-    <row customFormat="1" r="83" s="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="108" t="s">
+        <v>3198</v>
+      </c>
+      <c r="D82" s="137" t="s">
+        <v>3579</v>
+      </c>
+      <c r="E82" s="137" t="s">
+        <v>3198</v>
+      </c>
+    </row>
+    <row customFormat="1" r="83" s="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="107" t="s">
+        <v>3393</v>
+      </c>
+      <c r="B83" s="149"/>
+      <c r="D83" s="149"/>
+    </row>
+    <row customFormat="1" r="84" s="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="18" t="s">
         <v>3394</v>
-      </c>
-      <c r="B83" s="150"/>
-    </row>
-    <row customFormat="1" r="84" s="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="18" t="s">
-        <v>3395</v>
       </c>
       <c r="B84" s="18" t="s">
         <v>87</v>
@@ -33053,108 +33542,153 @@
       <c r="C84" s="18" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row customFormat="1" r="85" s="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row customFormat="1" r="85" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="B85">
+        <v>12305704</v>
+      </c>
+      <c r="C85">
+        <v>12460318</v>
+      </c>
+      <c r="D85" s="137">
         <v>21455000</v>
       </c>
-      <c r="C85">
+      <c r="E85" s="137">
         <v>21871000</v>
       </c>
     </row>
-    <row customFormat="1" r="86" s="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="151" t="s">
-        <v>3441</v>
-      </c>
-      <c r="B86" t="s">
-        <v>3587</v>
-      </c>
-      <c r="C86" t="s">
-        <v>3581</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="86" s="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="150" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="s">
-        <v>3436</v>
-      </c>
-      <c r="B87" s="115">
+        <v>3435</v>
+      </c>
+      <c r="B87" s="114">
         <f>SUM(B31:B32)</f>
-        <v>1600000</v>
-      </c>
-      <c r="C87" s="115">
+        <v>1450000</v>
+      </c>
+      <c r="C87" s="114">
         <f>SUM(C31:C32)</f>
         <v>1600000</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" s="114">
+        <f>SUM(D31:D32)</f>
+        <v>1450000</v>
+      </c>
+      <c r="E87" s="114">
+        <f>SUM(E31:E32)</f>
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="17" t="s">
-        <v>3437</v>
-      </c>
-      <c r="B88" s="115">
+        <v>3436</v>
+      </c>
+      <c r="B88" s="114">
         <f>'7.TabAssetData'!B19</f>
         <v>1000000000</v>
       </c>
-      <c r="C88" s="115">
+      <c r="C88" s="114">
         <f>'7.TabAssetData'!C19</f>
         <v>600000000</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" s="114">
+        <f>'7.TabAssetData'!D19</f>
+        <v>0</v>
+      </c>
+      <c r="E88" s="114">
+        <f>'7.TabAssetData'!E19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="37" t="s">
-        <v>3438</v>
-      </c>
-      <c r="B89" s="115">
+        <v>3437</v>
+      </c>
+      <c r="B89" s="114">
         <f>B88+SUMIFS('7a.Accessories'!17:17,'7a.Accessories'!12:12,B8,'7a.Accessories'!4:4,"0",'7a.Accessories'!1:1,"SUCCESS")</f>
         <v>1002000000</v>
       </c>
-      <c r="C89" s="115">
+      <c r="C89" s="114">
         <f>C88+SUMIFS('7a.Accessories'!17:17,'7a.Accessories'!12:12,C8,'7a.Accessories'!4:4,"0",'7a.Accessories'!1:1,"SUCCESS")</f>
-        <v>600000000</v>
-      </c>
-    </row>
-    <row customFormat="1" r="90" s="17" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="178" t="s">
-        <v>3150</v>
-      </c>
-      <c r="B91" s="179"/>
-    </row>
-    <row ht="30" r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>602000000</v>
+      </c>
+      <c r="D89" s="114">
+        <f>D88+SUMIFS('7a.Accessories'!17:17,'7a.Accessories'!12:12,D8,'7a.Accessories'!4:4,"0",'7a.Accessories'!1:1,"SUCCESS")</f>
+        <v>2000000</v>
+      </c>
+      <c r="E89" s="114">
+        <f>E88+SUMIFS('7a.Accessories'!17:17,'7a.Accessories'!12:12,E8,'7a.Accessories'!4:4,"0",'7a.Accessories'!1:1,"SUCCESS")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row customFormat="1" r="90" s="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D90" s="137"/>
+      <c r="E90" s="137"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="179" t="s">
+        <v>3149</v>
+      </c>
+      <c r="B91" s="180"/>
+      <c r="D91"/>
+    </row>
+    <row ht="30" r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="92" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="B92" s="93">
         <f>IF(B24="Annualy",0,IF(B24="Full Tenor",ROUNDUP('6.TabApplicationData'!B20/12,0)-1,ROUNDUP(B28/12,0)-1))</f>
         <v>0</v>
       </c>
-    </row>
-    <row customHeight="1" ht="30" r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="180" t="s">
-        <v>3149</v>
-      </c>
-      <c r="B93" s="181"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" s="93">
+        <f>IF(D24="Annualy",0,IF(D24="Full Tenor",ROUNDUP('6.TabApplicationData'!D20/12,0)-1,ROUNDUP(D28/12,0)-1))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="30" r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="181" t="s">
+        <v>3148</v>
+      </c>
+      <c r="B93" s="182"/>
+      <c r="D93"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="85" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="B94" s="93">
         <f>B92+1</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="177" t="s">
-        <v>3156</v>
-      </c>
-      <c r="B95" s="177"/>
-    </row>
-    <row customHeight="1" ht="45.75" r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="177"/>
-      <c r="B96" s="177"/>
+      <c r="D94" s="93">
+        <f>D92+1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="178" t="s">
+        <v>3155</v>
+      </c>
+      <c r="B95" s="178"/>
+      <c r="D95"/>
+    </row>
+    <row customHeight="1" ht="45.75" r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="178"/>
+      <c r="B96" s="178"/>
+      <c r="D96"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -33168,143 +33702,213 @@
     <mergeCell ref="A33:XFD33"/>
     <mergeCell ref="A44:XFD44"/>
   </mergeCells>
-  <conditionalFormatting sqref="B28:XFD28">
-    <cfRule dxfId="108" priority="20" type="expression">
+  <conditionalFormatting sqref="B28:C28 F28:XFD28">
+    <cfRule dxfId="122" priority="34" type="expression">
       <formula>OR(B$24="Annualy",B$24="Full Tenor")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35 A44 A49 A58 D74:XFD78 A68:A73 A81:XFD82 B22:XFD28 A30:XFD32 B34:XFD34 A79:C79 A45:XFD48 A50:XFD57 B59:C73 B36:XFD43">
-    <cfRule dxfId="107" priority="19" type="expression">
+  <conditionalFormatting sqref="A35 A44 A49 A58 F74:XFD78 A68:A73 A81:C82 B22:C28 A30:C32 B34:C34 A79:C79 A45:C48 A50:C57 B59:C73 B36:C43 F36:XFD43 F50:XFD57 F45:XFD48 F34:XFD34 F30:XFD32 F22:XFD28 F81:XFD82">
+    <cfRule dxfId="121" priority="33" type="expression">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35 A44 A49 A58 D74:XFD78 A68:A73 A81:XFD82 B22:XFD28 A30:XFD32 B34:XFD34 B14:XFD20 A79:C79 A45:XFD48 A50:XFD57 B59:C73 B36:XFD43">
-    <cfRule dxfId="106" priority="18" type="expression">
+  <conditionalFormatting sqref="A35 A44 A49 A58 F74:XFD78 A68:A73 A81:C82 B22:C28 A30:C32 B34:C34 B14:C20 A79:C79 A45:C48 A50:C57 B59:C73 B36:C43 F36:XFD43 F50:XFD57 F45:XFD48 F14:XFD20 F34:XFD34 F30:XFD32 F22:XFD28 F81:XFD82">
+    <cfRule dxfId="120" priority="32" type="expression">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:XFD20">
-    <cfRule dxfId="105" priority="17" type="expression">
+  <conditionalFormatting sqref="B14:C20 F14:XFD20">
+    <cfRule dxfId="119" priority="31" type="expression">
       <formula>B$12="Multifinance"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:XFD32">
-    <cfRule dxfId="104" priority="16" type="expression">
+  <conditionalFormatting sqref="A31:C32 F31:XFD32">
+    <cfRule dxfId="118" priority="30" type="expression">
       <formula>A$30="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A66">
-    <cfRule dxfId="103" priority="15" type="expression">
+    <cfRule dxfId="117" priority="29" type="expression">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:A66">
-    <cfRule dxfId="102" priority="14" type="expression">
+    <cfRule dxfId="116" priority="28" type="expression">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82:XFD82">
-    <cfRule dxfId="101" priority="11" type="expression">
+  <conditionalFormatting sqref="A82:C82 F82:XFD82">
+    <cfRule dxfId="115" priority="25" type="expression">
       <formula>A$82="Discount Amount (Paid By MF)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A20">
-    <cfRule dxfId="100" priority="10" type="expression">
+    <cfRule dxfId="114" priority="24" type="expression">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A20">
-    <cfRule dxfId="99" priority="9" type="expression">
+    <cfRule dxfId="113" priority="23" type="expression">
       <formula>A$12="Multifinance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule dxfId="98" priority="8" type="expression">
+    <cfRule dxfId="112" priority="22" type="expression">
       <formula>OR(A$24="Annualy",A$24="Full Tenor")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A28">
-    <cfRule dxfId="97" priority="7" type="expression">
+    <cfRule dxfId="111" priority="21" type="expression">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A28">
-    <cfRule dxfId="96" priority="6" type="expression">
+    <cfRule dxfId="110" priority="20" type="expression">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule dxfId="95" priority="5" type="expression">
+    <cfRule dxfId="109" priority="19" type="expression">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule dxfId="94" priority="4" type="expression">
+    <cfRule dxfId="108" priority="18" type="expression">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A43">
-    <cfRule dxfId="93" priority="3" type="expression">
+    <cfRule dxfId="107" priority="17" type="expression">
       <formula>A$12="Customer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A43">
-    <cfRule dxfId="92" priority="2" type="expression">
+    <cfRule dxfId="106" priority="16" type="expression">
       <formula>A$12="Off System"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A85:XFD85">
-    <cfRule dxfId="91" priority="1" type="expression">
+  <conditionalFormatting sqref="A85:C85 F85:XFD85">
+    <cfRule dxfId="105" priority="15" type="expression">
       <formula>A$84="YES"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule dxfId="104" priority="14" type="expression">
+      <formula>OR(D$24="Annualy",D$24="Full Tenor")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D81:D82 D22:D28 D30:D32 D34 D79 D45:D48 D50:D57 D59:D73 D36:D43">
+    <cfRule dxfId="103" priority="13" type="expression">
+      <formula>D$12="Customer"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D81:D82 D22:D28 D30:D32 D34 D14:D20 D79 D45:D48 D50:D57 D59:D73 D36:D43">
+    <cfRule dxfId="102" priority="12" type="expression">
+      <formula>D$12="Off System"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D20">
+    <cfRule dxfId="101" priority="11" type="expression">
+      <formula>D$12="Multifinance"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:D32">
+    <cfRule dxfId="100" priority="10" type="expression">
+      <formula>D$30="YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D82">
+    <cfRule dxfId="99" priority="9" type="expression">
+      <formula>D$82="Discount Amount (Paid By MF)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D85">
+    <cfRule dxfId="98" priority="8" type="expression">
+      <formula>D$84="YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule dxfId="97" priority="7" type="expression">
+      <formula>OR(E$24="Annualy",E$24="Full Tenor")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E82 E22:E28 E30:E32 E34 E79 E45:E48 E50:E57 E59:E73 E36:E43">
+    <cfRule dxfId="96" priority="6" type="expression">
+      <formula>E$12="Customer"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E82 E22:E28 E30:E32 E34 E14:E20 E79 E45:E48 E50:E57 E59:E73 E36:E43">
+    <cfRule dxfId="95" priority="5" type="expression">
+      <formula>E$12="Off System"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E20">
+    <cfRule dxfId="94" priority="4" type="expression">
+      <formula>E$12="Multifinance"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:E32">
+    <cfRule dxfId="93" priority="3" type="expression">
+      <formula>E$30="YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule dxfId="92" priority="2" type="expression">
+      <formula>E$82="Discount Amount (Paid By MF)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule dxfId="91" priority="1" type="expression">
+      <formula>E$84="YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="16">
-    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B31:C31" type="custom">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B31:E31" type="custom">
       <formula1>AND(OR(B$12="Multifinance",B$12="Customer - Multifinance"),B30="NO",ISNUMBER(B31))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B32:C32" type="custom">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B32:E32" type="custom">
       <formula1>AND(OR(B$12="Multifinance",B$12="Customer - Multifinance"),B30="NO",ISNUMBER(B32))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B28:C28" type="custom">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B28:E28" type="custom">
       <formula1>AND(OR(B$12="Multifinance",B$12="Customer - Multifinance"),B24&lt;&gt;"Annualy",B24&lt;&gt;"Full Tenor",ISNUMBER(B28))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B23:C23 B81:C82" type="custom">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B23:E23 B81:E82" type="custom">
       <formula1>AND(OR(B$12="Multifinance",B$12="Customer - Multifinance"),ISNUMBER(B23))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B12:C12" type="list">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B12:E12" type="list">
       <formula1>ListInsuredBy</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B14:C14 B16:C20" type="custom">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B14:E14 B16:E20" type="custom">
       <formula1>OR(B$12="Customer", B$12="Customer - Multifinance")</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B15:C15" type="custom">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B15:E15" type="custom">
       <formula1>AND(OR(B$12="Customer", B$12="Customer - Multifinance"),ISNUMBER(B$15))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B27:C27" type="custom">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B27:E27" type="custom">
       <formula1>OR(B$12="Multifinance",B$12="Customer - Multifinance")</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B22:C22" type="list">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B22:E22" type="list">
       <formula1>ListAssetRegion</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B24:C24" type="list">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B24:E24" type="list">
       <formula1>ListCoverPeriod</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B25:C25" type="list">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B25:E25" type="list">
       <formula1>ListPaymentType</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B26:C26" type="list">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B26:E26" type="list">
       <formula1>ListInscoBranchName</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B34:C34" type="list">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B34:E34" type="list">
       <formula1>ListInsMainCoverage</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B84:C84" type="list">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B84:E84" type="list">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B10:C10" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B10:E10" type="list">
       <formula1>"Yes, No, Edit"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" errorStyle="information" showInputMessage="1" sqref="B85"/>
+    <dataValidation allowBlank="1" errorStyle="information" showInputMessage="1" sqref="B85 D85"/>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
@@ -33316,7 +33920,7 @@
           <x14:formula1>
             <xm:f>Master!$CL$2:$CL$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B30:C30 B36:C43</xm:sqref>
+          <xm:sqref>B30:E30 B36:E43</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -33368,7 +33972,7 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>3037</v>
@@ -33391,12 +33995,12 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="B4" s="18">
         <f>IF(AND(B12="NO"),COUNTIFS($A12:$A12,"*$*",B12:B12,""),IF(AND(B12="YES",OR(B14="Full Paid in Advance",B14="Full Capitalized"),B19="YES PARTIAL"),COUNTIFS($A12:$A14,"*$*",B12:B14,"")+COUNTIFS($A18:$A23,"*$*",B18:B23,""),IF(AND(B12="YES",B14="Paid in Advance &amp; Capitalized Mix",B19="YES PARTIAL"),COUNTIFS($A12:$A23,"*$*",B12:B23,""),IF(AND(B12="YES",B14="Paid in Advance &amp; Capitalized Mix",OR(B19="YES",B19="NO")),COUNTIFS($A12:$A20,"*$*",B12:B20,"")+COUNTIFS($A23:$A23,"*$*",B23:B23,""),IF(AND(B12="YES",OR(B14="Full Paid in Advance",B14="Full Capitalized"),OR(B19="YES",B19="NO")),COUNTIFS($A12:$A14,"*$*",B12:B14,"")+COUNTIFS($A18:$A20,"*$*",B18:B20,"")+COUNTIFS($A23:$A23,"*$*",B23:B23,""))))))</f>
@@ -33425,12 +34029,12 @@
     </row>
     <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
     </row>
     <row customFormat="1" r="10" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="B10" s="18" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -33441,14 +34045,14 @@
         <v>No</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="170" t="s">
+    <row customFormat="1" r="11" s="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="171" t="s">
         <v>3018</v>
       </c>
     </row>
     <row customFormat="1" r="12" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>116</v>
@@ -33459,18 +34063,18 @@
     </row>
     <row customFormat="1" r="13" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>394</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
     </row>
     <row customFormat="1" r="14" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>232</v>
@@ -33481,7 +34085,7 @@
     </row>
     <row customFormat="1" r="15" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="B15" s="36">
         <v>0.3</v>
@@ -33495,14 +34099,14 @@
         <v>95</v>
       </c>
     </row>
-    <row customFormat="1" r="17" s="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="170" t="s">
+    <row customFormat="1" r="17" s="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="171" t="s">
         <v>3019</v>
       </c>
     </row>
     <row customFormat="1" r="18" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="58" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>87</v>
@@ -33513,7 +34117,7 @@
     </row>
     <row customFormat="1" r="19" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="58" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>87</v>
@@ -33524,7 +34128,7 @@
     </row>
     <row customFormat="1" r="20" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="58" t="s">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>87</v>
@@ -33535,23 +34139,23 @@
     </row>
     <row customFormat="1" r="21" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="58" t="s">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="B21" t="s">
-        <v>3610</v>
+        <v>3607</v>
       </c>
       <c r="C21" t="s">
-        <v>3577</v>
-      </c>
-    </row>
-    <row customFormat="1" r="22" s="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="170" t="s">
+        <v>3576</v>
+      </c>
+    </row>
+    <row customFormat="1" r="22" s="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="171" t="s">
         <v>3020</v>
       </c>
     </row>
     <row customFormat="1" r="23" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="58" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="B23" s="27">
         <v>600000</v>
@@ -33703,7 +34307,7 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="B2" t="s">
         <v>3037</v>
@@ -33726,12 +34330,12 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="B4" s="18">
         <f>IF(AND('8.TabInsuranceData'!B81&gt;0,B46="Yes"),COUNTIFS($A12:$A18,"*$*",B12:B18,"")+COUNTIFS($A47:$A48,"*$*",B47:B48,""),IF(AND('8.TabInsuranceData'!B81&gt;0,B46="No"),COUNTIFS($A12:$A18,"*$*",B12:B18,""),IF(AND(OR('8.TabInsuranceData'!B81&lt;=0,ISBLANK(B82)),B46="Yes"),COUNTIFS($A47:$A48,"*$*",B47:B48,""),0)))</f>
@@ -33760,114 +34364,114 @@
     </row>
     <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
     </row>
     <row customFormat="1" r="10" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>3426</v>
-      </c>
-    </row>
-    <row customFormat="1" r="11" s="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="182" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row customFormat="1" r="11" s="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="183" t="s">
         <v>3021</v>
       </c>
-      <c r="B11" s="183"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="184"/>
+      <c r="B11" s="184"/>
+      <c r="C11" s="184"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="185"/>
     </row>
     <row customFormat="1" r="12" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="64" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
     </row>
     <row customFormat="1" r="13" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
     </row>
     <row customFormat="1" r="14" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="64" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
     </row>
     <row customFormat="1" r="15" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="64" t="s">
-        <v>3378</v>
+        <v>3377</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>3529</v>
+        <v>3528</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>3529</v>
+        <v>3528</v>
       </c>
     </row>
     <row customFormat="1" r="16" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="64" t="s">
-        <v>3379</v>
+        <v>3378</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>3530</v>
+        <v>3529</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>3530</v>
+        <v>3529</v>
       </c>
     </row>
     <row customFormat="1" r="17" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="64" t="s">
-        <v>3380</v>
+        <v>3379</v>
       </c>
       <c r="B17" t="s">
-        <v>3582</v>
-      </c>
-      <c r="C17" s="138" t="s">
-        <v>3576</v>
+        <v>3580</v>
+      </c>
+      <c r="C17" s="137" t="s">
+        <v>3575</v>
       </c>
     </row>
     <row customFormat="1" r="18" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="64" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>3531</v>
-      </c>
-    </row>
-    <row customFormat="1" r="19" s="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="182" t="s">
+        <v>3530</v>
+      </c>
+    </row>
+    <row customFormat="1" r="19" s="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="183" t="s">
         <v>3022</v>
       </c>
-      <c r="B19" s="183"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="183"/>
+      <c r="B19" s="184"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
     </row>
     <row customFormat="1" r="20" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="56" t="s">
@@ -33887,7 +34491,7 @@
       <c r="B21">
         <v>250000</v>
       </c>
-      <c r="C21" s="138">
+      <c r="C21" s="137">
         <v>150000</v>
       </c>
     </row>
@@ -34082,10 +34686,10 @@
       <c r="A39" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="B39" s="140">
+      <c r="B39" s="139">
         <v>31500000</v>
       </c>
-      <c r="C39" s="140">
+      <c r="C39" s="139">
         <v>2250000</v>
       </c>
     </row>
@@ -34111,14 +34715,14 @@
         <v>1000000</v>
       </c>
     </row>
-    <row customFormat="1" r="42" s="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="182" t="s">
+    <row customFormat="1" r="42" s="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="183" t="s">
         <v>3023</v>
       </c>
-      <c r="B42" s="183"/>
-      <c r="C42" s="183"/>
-      <c r="D42" s="183"/>
-      <c r="E42" s="183"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="184"/>
     </row>
     <row customFormat="1" r="43" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
@@ -34136,9 +34740,9 @@
         <v>165</v>
       </c>
       <c r="B44" t="s">
-        <v>3583</v>
-      </c>
-      <c r="C44" s="145">
+        <v>3581</v>
+      </c>
+      <c r="C44" s="144">
         <v>14.685191</v>
       </c>
     </row>
@@ -34166,7 +34770,7 @@
     </row>
     <row customFormat="1" r="47" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="58" t="s">
-        <v>3382</v>
+        <v>3381</v>
       </c>
       <c r="B47" s="18">
         <v>3</v>
@@ -34177,7 +34781,7 @@
     </row>
     <row customFormat="1" r="48" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="58" t="s">
-        <v>3383</v>
+        <v>3382</v>
       </c>
       <c r="B48" s="18" t="s">
         <v>3044</v>
@@ -34188,7 +34792,7 @@
     </row>
     <row customFormat="1" r="49" s="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="51" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="B49" s="90">
         <v>1000000</v>
@@ -34199,14 +34803,14 @@
     </row>
     <row customFormat="1" ht="15.75" r="50" s="12" spans="1:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
-        <v>3428</v>
-      </c>
-      <c r="B50" s="113"/>
-      <c r="C50" s="113"/>
+        <v>3427</v>
+      </c>
+      <c r="B50" s="112"/>
+      <c r="C50" s="112"/>
     </row>
     <row customFormat="1" ht="15.75" r="51" s="91" spans="1:3" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A51" s="91" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="B51" s="91" t="s">
         <v>46</v>
@@ -34217,326 +34821,326 @@
     </row>
     <row customFormat="1" r="52" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>3443</v>
-      </c>
-      <c r="B52" s="141">
+        <v>3442</v>
+      </c>
+      <c r="B52" s="140">
         <v>1000</v>
       </c>
-      <c r="C52" s="141">
+      <c r="C52" s="140">
         <v>1000</v>
       </c>
     </row>
     <row customFormat="1" r="53" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="B53">
         <v>15000</v>
       </c>
-      <c r="C53" s="144">
+      <c r="C53" s="143">
         <v>15000</v>
       </c>
     </row>
-    <row customFormat="1" r="54" s="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="119" t="s">
-        <v>3444</v>
+    <row customFormat="1" r="54" s="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="118" t="s">
+        <v>3443</v>
       </c>
     </row>
     <row customFormat="1" r="55" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>3445</v>
-      </c>
-      <c r="B55" s="142">
+        <v>3444</v>
+      </c>
+      <c r="B55" s="141">
         <f>SUM(B56:B57)</f>
         <v>1002000000</v>
       </c>
-      <c r="C55" s="142">
+      <c r="C55" s="141">
         <f>SUM(C56:C57)</f>
         <v>600000000</v>
       </c>
     </row>
     <row customFormat="1" r="56" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>3437</v>
-      </c>
-      <c r="B56" s="142">
+        <v>3436</v>
+      </c>
+      <c r="B56" s="141">
         <f>'7.TabAssetData'!B19</f>
         <v>1000000000</v>
       </c>
-      <c r="C56" s="142">
+      <c r="C56" s="141">
         <f>'7.TabAssetData'!C19</f>
         <v>600000000</v>
       </c>
     </row>
     <row customFormat="1" r="57" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>3446</v>
-      </c>
-      <c r="B57" s="142">
+        <v>3445</v>
+      </c>
+      <c r="B57" s="141">
         <f>SUMIFS('7a.Accessories'!17:17,'7a.Accessories'!12:12,B8,'7a.Accessories'!4:4,"0",'7a.Accessories'!1:1,"SUCCESS")</f>
         <v>2000000</v>
       </c>
-      <c r="C57" s="142">
+      <c r="C57" s="141">
         <f>SUMIFS('7a.Accessories'!17:17,'7a.Accessories'!12:12,C8,'7a.Accessories'!4:4,"0",'7a.Accessories'!1:1,"SUCCESS")</f>
         <v>0</v>
       </c>
     </row>
     <row customFormat="1" r="58" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>3436</v>
-      </c>
-      <c r="B58" s="142">
+        <v>3435</v>
+      </c>
+      <c r="B58" s="141">
         <f>SUM(B21:B25,B39)</f>
         <v>34320000</v>
       </c>
-      <c r="C58" s="142">
+      <c r="C58" s="141">
         <f>SUM(C21:C25,C39)</f>
         <v>4950000</v>
       </c>
     </row>
     <row customFormat="1" r="59" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>3447</v>
-      </c>
-      <c r="B59" s="142">
+        <v>3446</v>
+      </c>
+      <c r="B59" s="141">
         <f>SUM(B27,B29,B31,B33,B35,B41)</f>
         <v>10560000</v>
       </c>
-      <c r="C59" s="142">
+      <c r="C59" s="141">
         <f>SUM(C27,C29,C31,C33,C35,C41)</f>
         <v>1560000</v>
       </c>
     </row>
     <row customFormat="1" r="60" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>3448</v>
-      </c>
-      <c r="B60" s="142">
+        <v>3447</v>
+      </c>
+      <c r="B60" s="141">
         <f>'8.TabInsuranceData'!B85</f>
         <v>30814500</v>
       </c>
-      <c r="C60" s="142">
+      <c r="C60" s="141">
         <f>'8.TabInsuranceData'!C85</f>
         <v>0</v>
       </c>
     </row>
     <row customFormat="1" r="61" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>3449</v>
-      </c>
-      <c r="B61" s="142">
+        <v>3448</v>
+      </c>
+      <c r="B61" s="141">
         <f>SUMIFS('7a.Accessories'!24:24,'7a.Accessories'!12:12,B8,'7a.Accessories'!4:4,"0",'7a.Accessories'!1:1,"SUCCESS")+'7.TabAssetData'!B70</f>
         <v>180370000</v>
       </c>
-      <c r="C61" s="142">
+      <c r="C61" s="141">
         <f>SUMIFS('7a.Accessories'!24:24,'7a.Accessories'!12:12,C8,'7a.Accessories'!4:4,"0",'7a.Accessories'!1:1,"SUCCESS")+'7.TabAssetData'!C70</f>
         <v>360000000</v>
       </c>
     </row>
     <row customFormat="1" r="62" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>3450</v>
-      </c>
-      <c r="B62" s="142">
+        <v>3449</v>
+      </c>
+      <c r="B62" s="141">
         <f>B61-B53</f>
         <v>180355000</v>
       </c>
-      <c r="C62" s="142">
+      <c r="C62" s="141">
         <f>C61-C53</f>
         <v>359985000</v>
       </c>
     </row>
     <row customFormat="1" r="63" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>3460</v>
-      </c>
-      <c r="B63" s="139">
+        <v>3459</v>
+      </c>
+      <c r="B63" s="138">
         <f>IF(B37= "OTR-DP",B39/(B55-B61)*100,IF(B37="OTR-DP + Ins Cptlz + Fee Cptlz(Excl. Provision)",B39*100/(B55-B61+B60+(B59-B41))))</f>
         <v>3.6928292875359978</v>
       </c>
-      <c r="C63" s="139">
+      <c r="C63" s="138">
         <f>IF(C37= "OTR-DP",C39/(C55-C61)*100,IF(C37="OTR-DP + Ins Cptlz + Fee Cptlz(Excl. Provision)",C39*100/(C55-C61+C60+(C59-C41))))</f>
         <v>0.9375</v>
       </c>
     </row>
     <row customFormat="1" r="64" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>3452</v>
-      </c>
-      <c r="B64" s="143">
+        <v>3451</v>
+      </c>
+      <c r="B64" s="142">
         <f>IF(B37= "OTR-DP",(B55-B61)*B38/100,IF(B37="OTR-DP + Ins Cptlz + Fee Cptlz(Excl. Provision)",(B55-B61+B60+(B59-B41))*B38/100))</f>
         <v>0</v>
       </c>
-      <c r="C64" s="143">
+      <c r="C64" s="142">
         <f>IF(C37= "OTR-DP",(C55-C61)*C38/100,IF(C37="OTR-DP + Ins Cptlz + Fee Cptlz(Excl. Provision)",(C55-C61+C60+(C59-C41))*C38/100))</f>
         <v>0</v>
       </c>
     </row>
-    <row customFormat="1" r="65" s="100" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A65" s="118" t="s">
-        <v>3453</v>
+    <row customFormat="1" r="65" s="99" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" s="117" t="s">
+        <v>3452</v>
       </c>
     </row>
     <row customFormat="1" r="66" s="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="B66">
         <v>136603062</v>
       </c>
-      <c r="C66" s="138">
+      <c r="C66" s="137">
         <v>158750241</v>
       </c>
     </row>
     <row customFormat="1" r="67" s="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="B67">
         <v>212724813</v>
       </c>
-      <c r="C67" s="138">
+      <c r="C67" s="137">
         <v>533791104</v>
       </c>
     </row>
     <row customFormat="1" r="68" s="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="B68">
         <v>5400000</v>
       </c>
-      <c r="C68" s="138">
+      <c r="C68" s="137">
         <v>13547000</v>
       </c>
     </row>
     <row customFormat="1" r="69" s="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="B69">
         <v>95075184.390000001</v>
       </c>
-      <c r="C69" s="138">
+      <c r="C69" s="137">
         <v>238387887.74000001</v>
       </c>
     </row>
     <row customFormat="1" r="70" s="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="B70">
         <v>307799997.38999999</v>
       </c>
-      <c r="C70" s="138">
+      <c r="C70" s="137">
         <v>772178991.74000001</v>
       </c>
     </row>
     <row customFormat="1" ht="15.75" r="71" s="41" spans="1:21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="156" t="s">
-        <v>3459</v>
-      </c>
-      <c r="B71" s="157">
+      <c r="A71" s="155" t="s">
+        <v>3458</v>
+      </c>
+      <c r="B71" s="156">
         <v>15.651882649999999</v>
       </c>
-      <c r="C71" s="158">
+      <c r="C71" s="157">
         <v>15.67253681</v>
       </c>
     </row>
     <row ht="15.75" r="72" spans="1:21" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="116" t="s">
-        <v>3584</v>
-      </c>
-      <c r="B72" s="145">
+      <c r="A72" s="115" t="s">
+        <v>3582</v>
+      </c>
+      <c r="B72" s="144">
         <f>B62*100/B55</f>
         <v>17.999500998003992</v>
       </c>
-      <c r="C72" s="145">
+      <c r="C72" s="144">
         <f>C62*100/C55</f>
         <v>59.997500000000002</v>
       </c>
     </row>
-    <row customFormat="1" r="73" s="138" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A73" s="116" t="s">
-        <v>3585</v>
-      </c>
-      <c r="B73" s="138">
+    <row customFormat="1" r="73" s="137" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73" s="115" t="s">
+        <v>3583</v>
+      </c>
+      <c r="B73" s="137">
         <f>IF(B37= "OTR-DP",(B55-B61),IF(B37="OTR-DP + Ins Cptlz + Fee Cptlz(Excl. Provision)",(B55-B61+B60+(B59-B41))))</f>
         <v>853004500</v>
       </c>
-      <c r="C73" s="138">
+      <c r="C73" s="137">
         <f ref="C73:T73" si="0" t="shared">IF(C37= "OTR-DP",(C55-C61),IF(C37="OTR-DP + Ins Cptlz + Fee Cptlz(Excl. Provision)",(C55-C61+C60+(C59-C41))))</f>
         <v>240000000</v>
       </c>
-      <c r="D73" s="138" t="b">
+      <c r="D73" s="137" t="b">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
-      <c r="E73" s="138" t="b">
+      <c r="E73" s="137" t="b">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
-      <c r="F73" s="138" t="b">
+      <c r="F73" s="137" t="b">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
-      <c r="G73" s="138" t="b">
+      <c r="G73" s="137" t="b">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
-      <c r="H73" s="138" t="b">
+      <c r="H73" s="137" t="b">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
-      <c r="I73" s="138" t="b">
+      <c r="I73" s="137" t="b">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
-      <c r="J73" s="138" t="b">
+      <c r="J73" s="137" t="b">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
-      <c r="K73" s="138" t="b">
+      <c r="K73" s="137" t="b">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
-      <c r="L73" s="138" t="b">
+      <c r="L73" s="137" t="b">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
-      <c r="M73" s="138" t="b">
+      <c r="M73" s="137" t="b">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
-      <c r="N73" s="138" t="b">
+      <c r="N73" s="137" t="b">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
-      <c r="O73" s="138" t="b">
+      <c r="O73" s="137" t="b">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
-      <c r="P73" s="138" t="b">
+      <c r="P73" s="137" t="b">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
-      <c r="Q73" s="138" t="b">
+      <c r="Q73" s="137" t="b">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
-      <c r="R73" s="138" t="b">
+      <c r="R73" s="137" t="b">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
-      <c r="S73" s="138" t="b">
+      <c r="S73" s="137" t="b">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
-      <c r="T73" s="138" t="b">
+      <c r="T73" s="137" t="b">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
-      <c r="U73" s="138" t="b">
+      <c r="U73" s="137" t="b">
         <f>IF(U37= "OTR-DP",(U55-U61),IF(U37="OTR-DP + Ins Cptlz + Fee Cptlz(Excl. Provision)",(U55-U61+U60+(U59-U41))))</f>
         <v>0</v>
       </c>
@@ -34780,7 +35384,7 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>3037</v>
@@ -34803,13 +35407,13 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
       <c r="C3" s="15"/>
     </row>
     <row customFormat="1" r="4" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="B4" s="18">
         <f>IF(NOT(ISBLANK(B12)),COUNTIFS($A13:$A13,"*$*",B13:B13,""),0)</f>
@@ -34847,13 +35451,13 @@
     </row>
     <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="C9" s="15"/>
     </row>
     <row customFormat="1" r="10" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="B10" s="18" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -34864,10 +35468,10 @@
         <v>No</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="104"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="104"/>
+    <row customFormat="1" r="11" s="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="103"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="103"/>
     </row>
     <row customFormat="1" r="12" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -34878,7 +35482,7 @@
     </row>
     <row customFormat="1" r="13" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="65" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="B13" s="79"/>
       <c r="C13" s="79"/>
@@ -34888,10 +35492,10 @@
         <v>2412</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
     </row>
     <row customFormat="1" r="15" s="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -34913,7 +35517,7 @@
         <v>2415</v>
       </c>
       <c r="B17" s="78" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
       <c r="C17" s="78"/>
     </row>
@@ -34928,10 +35532,10 @@
       <c r="C19" s="16"/>
     </row>
     <row customFormat="1" customHeight="1" ht="101.25" r="20" s="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="195" t="s">
+      <c r="A20" s="196" t="s">
         <v>2439</v>
       </c>
-      <c r="B20" s="195"/>
+      <c r="B20" s="196"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -34998,7 +35602,7 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>3037</v>
@@ -35021,12 +35625,12 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="B4" s="18">
         <f>COUNTIFS($A13:$A14,"*$*",B13:B14,"")</f>
@@ -35043,12 +35647,12 @@
     <row customFormat="1" r="8" s="18" spans="1:7" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
     </row>
     <row customFormat="1" r="10" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="B10" s="18" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -35059,7 +35663,7 @@
         <v>No</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="100" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="11" s="99" spans="1:7" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="12" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
         <v>6</v>
@@ -35075,13 +35679,13 @@
     </row>
     <row customFormat="1" ht="60" r="13" s="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="66" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>169</v>
@@ -35092,19 +35696,19 @@
     </row>
     <row customFormat="1" r="14" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>170</v>
       </c>
       <c r="C14" s="18" t="s">
+        <v>3200</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>3201</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>3202</v>
-      </c>
       <c r="E14" s="18" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
     </row>
     <row customFormat="1" r="15" s="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -35132,13 +35736,13 @@
         <v>174</v>
       </c>
       <c r="C16" s="18" t="s">
+        <v>3202</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>3203</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>3204</v>
-      </c>
       <c r="E16" s="18" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
     </row>
     <row customFormat="1" r="17" s="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -35202,7 +35806,7 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="B2" t="s">
         <v>3037</v>
@@ -35225,12 +35829,12 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="B4" s="18">
         <f>COUNTIFS($A14:$A52,"*$*",B14:B52,"")</f>
@@ -35259,22 +35863,22 @@
     </row>
     <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
     </row>
     <row customFormat="1" r="10" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>3426</v>
-      </c>
-    </row>
-    <row customFormat="1" r="11" s="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="101"/>
+        <v>3425</v>
+      </c>
+    </row>
+    <row customFormat="1" r="11" s="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="100"/>
     </row>
     <row customFormat="1" r="12" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
@@ -35293,27 +35897,27 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" r="13" s="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="196" t="s">
+    <row customFormat="1" r="13" s="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="197" t="s">
         <v>2430</v>
       </c>
-      <c r="B13" s="197"/>
-      <c r="C13" s="197"/>
-      <c r="D13" s="197"/>
-      <c r="E13" s="198"/>
+      <c r="B13" s="198"/>
+      <c r="C13" s="198"/>
+      <c r="D13" s="198"/>
+      <c r="E13" s="199"/>
     </row>
     <row customFormat="1" r="14" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>2431</v>
       </c>
-      <c r="B14" s="163"/>
+      <c r="B14" s="162"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
     </row>
     <row customFormat="1" r="15" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="B15" s="14">
         <v>1</v>
@@ -35498,21 +36102,21 @@
         <v>1</v>
       </c>
     </row>
-    <row customFormat="1" r="26" s="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="196" t="s">
+    <row customFormat="1" r="26" s="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="197" t="s">
         <v>2434</v>
       </c>
-      <c r="B26" s="197"/>
-      <c r="C26" s="197"/>
-      <c r="D26" s="197"/>
-      <c r="E26" s="198"/>
+      <c r="B26" s="198"/>
+      <c r="C26" s="198"/>
+      <c r="D26" s="198"/>
+      <c r="E26" s="199"/>
     </row>
     <row customFormat="1" r="27" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>2435</v>
       </c>
-      <c r="B27" s="164" t="s">
-        <v>3605</v>
+      <c r="B27" s="163" t="s">
+        <v>3602</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -35523,7 +36127,7 @@
         <v>2436</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>3606</v>
+        <v>3603</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -35531,19 +36135,19 @@
     </row>
     <row customFormat="1" r="29" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="58" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>3603</v>
+        <v>3600</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="D29" s="14" t="s">
+        <v>3206</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>3207</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>3208</v>
       </c>
     </row>
     <row customFormat="1" ht="45" r="30" s="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -35551,16 +36155,16 @@
         <v>133</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="C30" s="26" t="s">
+        <v>3208</v>
+      </c>
+      <c r="D30" s="26" t="s">
         <v>3209</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="E30" s="26" t="s">
         <v>3210</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>3211</v>
       </c>
     </row>
     <row customFormat="1" ht="30" r="31" s="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -35568,16 +36172,16 @@
         <v>2425</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>3603</v>
+        <v>3600</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="D31" s="14" t="s">
+        <v>3211</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>3212</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>3213</v>
       </c>
     </row>
     <row customFormat="1" ht="45" r="32" s="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -35585,16 +36189,16 @@
         <v>2432</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="C32" s="26" t="s">
+        <v>3208</v>
+      </c>
+      <c r="D32" s="26" t="s">
         <v>3209</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="E32" s="26" t="s">
         <v>3210</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>3211</v>
       </c>
     </row>
     <row customFormat="1" r="33" s="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -35602,16 +36206,16 @@
         <v>2433</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>3603</v>
+        <v>3600</v>
       </c>
       <c r="C33" s="14" t="s">
+        <v>3213</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>3214</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="E33" s="14" t="s">
         <v>3215</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>3216</v>
       </c>
     </row>
     <row customFormat="1" ht="45" r="34" s="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -35619,16 +36223,16 @@
         <v>2426</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="C34" s="26" t="s">
+        <v>3208</v>
+      </c>
+      <c r="D34" s="26" t="s">
         <v>3209</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="E34" s="26" t="s">
         <v>3210</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>3211</v>
       </c>
     </row>
     <row customFormat="1" r="35" s="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -35636,16 +36240,16 @@
         <v>2416</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>3603</v>
+        <v>3600</v>
       </c>
       <c r="C35" s="14" t="s">
+        <v>3216</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>3217</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="E35" s="14" t="s">
         <v>3218</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>3219</v>
       </c>
     </row>
     <row customFormat="1" ht="45" r="36" s="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -35653,16 +36257,16 @@
         <v>2417</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="C36" s="26" t="s">
+        <v>3208</v>
+      </c>
+      <c r="D36" s="26" t="s">
         <v>3209</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="E36" s="26" t="s">
         <v>3210</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>3211</v>
       </c>
     </row>
     <row customFormat="1" r="37" s="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -35670,16 +36274,16 @@
         <v>2418</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>3603</v>
+        <v>3600</v>
       </c>
       <c r="C37" s="14" t="s">
+        <v>3219</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>3220</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="E37" s="14" t="s">
         <v>3221</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>3222</v>
       </c>
     </row>
     <row customFormat="1" r="38" s="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -35704,16 +36308,16 @@
         <v>2420</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>3603</v>
+        <v>3600</v>
       </c>
       <c r="C39" s="14" t="s">
+        <v>3222</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>3223</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="E39" s="14" t="s">
         <v>3224</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>3225</v>
       </c>
     </row>
     <row customFormat="1" r="40" s="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -35738,23 +36342,23 @@
         <v>2422</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>3604</v>
+        <v>3601</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>3063</v>
       </c>
       <c r="D41" s="14" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E41" s="14" t="s">
         <v>3226</v>
       </c>
-      <c r="E41" s="14" t="s">
-        <v>3227</v>
-      </c>
-    </row>
-    <row customFormat="1" r="42" s="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="196" t="s">
+    </row>
+    <row customFormat="1" r="42" s="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="197" t="s">
         <v>2423</v>
       </c>
-      <c r="B42" s="197"/>
+      <c r="B42" s="198"/>
     </row>
     <row customFormat="1" r="43" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
@@ -35767,19 +36371,19 @@
     </row>
     <row customFormat="1" r="44" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="58" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="D44" s="14" t="s">
+        <v>3227</v>
+      </c>
+      <c r="E44" s="14" t="s">
         <v>3228</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>3229</v>
       </c>
     </row>
     <row customFormat="1" ht="30" r="45" s="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -35788,7 +36392,7 @@
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="14" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
@@ -35798,16 +36402,16 @@
         <v>2425</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="C46" s="14" t="s">
+        <v>3229</v>
+      </c>
+      <c r="D46" s="14" t="s">
         <v>3230</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="E46" s="14" t="s">
         <v>3231</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>3232</v>
       </c>
     </row>
     <row customFormat="1" ht="30" r="47" s="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -35816,7 +36420,7 @@
       </c>
       <c r="B47" s="14"/>
       <c r="C47" s="14" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
@@ -35826,16 +36430,16 @@
         <v>2416</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="C48" s="14" t="s">
+        <v>3232</v>
+      </c>
+      <c r="D48" s="14" t="s">
         <v>3233</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="E48" s="14" t="s">
         <v>3234</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>3235</v>
       </c>
     </row>
     <row customFormat="1" ht="30" r="49" s="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -35844,7 +36448,7 @@
       </c>
       <c r="B49" s="14"/>
       <c r="C49" s="14" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
@@ -35854,16 +36458,16 @@
         <v>2418</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>3170</v>
+        <v>3169</v>
       </c>
       <c r="C50" s="14" t="s">
+        <v>3235</v>
+      </c>
+      <c r="D50" s="14" t="s">
         <v>3236</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="E50" s="14" t="s">
         <v>3237</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>3238</v>
       </c>
     </row>
     <row customFormat="1" ht="30" r="51" s="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -35872,7 +36476,7 @@
       </c>
       <c r="B51" s="14"/>
       <c r="C51" s="14" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
@@ -35882,81 +36486,81 @@
         <v>2420</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="C52" s="14" t="s">
+        <v>3238</v>
+      </c>
+      <c r="D52" s="14" t="s">
         <v>3239</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="E52" s="14" t="s">
         <v>3240</v>
       </c>
-      <c r="E52" s="14" t="s">
-        <v>3241</v>
-      </c>
-    </row>
-    <row customFormat="1" r="53" s="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="199" t="s">
-        <v>3473</v>
-      </c>
-    </row>
-    <row customFormat="1" r="54" s="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="122" t="s">
-        <v>3477</v>
+    </row>
+    <row customFormat="1" r="53" s="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="200" t="s">
+        <v>3472</v>
+      </c>
+    </row>
+    <row customFormat="1" r="54" s="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="121" t="s">
+        <v>3476</v>
       </c>
       <c r="B54" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="138" t="s">
-        <v>3483</v>
+      <c r="C54" s="137" t="s">
+        <v>3482</v>
       </c>
     </row>
     <row customFormat="1" ht="45" r="55" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>3474</v>
-      </c>
-      <c r="B55" s="124"/>
-      <c r="C55" s="124" t="s">
-        <v>3478</v>
+        <v>3473</v>
+      </c>
+      <c r="B55" s="123"/>
+      <c r="C55" s="123" t="s">
+        <v>3477</v>
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
     </row>
     <row customFormat="1" ht="30" r="56" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>3475</v>
-      </c>
-      <c r="B56" s="124"/>
-      <c r="C56" s="124" t="s">
-        <v>3479</v>
+        <v>3474</v>
+      </c>
+      <c r="B56" s="123"/>
+      <c r="C56" s="123" t="s">
+        <v>3478</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
     </row>
     <row customFormat="1" r="57" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>3476</v>
-      </c>
-      <c r="B57" s="124"/>
-      <c r="C57" s="124" t="s">
-        <v>3480</v>
+        <v>3475</v>
+      </c>
+      <c r="B57" s="123"/>
+      <c r="C57" s="123" t="s">
+        <v>3479</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
     </row>
     <row customFormat="1" r="58" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>3484</v>
+        <v>3483</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
     </row>
     <row customFormat="1" r="59" s="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="121"/>
-      <c r="B59" s="109"/>
-      <c r="C59" s="155"/>
-      <c r="D59" s="109"/>
-      <c r="E59" s="109"/>
+      <c r="A59" s="120"/>
+      <c r="B59" s="108"/>
+      <c r="C59" s="154"/>
+      <c r="D59" s="108"/>
+      <c r="E59" s="108"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="39"/>
@@ -35967,10 +36571,10 @@
       <c r="B61" s="19"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="200" t="s">
+      <c r="A62" s="201" t="s">
         <v>2427</v>
       </c>
-      <c r="B62" s="201"/>
+      <c r="B62" s="202"/>
     </row>
     <row ht="210" r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="24" t="s">
@@ -36088,7 +36692,7 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="B2" t="s">
         <v>3037</v>
@@ -36111,12 +36715,12 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="B4" s="18">
         <f>COUNTIFS($A:$A,"*$*",B:B,"")</f>
@@ -36145,29 +36749,29 @@
     </row>
     <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
     </row>
     <row customFormat="1" r="10" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>3426</v>
-      </c>
-    </row>
-    <row customFormat="1" r="11" s="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="110" t="s">
-        <v>3407</v>
-      </c>
-      <c r="B11" s="101"/>
+        <v>3425</v>
+      </c>
+    </row>
+    <row customFormat="1" r="11" s="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="109" t="s">
+        <v>3406</v>
+      </c>
+      <c r="B11" s="100"/>
     </row>
     <row customFormat="1" ht="15.75" r="12" s="41" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="67" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="B12" s="40">
         <v>1000000</v>
@@ -36184,7 +36788,7 @@
     </row>
     <row customFormat="1" ht="16.5" r="13" s="43" spans="1:7" thickBot="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="68" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -36201,7 +36805,7 @@
     </row>
     <row customFormat="1" ht="16.5" r="14" s="43" spans="1:7" thickBot="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A14" s="68" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -36218,7 +36822,7 @@
     </row>
     <row customFormat="1" ht="16.5" r="15" s="43" spans="1:7" thickBot="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="68" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="B15" s="42">
         <v>2010</v>
@@ -36235,7 +36839,7 @@
     </row>
     <row customFormat="1" ht="16.5" r="16" s="43" spans="1:7" thickBot="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A16" s="68" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="B16" s="42">
         <v>4010</v>
@@ -36252,7 +36856,7 @@
     </row>
     <row customFormat="1" ht="16.5" r="17" s="43" spans="1:5" thickBot="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="68" t="s">
-        <v>3607</v>
+        <v>3604</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -36269,7 +36873,7 @@
     </row>
     <row customFormat="1" ht="16.5" r="18" s="43" spans="1:5" thickBot="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" s="68" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
       <c r="B18" s="42">
         <v>0</v>
@@ -36285,86 +36889,86 @@
       </c>
     </row>
     <row ht="15.75" r="19" spans="1:5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="114" t="s">
-        <v>3433</v>
-      </c>
-      <c r="B19" s="115">
+      <c r="A19" s="113" t="s">
+        <v>3432</v>
+      </c>
+      <c r="B19" s="114">
         <f>B12+B13+B14+B15+B16</f>
         <v>1006020</v>
       </c>
-      <c r="C19" s="115">
+      <c r="C19" s="114">
         <f>C12+C13+C14+C15+C16</f>
         <v>1000020</v>
       </c>
     </row>
-    <row customFormat="1" r="20" s="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="199" t="s">
-        <v>3473</v>
-      </c>
-    </row>
-    <row customFormat="1" r="21" s="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="122" t="s">
-        <v>3477</v>
-      </c>
-      <c r="B21" s="122" t="s">
+    <row customFormat="1" r="20" s="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="200" t="s">
+        <v>3472</v>
+      </c>
+    </row>
+    <row customFormat="1" r="21" s="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="121" t="s">
+        <v>3476</v>
+      </c>
+      <c r="B21" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="122" t="s">
-        <v>3483</v>
+      <c r="C21" s="121" t="s">
+        <v>3482</v>
       </c>
     </row>
     <row customFormat="1" ht="45" r="22" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>3474</v>
-      </c>
-      <c r="B22" s="124"/>
-      <c r="C22" s="124" t="s">
-        <v>3478</v>
+        <v>3473</v>
+      </c>
+      <c r="B22" s="123"/>
+      <c r="C22" s="123" t="s">
+        <v>3477</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
     </row>
     <row customFormat="1" ht="30" r="23" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>3475</v>
-      </c>
-      <c r="B23" s="124"/>
-      <c r="C23" s="124" t="s">
-        <v>3481</v>
+        <v>3474</v>
+      </c>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123" t="s">
+        <v>3480</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
     </row>
     <row customFormat="1" r="24" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>3476</v>
-      </c>
-      <c r="B24" s="124"/>
-      <c r="C24" s="124" t="s">
-        <v>3482</v>
+        <v>3475</v>
+      </c>
+      <c r="B24" s="123"/>
+      <c r="C24" s="123" t="s">
+        <v>3481</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
     </row>
     <row customFormat="1" r="25" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>3484</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>3485</v>
-      </c>
     </row>
     <row ht="120" r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="125" t="s">
-        <v>3401</v>
-      </c>
-      <c r="B26" s="126" t="s">
-        <v>3408</v>
+      <c r="A26" s="124" t="s">
+        <v>3400</v>
+      </c>
+      <c r="B26" s="125" t="s">
+        <v>3407</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="109"/>
-      <c r="B27" s="109"/>
+      <c r="A27" s="108"/>
+      <c r="B27" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -36425,7 +37029,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>7</v>
@@ -36439,23 +37043,23 @@
       <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="120" t="s">
+      <c r="G1" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
     </row>
     <row customFormat="1" r="2" s="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3192</v>
-      </c>
-      <c r="B2" s="116" t="s">
+        <v>3191</v>
+      </c>
+      <c r="B2" s="115" t="s">
         <v>3037</v>
       </c>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="115" t="s">
         <v>3037</v>
       </c>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="115" t="s">
         <v>3037</v>
       </c>
       <c r="E2" s="18" t="s">
@@ -36470,13 +37074,13 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
       <c r="M3"/>
     </row>
     <row customFormat="1" r="4" s="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="B4" s="14">
         <f>IF(AND(B14="Input Data",B10="No"),COUNTIFS($A19:$A31,"*$*",B19:B31,"")+COUNTIFS($A33:$A36,"*$*",B33:B36,"")+COUNTIFS($A38:$A45,"*$*",B38:B45,"")+COUNTIFS($A12,"*$*",B12,""),IF(AND(B14="LookUp",B10="No"),COUNTIFS($A16:$A18,"*$*",B16:B18,"")+COUNTIFS($A25,"*$*",B25,"")+COUNTIFS($A33:$A36,"*$*",B33:B36,"")+COUNTIFS($A12,"*$*",B12,""),IF(B10="YES",COUNTIFS($A9,"*$*",B9,""),IF(AND(B14="Input Data",B10="Edit"),COUNTIFS($A19:$A31,"*$*",B19:B31,"")+COUNTIFS($A33:$A36,"*$*",B33:B36,"")+COUNTIFS($A38:$A45,"*$*",B38:B45,"")+COUNTIFS($A9,"*$*",B9,""),IF(AND(B14="LookUp",B10="Edit"),COUNTIFS($A16:$A18,"*$*",B16:B18,"")+COUNTIFS($A25,"*$*",B25,"")+COUNTIFS($A33:$A36,"*$*",B33:B36,"")+COUNTIFS($A9,"*$*",B9,""))))))</f>
@@ -36494,25 +37098,25 @@
     <row customFormat="1" r="6" s="18" spans="1:13" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="7" s="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
     </row>
     <row customFormat="1" r="8" s="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="B8" s="14"/>
     </row>
     <row customFormat="1" r="9" s="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>3411</v>
-      </c>
-      <c r="B9" s="111"/>
-      <c r="C9" s="111"/>
+        <v>3410</v>
+      </c>
+      <c r="B9" s="110"/>
+      <c r="C9" s="110"/>
     </row>
     <row customFormat="1" r="10" s="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>37</v>
@@ -36524,18 +37128,18 @@
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
     </row>
-    <row customFormat="1" r="11" s="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="101"/>
+    <row customFormat="1" r="11" s="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="100"/>
     </row>
     <row customFormat="1" r="12" s="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>3663</v>
+        <v>3650</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>3663</v>
+        <v>3650</v>
       </c>
     </row>
     <row customFormat="1" r="13" s="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -36543,10 +37147,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>3674</v>
+        <v>3670</v>
       </c>
       <c r="C13" t="s">
-        <v>3611</v>
+        <v>3667</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -36563,26 +37167,26 @@
         <v>2403</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>2404</v>
       </c>
     </row>
-    <row customFormat="1" r="15" s="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="129" t="s">
+    <row customFormat="1" r="15" s="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="128" t="s">
         <v>2998</v>
       </c>
     </row>
     <row customFormat="1" r="16" s="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -36590,7 +37194,7 @@
     </row>
     <row customFormat="1" r="17" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="58" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>5</v>
@@ -36601,13 +37205,13 @@
     </row>
     <row customFormat="1" r="18" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="58" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -36615,18 +37219,18 @@
     </row>
     <row customFormat="1" r="19" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="58" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>3589</v>
+        <v>3586</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>3589</v>
+        <v>3586</v>
       </c>
     </row>
     <row customFormat="1" r="20" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="58" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>13</v>
@@ -36640,7 +37244,7 @@
     </row>
     <row customFormat="1" r="21" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="58" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>14</v>
@@ -36661,7 +37265,7 @@
     </row>
     <row customFormat="1" r="23" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="58" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>16</v>
@@ -36672,13 +37276,13 @@
     </row>
     <row customFormat="1" r="24" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="58" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3590</v>
+        <v>3587</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>3590</v>
+        <v>3587</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -36686,7 +37290,7 @@
     </row>
     <row customFormat="1" r="25" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
-        <v>3260</v>
+        <v>3259</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>205</v>
@@ -36697,7 +37301,7 @@
     </row>
     <row customFormat="1" r="26" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="58" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>20</v>
@@ -36708,13 +37312,13 @@
     </row>
     <row customFormat="1" r="27" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="58" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="B27" s="71" t="s">
-        <v>3591</v>
+        <v>3588</v>
       </c>
       <c r="C27" s="71" t="s">
-        <v>3591</v>
+        <v>3588</v>
       </c>
       <c r="D27" s="71"/>
       <c r="E27" s="71"/>
@@ -36722,13 +37326,13 @@
     </row>
     <row customFormat="1" r="28" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="58" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>3592</v>
+        <v>3589</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>3592</v>
+        <v>3589</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -36741,31 +37345,31 @@
     </row>
     <row customFormat="1" r="30" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="58" t="s">
-        <v>3264</v>
+        <v>3263</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>3593</v>
+        <v>3590</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>3593</v>
+        <v>3590</v>
       </c>
     </row>
     <row customFormat="1" r="31" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="58" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
       <c r="B31" s="80" t="s">
-        <v>3594</v>
+        <v>3591</v>
       </c>
       <c r="C31" s="80" t="s">
-        <v>3594</v>
+        <v>3591</v>
       </c>
       <c r="D31" s="80"/>
       <c r="E31" s="80"/>
       <c r="F31" s="80"/>
     </row>
-    <row customFormat="1" r="32" s="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="129" t="s">
+    <row customFormat="1" r="32" s="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="128" t="s">
         <v>2999</v>
       </c>
     </row>
@@ -36784,7 +37388,7 @@
     </row>
     <row customFormat="1" r="34" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="57" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>33</v>
@@ -36811,31 +37415,31 @@
         <v>175</v>
       </c>
     </row>
-    <row customFormat="1" r="37" s="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="129" t="s">
+    <row customFormat="1" r="37" s="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="128" t="s">
         <v>3000</v>
       </c>
     </row>
     <row customFormat="1" r="38" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="58" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>3595</v>
+        <v>3592</v>
       </c>
     </row>
     <row customFormat="1" r="39" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="58" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>2443</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>3596</v>
+        <v>3593</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -36843,13 +37447,13 @@
     </row>
     <row customFormat="1" r="40" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="58" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>3544</v>
+        <v>3543</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>3597</v>
+        <v>3594</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -36857,7 +37461,7 @@
     </row>
     <row customFormat="1" r="41" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="58" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="B41" s="2">
         <v>11530</v>
@@ -36871,40 +37475,40 @@
     </row>
     <row customFormat="1" r="42" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="58" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>3598</v>
+        <v>3595</v>
       </c>
     </row>
     <row customFormat="1" r="43" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="58" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>3598</v>
+        <v>3595</v>
       </c>
     </row>
     <row customFormat="1" r="44" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="58" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>3599</v>
+        <v>3596</v>
       </c>
     </row>
     <row customFormat="1" r="45" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="58" t="s">
-        <v>3273</v>
+        <v>3272</v>
       </c>
       <c r="B45" s="18" t="s">
         <v>42</v>
@@ -36940,27 +37544,27 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A16:XFD18">
-    <cfRule dxfId="183" priority="6" type="expression">
+    <cfRule dxfId="197" priority="6" type="expression">
       <formula>A$14="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:XFD31 A38:XFD45 A26:A31 A19:A24 C26:F30 C19:XFD24">
-    <cfRule dxfId="182" priority="5" type="expression">
+    <cfRule dxfId="196" priority="5" type="expression">
       <formula>A$14="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22 C22:XFD22">
-    <cfRule dxfId="181" priority="4" type="expression">
+    <cfRule dxfId="195" priority="4" type="expression">
       <formula>OR(A$21="E-KTP",A$21="AKTA",A$21="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B30 B19:B24">
-    <cfRule dxfId="180" priority="2" type="expression">
+    <cfRule dxfId="194" priority="2" type="expression">
       <formula>B$14="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule dxfId="179" priority="1" type="expression">
+    <cfRule dxfId="193" priority="1" type="expression">
       <formula>OR(B$21="E-KTP",B$21="AKTA",B$21="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37116,7 +37720,7 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>3037</v>
@@ -37139,18 +37743,18 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
     </row>
     <row customFormat="1" ht="16.5" r="4" s="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>3275</v>
-      </c>
-      <c r="B4" s="105">
+        <v>3274</v>
+      </c>
+      <c r="B4" s="104">
         <f>COUNTIFS($A$12:$A$18, "*$*",B12:B18, "")</f>
         <v>0</v>
       </c>
-      <c r="C4" s="105">
+      <c r="C4" s="104">
         <f>COUNTIFS($A$12:$A$18, "*$*",C12:C18, "")</f>
         <v>0</v>
       </c>
@@ -37161,26 +37765,26 @@
     <row customFormat="1" r="8" s="18" spans="1:7" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
     </row>
     <row customFormat="1" r="10" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>3426</v>
-      </c>
-    </row>
-    <row customFormat="1" r="11" s="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="101"/>
+        <v>3425</v>
+      </c>
+    </row>
+    <row customFormat="1" r="11" s="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="100"/>
     </row>
     <row customFormat="1" r="12" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="B12" s="18" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
@@ -37193,24 +37797,24 @@
     </row>
     <row customFormat="1" r="13" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="B13" t="s">
-        <v>3601</v>
+        <v>3598</v>
       </c>
       <c r="C13" t="s">
-        <v>3601</v>
+        <v>3598</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
     </row>
     <row customFormat="1" r="14" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="56" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>87</v>
@@ -37227,24 +37831,24 @@
     </row>
     <row customFormat="1" r="15" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
       <c r="B15" t="s">
-        <v>3578</v>
+        <v>3577</v>
       </c>
       <c r="C15" t="s">
-        <v>3578</v>
+        <v>3577</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
     </row>
     <row customFormat="1" r="16" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="56" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>116</v>
@@ -37261,24 +37865,24 @@
     </row>
     <row customFormat="1" r="17" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="58" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="B17" t="s">
-        <v>3609</v>
+        <v>3606</v>
       </c>
       <c r="C17" t="s">
-        <v>3602</v>
+        <v>3599</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
     </row>
     <row customFormat="1" r="18" s="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>87</v>
@@ -37466,10 +38070,10 @@
         <v>2471</v>
       </c>
       <c r="AU1" s="29" t="s">
-        <v>3613</v>
+        <v>3609</v>
       </c>
       <c r="AV1" s="29" t="s">
-        <v>3614</v>
+        <v>3610</v>
       </c>
       <c r="AX1" s="29" t="s">
         <v>2947</v>
@@ -37580,7 +38184,7 @@
         <v>2442</v>
       </c>
       <c r="DP1" s="29" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="DQ1" s="29" t="s">
         <v>2442</v>
@@ -37660,10 +38264,10 @@
         <v>2472</v>
       </c>
       <c r="AU2" s="29" t="s">
-        <v>3615</v>
+        <v>3611</v>
       </c>
       <c r="AV2" s="29" t="s">
-        <v>3616</v>
+        <v>3612</v>
       </c>
       <c r="AX2" s="29" t="s">
         <v>235</v>
@@ -37852,10 +38456,10 @@
         <v>2473</v>
       </c>
       <c r="AU3" s="29" t="s">
-        <v>3617</v>
+        <v>3613</v>
       </c>
       <c r="AV3" s="29" t="s">
-        <v>3618</v>
+        <v>3614</v>
       </c>
       <c r="AX3" s="29" t="s">
         <v>274</v>
@@ -37873,7 +38477,7 @@
         <v>63</v>
       </c>
       <c r="BH3" s="29" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="BJ3" s="29" t="s">
         <v>213</v>
@@ -38040,10 +38644,10 @@
         <v>2474</v>
       </c>
       <c r="AU4" s="29" t="s">
-        <v>3619</v>
+        <v>3615</v>
       </c>
       <c r="AV4" s="29" t="s">
-        <v>3620</v>
+        <v>3616</v>
       </c>
       <c r="AX4" s="29" t="s">
         <v>211</v>
@@ -38195,10 +38799,10 @@
         <v>2475</v>
       </c>
       <c r="AU5" s="29" t="s">
-        <v>3621</v>
+        <v>3617</v>
       </c>
       <c r="AV5" s="29" t="s">
-        <v>3621</v>
+        <v>3617</v>
       </c>
       <c r="AX5" s="29" t="s">
         <v>301</v>
@@ -38338,10 +38942,10 @@
         <v>2476</v>
       </c>
       <c r="AU6" s="29" t="s">
-        <v>3622</v>
+        <v>3618</v>
       </c>
       <c r="AV6" s="29" t="s">
-        <v>3623</v>
+        <v>3619</v>
       </c>
       <c r="AX6" s="29" t="s">
         <v>289</v>
@@ -38469,10 +39073,10 @@
         <v>2477</v>
       </c>
       <c r="AU7" s="29" t="s">
-        <v>3622</v>
+        <v>3618</v>
       </c>
       <c r="AV7" s="29" t="s">
-        <v>3624</v>
+        <v>3620</v>
       </c>
       <c r="AX7" s="29" t="s">
         <v>314</v>
@@ -38523,10 +39127,10 @@
         <v>595</v>
       </c>
       <c r="DP7" s="29" t="s">
+        <v>3242</v>
+      </c>
+      <c r="DQ7" s="29" t="s">
         <v>3243</v>
-      </c>
-      <c r="DQ7" s="29" t="s">
-        <v>3244</v>
       </c>
     </row>
     <row r="8" spans="1:121" x14ac:dyDescent="0.25">
@@ -38668,7 +39272,7 @@
         <v>2406</v>
       </c>
       <c r="Z9" s="29" t="s">
-        <v>3416</v>
+        <v>3415</v>
       </c>
       <c r="AB9" s="29" t="s">
         <v>311</v>
@@ -39012,7 +39616,7 @@
         <v>2483</v>
       </c>
       <c r="AX13" s="29" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="BB13" s="29" t="s">
         <v>2954</v>
@@ -39086,7 +39690,7 @@
         <v>2484</v>
       </c>
       <c r="AX14" s="29" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="BB14" s="29" t="s">
         <v>2955</v>
@@ -39158,7 +39762,7 @@
         <v>2485</v>
       </c>
       <c r="AX15" s="29" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="BB15" s="29" t="s">
         <v>2956</v>
@@ -39223,7 +39827,7 @@
         <v>2486</v>
       </c>
       <c r="AX16" s="29" t="s">
-        <v>3160</v>
+        <v>3159</v>
       </c>
       <c r="BB16" s="29" t="s">
         <v>2957</v>
@@ -39929,7 +40533,7 @@
         <v>496</v>
       </c>
       <c r="AN30" s="29" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="AR30" s="29" t="s">
         <v>497</v>
@@ -39938,7 +40542,7 @@
         <v>2500</v>
       </c>
       <c r="CH30" s="29" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
       <c r="DG30" s="29" t="s">
         <v>892</v>
@@ -39979,10 +40583,10 @@
         <v>2501</v>
       </c>
       <c r="DG31" s="29" t="s">
+        <v>3246</v>
+      </c>
+      <c r="DH31" s="29" t="s">
         <v>3247</v>
-      </c>
-      <c r="DH31" s="29" t="s">
-        <v>3248</v>
       </c>
       <c r="DP31" s="29" t="s">
         <v>498</v>
@@ -40017,10 +40621,10 @@
         <v>2502</v>
       </c>
       <c r="DG32" s="29" t="s">
+        <v>3242</v>
+      </c>
+      <c r="DH32" s="29" t="s">
         <v>3243</v>
-      </c>
-      <c r="DH32" s="29" t="s">
-        <v>3244</v>
       </c>
       <c r="DP32" s="29" t="s">
         <v>424</v>
@@ -40055,10 +40659,10 @@
         <v>2503</v>
       </c>
       <c r="DG33" s="29" t="s">
+        <v>3244</v>
+      </c>
+      <c r="DH33" s="29" t="s">
         <v>3245</v>
-      </c>
-      <c r="DH33" s="29" t="s">
-        <v>3246</v>
       </c>
       <c r="DP33" s="29" t="s">
         <v>433</v>
@@ -40093,10 +40697,10 @@
         <v>2504</v>
       </c>
       <c r="DP34" s="29" t="s">
+        <v>3244</v>
+      </c>
+      <c r="DQ34" s="29" t="s">
         <v>3245</v>
-      </c>
-      <c r="DQ34" s="29" t="s">
-        <v>3246</v>
       </c>
     </row>
     <row r="35" spans="1:121" x14ac:dyDescent="0.25">
@@ -41748,10 +42352,10 @@
         <v>2562</v>
       </c>
       <c r="DP92" s="29" t="s">
+        <v>3246</v>
+      </c>
+      <c r="DQ92" s="29" t="s">
         <v>3247</v>
-      </c>
-      <c r="DQ92" s="29" t="s">
-        <v>3248</v>
       </c>
     </row>
     <row r="93" spans="1:121" x14ac:dyDescent="0.25">
@@ -48281,10 +48885,10 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CX61"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
       <selection activeCell="G20" sqref="G20"/>
-      <selection activeCell="B13" pane="topRight" sqref="B13"/>
+      <selection activeCell="B1" pane="topRight" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48300,28 +48904,28 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="132" t="s">
+      <c r="D1" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="132" t="s">
+      <c r="E1" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="132" t="s">
+      <c r="F1" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="132" t="s">
+      <c r="G1" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="128"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="127"/>
       <c r="M1" s="17" t="s">
         <v>7</v>
       </c>
@@ -48592,7 +49196,7 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>3037</v>
@@ -48616,12 +49220,12 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="B4" s="18">
         <f>IF(B13="Input Data",COUNTIFS($A18:$A21,"*$*",B18:B21,"")+COUNTIFS($A23:$A26,"*$*",B23:B26,"") + COUNTIFS($A29:$A31,"*$*",B29:B31,"") + COUNTIFS($A36:$A38,"*$*",B36:B38,"")+ COUNTIFS($A41:$A42,"*$*",B41:B42,"")+ IF(B46 = "No",COUNTIFS($A47:$A54,"*$*",B47:B54,""),0),IF(B13="LookUp",COUNTIFS($A15:$A18,"*$*",B15:B18,"") + COUNTIFS($A25,"*$*",B25,"") + COUNTIFS($A41:$A42,"*$*",B41:B42,"")))</f>
@@ -48638,12 +49242,12 @@
     <row customFormat="1" r="8" s="18" spans="1:101" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="9" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
     </row>
     <row customFormat="1" r="10" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="B10" s="33" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -48654,32 +49258,32 @@
         <v>No</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="103" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="101"/>
-      <c r="U11" s="101"/>
-      <c r="V11" s="101"/>
-      <c r="W11" s="101"/>
-      <c r="X11" s="101"/>
-      <c r="Y11" s="101"/>
-      <c r="Z11" s="101"/>
+    <row customFormat="1" r="11" s="102" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="100"/>
+      <c r="R11" s="100"/>
+      <c r="S11" s="100"/>
+      <c r="T11" s="100"/>
+      <c r="U11" s="100"/>
+      <c r="V11" s="100"/>
+      <c r="W11" s="100"/>
+      <c r="X11" s="100"/>
+      <c r="Y11" s="100"/>
+      <c r="Z11" s="100"/>
     </row>
     <row customFormat="1" r="12" s="51" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A12" s="73" t="s">
@@ -48699,7 +49303,7 @@
         <v>2403</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="C13" s="47" t="s">
         <v>2404</v>
@@ -48712,10 +49316,10 @@
     </row>
     <row customFormat="1" r="15" s="48" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A15" s="62" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="47"/>
@@ -48744,10 +49348,10 @@
     </row>
     <row customFormat="1" r="16" s="48" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A16" s="62" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="C16" s="49"/>
       <c r="D16" s="49"/>
@@ -48776,10 +49380,10 @@
     </row>
     <row customFormat="1" r="17" s="48" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A17" s="62" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="C17" s="50"/>
       <c r="D17" s="50"/>
@@ -48808,7 +49412,7 @@
     </row>
     <row customFormat="1" r="18" s="46" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A18" s="76" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="B18" s="46" t="s">
         <v>11</v>
@@ -48819,13 +49423,13 @@
     </row>
     <row customFormat="1" r="19" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A19" s="58" t="s">
-        <v>3277</v>
-      </c>
-      <c r="B19" s="138" t="s">
-        <v>3563</v>
+        <v>3276</v>
+      </c>
+      <c r="B19" s="137" t="s">
+        <v>3562</v>
       </c>
       <c r="C19" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -48838,13 +49442,13 @@
     </row>
     <row customFormat="1" r="20" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A20" s="58" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -48947,9 +49551,9 @@
     </row>
     <row customFormat="1" r="21" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A21" s="58" t="s">
-        <v>3257</v>
-      </c>
-      <c r="B21" s="138" t="s">
+        <v>3256</v>
+      </c>
+      <c r="B21" s="137" t="s">
         <v>14</v>
       </c>
       <c r="C21" t="s">
@@ -48996,7 +49600,7 @@
     </row>
     <row customFormat="1" r="23" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A23" s="58" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>16</v>
@@ -49007,13 +49611,13 @@
     </row>
     <row customFormat="1" r="24" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A24" s="58" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3489</v>
+        <v>3488</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>3489</v>
+        <v>3488</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -49116,7 +49720,7 @@
     </row>
     <row customFormat="1" r="25" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
-        <v>3260</v>
+        <v>3259</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>230</v>
@@ -49127,7 +49731,7 @@
     </row>
     <row customFormat="1" r="26" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A26" s="60" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
       <c r="B26" s="18" t="str">
         <f>IF(B$25="Employee",VLOOKUP(B27,Master!$A:$B,2,FALSE),IF(B$25="Professional",VLOOKUP(B27,Master!$DG:$DH,2,FALSE),IF(B$25="Non Professional",VLOOKUP(B27,Master!$DJ:$DK,2,FALSE),IF(B$25="Small Medium Enterprise",VLOOKUP(B27,Master!$DM:$DN,2,FALSE),VLOOKUP(B27,Master!$DP:$DQ,2,FALSE)))))</f>
@@ -49181,7 +49785,7 @@
     </row>
     <row customFormat="1" r="29" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A29" s="58" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>20</v>
@@ -49192,13 +49796,13 @@
     </row>
     <row customFormat="1" r="30" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A30" s="58" t="s">
-        <v>3279</v>
-      </c>
-      <c r="B30" s="138" t="s">
-        <v>3486</v>
+        <v>3278</v>
+      </c>
+      <c r="B30" s="137" t="s">
+        <v>3485</v>
       </c>
       <c r="C30" t="s">
-        <v>3486</v>
+        <v>3485</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
@@ -49301,13 +49905,13 @@
     </row>
     <row customFormat="1" r="31" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A31" s="58" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
@@ -49420,13 +50024,13 @@
     </row>
     <row customFormat="1" r="33" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A33" s="58" t="s">
-        <v>3264</v>
-      </c>
-      <c r="B33" s="138" t="s">
-        <v>3549</v>
+        <v>3263</v>
+      </c>
+      <c r="B33" s="137" t="s">
+        <v>3548</v>
       </c>
       <c r="C33" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
@@ -49439,13 +50043,13 @@
     </row>
     <row customFormat="1" r="34" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A34" s="58" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -49559,7 +50163,7 @@
     </row>
     <row customFormat="1" r="36" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A36" s="60" t="s">
-        <v>3280</v>
+        <v>3279</v>
       </c>
       <c r="B36" s="18" t="str">
         <f>VLOOKUP(B37,Master!$E:$F,2,FALSE)</f>
@@ -49572,7 +50176,7 @@
     </row>
     <row customFormat="1" r="37" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A37" s="58" t="s">
-        <v>3281</v>
+        <v>3280</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>868</v>
@@ -49605,114 +50209,114 @@
         <v>3077</v>
       </c>
     </row>
-    <row customFormat="1" r="40" s="134" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A40" s="130" t="s">
+    <row customFormat="1" r="40" s="133" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A40" s="129" t="s">
         <v>2999</v>
       </c>
-      <c r="B40" s="131"/>
-      <c r="C40" s="131"/>
-      <c r="D40" s="131"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="131"/>
-      <c r="G40" s="131"/>
-      <c r="H40" s="131"/>
-      <c r="I40" s="131"/>
-      <c r="J40" s="131"/>
-      <c r="K40" s="131"/>
-      <c r="L40" s="131"/>
-      <c r="M40" s="131"/>
-      <c r="N40" s="131"/>
-      <c r="O40" s="131"/>
-      <c r="P40" s="131"/>
-      <c r="Q40" s="131"/>
-      <c r="R40" s="131"/>
-      <c r="S40" s="131"/>
-      <c r="T40" s="131"/>
-      <c r="U40" s="131"/>
-      <c r="V40" s="131"/>
-      <c r="W40" s="131"/>
-      <c r="X40" s="131"/>
-      <c r="Y40" s="131"/>
-      <c r="Z40" s="131"/>
-      <c r="AA40" s="131"/>
-      <c r="AB40" s="131"/>
-      <c r="AC40" s="131"/>
-      <c r="AD40" s="131"/>
-      <c r="AE40" s="131"/>
-      <c r="AF40" s="131"/>
-      <c r="AG40" s="131"/>
-      <c r="AH40" s="131"/>
-      <c r="AI40" s="131"/>
-      <c r="AJ40" s="131"/>
-      <c r="AK40" s="131"/>
-      <c r="AL40" s="131"/>
-      <c r="AM40" s="131"/>
-      <c r="AN40" s="131"/>
-      <c r="AO40" s="131"/>
-      <c r="AP40" s="131"/>
-      <c r="AQ40" s="131"/>
-      <c r="AR40" s="131"/>
-      <c r="AS40" s="131"/>
-      <c r="AT40" s="131"/>
-      <c r="AU40" s="131"/>
-      <c r="AV40" s="131"/>
-      <c r="AW40" s="131"/>
-      <c r="AX40" s="131"/>
-      <c r="AY40" s="131"/>
-      <c r="AZ40" s="131"/>
-      <c r="BA40" s="131"/>
-      <c r="BB40" s="131"/>
-      <c r="BC40" s="131"/>
-      <c r="BD40" s="131"/>
-      <c r="BE40" s="131"/>
-      <c r="BF40" s="131"/>
-      <c r="BG40" s="131"/>
-      <c r="BH40" s="131"/>
-      <c r="BI40" s="131"/>
-      <c r="BJ40" s="131"/>
-      <c r="BK40" s="131"/>
-      <c r="BL40" s="131"/>
-      <c r="BM40" s="131"/>
-      <c r="BN40" s="131"/>
-      <c r="BO40" s="131"/>
-      <c r="BP40" s="131"/>
-      <c r="BQ40" s="131"/>
-      <c r="BR40" s="131"/>
-      <c r="BS40" s="131"/>
-      <c r="BT40" s="131"/>
-      <c r="BU40" s="131"/>
-      <c r="BV40" s="131"/>
-      <c r="BW40" s="131"/>
-      <c r="BX40" s="131"/>
-      <c r="BY40" s="131"/>
-      <c r="BZ40" s="131"/>
-      <c r="CA40" s="131"/>
-      <c r="CB40" s="131"/>
-      <c r="CC40" s="131"/>
-      <c r="CD40" s="131"/>
-      <c r="CE40" s="131"/>
-      <c r="CF40" s="131"/>
-      <c r="CG40" s="131"/>
-      <c r="CH40" s="131"/>
-      <c r="CI40" s="131"/>
-      <c r="CJ40" s="131"/>
-      <c r="CK40" s="131"/>
-      <c r="CL40" s="131"/>
-      <c r="CM40" s="131"/>
-      <c r="CN40" s="131"/>
-      <c r="CO40" s="131"/>
-      <c r="CP40" s="131"/>
-      <c r="CQ40" s="131"/>
-      <c r="CR40" s="131"/>
-      <c r="CS40" s="131"/>
-      <c r="CT40" s="131"/>
-      <c r="CU40" s="131"/>
-      <c r="CV40" s="131"/>
-      <c r="CW40" s="133"/>
+      <c r="B40" s="130"/>
+      <c r="C40" s="130"/>
+      <c r="D40" s="130"/>
+      <c r="E40" s="130"/>
+      <c r="F40" s="130"/>
+      <c r="G40" s="130"/>
+      <c r="H40" s="130"/>
+      <c r="I40" s="130"/>
+      <c r="J40" s="130"/>
+      <c r="K40" s="130"/>
+      <c r="L40" s="130"/>
+      <c r="M40" s="130"/>
+      <c r="N40" s="130"/>
+      <c r="O40" s="130"/>
+      <c r="P40" s="130"/>
+      <c r="Q40" s="130"/>
+      <c r="R40" s="130"/>
+      <c r="S40" s="130"/>
+      <c r="T40" s="130"/>
+      <c r="U40" s="130"/>
+      <c r="V40" s="130"/>
+      <c r="W40" s="130"/>
+      <c r="X40" s="130"/>
+      <c r="Y40" s="130"/>
+      <c r="Z40" s="130"/>
+      <c r="AA40" s="130"/>
+      <c r="AB40" s="130"/>
+      <c r="AC40" s="130"/>
+      <c r="AD40" s="130"/>
+      <c r="AE40" s="130"/>
+      <c r="AF40" s="130"/>
+      <c r="AG40" s="130"/>
+      <c r="AH40" s="130"/>
+      <c r="AI40" s="130"/>
+      <c r="AJ40" s="130"/>
+      <c r="AK40" s="130"/>
+      <c r="AL40" s="130"/>
+      <c r="AM40" s="130"/>
+      <c r="AN40" s="130"/>
+      <c r="AO40" s="130"/>
+      <c r="AP40" s="130"/>
+      <c r="AQ40" s="130"/>
+      <c r="AR40" s="130"/>
+      <c r="AS40" s="130"/>
+      <c r="AT40" s="130"/>
+      <c r="AU40" s="130"/>
+      <c r="AV40" s="130"/>
+      <c r="AW40" s="130"/>
+      <c r="AX40" s="130"/>
+      <c r="AY40" s="130"/>
+      <c r="AZ40" s="130"/>
+      <c r="BA40" s="130"/>
+      <c r="BB40" s="130"/>
+      <c r="BC40" s="130"/>
+      <c r="BD40" s="130"/>
+      <c r="BE40" s="130"/>
+      <c r="BF40" s="130"/>
+      <c r="BG40" s="130"/>
+      <c r="BH40" s="130"/>
+      <c r="BI40" s="130"/>
+      <c r="BJ40" s="130"/>
+      <c r="BK40" s="130"/>
+      <c r="BL40" s="130"/>
+      <c r="BM40" s="130"/>
+      <c r="BN40" s="130"/>
+      <c r="BO40" s="130"/>
+      <c r="BP40" s="130"/>
+      <c r="BQ40" s="130"/>
+      <c r="BR40" s="130"/>
+      <c r="BS40" s="130"/>
+      <c r="BT40" s="130"/>
+      <c r="BU40" s="130"/>
+      <c r="BV40" s="130"/>
+      <c r="BW40" s="130"/>
+      <c r="BX40" s="130"/>
+      <c r="BY40" s="130"/>
+      <c r="BZ40" s="130"/>
+      <c r="CA40" s="130"/>
+      <c r="CB40" s="130"/>
+      <c r="CC40" s="130"/>
+      <c r="CD40" s="130"/>
+      <c r="CE40" s="130"/>
+      <c r="CF40" s="130"/>
+      <c r="CG40" s="130"/>
+      <c r="CH40" s="130"/>
+      <c r="CI40" s="130"/>
+      <c r="CJ40" s="130"/>
+      <c r="CK40" s="130"/>
+      <c r="CL40" s="130"/>
+      <c r="CM40" s="130"/>
+      <c r="CN40" s="130"/>
+      <c r="CO40" s="130"/>
+      <c r="CP40" s="130"/>
+      <c r="CQ40" s="130"/>
+      <c r="CR40" s="130"/>
+      <c r="CS40" s="130"/>
+      <c r="CT40" s="130"/>
+      <c r="CU40" s="130"/>
+      <c r="CV40" s="130"/>
+      <c r="CW40" s="132"/>
     </row>
     <row customFormat="1" r="41" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A41" s="60" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
       <c r="B41" s="18" t="str">
         <f>VLOOKUP(B42,Master!$M:$N,2,FALSE)</f>
@@ -49725,7 +50329,7 @@
     </row>
     <row customFormat="1" r="42" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A42" s="57" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>33</v>
@@ -49758,110 +50362,110 @@
         <v>285</v>
       </c>
     </row>
-    <row customFormat="1" r="45" s="130" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A45" s="130" t="s">
+    <row customFormat="1" r="45" s="129" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A45" s="129" t="s">
         <v>3000</v>
       </c>
-      <c r="B45" s="131"/>
-      <c r="C45" s="131"/>
-      <c r="D45" s="131"/>
-      <c r="E45" s="131"/>
-      <c r="F45" s="131"/>
-      <c r="G45" s="131"/>
-      <c r="H45" s="131"/>
-      <c r="I45" s="131"/>
-      <c r="J45" s="131"/>
-      <c r="K45" s="131"/>
-      <c r="L45" s="131"/>
-      <c r="M45" s="131"/>
-      <c r="N45" s="131"/>
-      <c r="O45" s="131"/>
-      <c r="P45" s="131"/>
-      <c r="Q45" s="131"/>
-      <c r="R45" s="131"/>
-      <c r="S45" s="131"/>
-      <c r="T45" s="131"/>
-      <c r="U45" s="131"/>
-      <c r="V45" s="131"/>
-      <c r="W45" s="131"/>
-      <c r="X45" s="131"/>
-      <c r="Y45" s="131"/>
-      <c r="Z45" s="131"/>
-      <c r="AA45" s="131"/>
-      <c r="AB45" s="131"/>
-      <c r="AC45" s="131"/>
-      <c r="AD45" s="131"/>
-      <c r="AE45" s="131"/>
-      <c r="AF45" s="131"/>
-      <c r="AG45" s="131"/>
-      <c r="AH45" s="131"/>
-      <c r="AI45" s="131"/>
-      <c r="AJ45" s="131"/>
-      <c r="AK45" s="131"/>
-      <c r="AL45" s="131"/>
-      <c r="AM45" s="131"/>
-      <c r="AN45" s="131"/>
-      <c r="AO45" s="131"/>
-      <c r="AP45" s="131"/>
-      <c r="AQ45" s="131"/>
-      <c r="AR45" s="131"/>
-      <c r="AS45" s="131"/>
-      <c r="AT45" s="131"/>
-      <c r="AU45" s="131"/>
-      <c r="AV45" s="131"/>
-      <c r="AW45" s="131"/>
-      <c r="AX45" s="131"/>
-      <c r="AY45" s="131"/>
-      <c r="AZ45" s="131"/>
-      <c r="BA45" s="131"/>
-      <c r="BB45" s="131"/>
-      <c r="BC45" s="131"/>
-      <c r="BD45" s="131"/>
-      <c r="BE45" s="131"/>
-      <c r="BF45" s="131"/>
-      <c r="BG45" s="131"/>
-      <c r="BH45" s="131"/>
-      <c r="BI45" s="131"/>
-      <c r="BJ45" s="131"/>
-      <c r="BK45" s="131"/>
-      <c r="BL45" s="131"/>
-      <c r="BM45" s="131"/>
-      <c r="BN45" s="131"/>
-      <c r="BO45" s="131"/>
-      <c r="BP45" s="131"/>
-      <c r="BQ45" s="131"/>
-      <c r="BR45" s="131"/>
-      <c r="BS45" s="131"/>
-      <c r="BT45" s="131"/>
-      <c r="BU45" s="131"/>
-      <c r="BV45" s="131"/>
-      <c r="BW45" s="131"/>
-      <c r="BX45" s="131"/>
-      <c r="BY45" s="131"/>
-      <c r="BZ45" s="131"/>
-      <c r="CA45" s="131"/>
-      <c r="CB45" s="131"/>
-      <c r="CC45" s="131"/>
-      <c r="CD45" s="131"/>
-      <c r="CE45" s="131"/>
-      <c r="CF45" s="131"/>
-      <c r="CG45" s="131"/>
-      <c r="CH45" s="131"/>
-      <c r="CI45" s="131"/>
-      <c r="CJ45" s="131"/>
-      <c r="CK45" s="131"/>
-      <c r="CL45" s="131"/>
-      <c r="CM45" s="131"/>
-      <c r="CN45" s="131"/>
-      <c r="CO45" s="131"/>
-      <c r="CP45" s="131"/>
-      <c r="CQ45" s="131"/>
-      <c r="CR45" s="131"/>
-      <c r="CS45" s="131"/>
-      <c r="CT45" s="131"/>
-      <c r="CU45" s="131"/>
-      <c r="CV45" s="131"/>
-      <c r="CW45" s="131"/>
+      <c r="B45" s="130"/>
+      <c r="C45" s="130"/>
+      <c r="D45" s="130"/>
+      <c r="E45" s="130"/>
+      <c r="F45" s="130"/>
+      <c r="G45" s="130"/>
+      <c r="H45" s="130"/>
+      <c r="I45" s="130"/>
+      <c r="J45" s="130"/>
+      <c r="K45" s="130"/>
+      <c r="L45" s="130"/>
+      <c r="M45" s="130"/>
+      <c r="N45" s="130"/>
+      <c r="O45" s="130"/>
+      <c r="P45" s="130"/>
+      <c r="Q45" s="130"/>
+      <c r="R45" s="130"/>
+      <c r="S45" s="130"/>
+      <c r="T45" s="130"/>
+      <c r="U45" s="130"/>
+      <c r="V45" s="130"/>
+      <c r="W45" s="130"/>
+      <c r="X45" s="130"/>
+      <c r="Y45" s="130"/>
+      <c r="Z45" s="130"/>
+      <c r="AA45" s="130"/>
+      <c r="AB45" s="130"/>
+      <c r="AC45" s="130"/>
+      <c r="AD45" s="130"/>
+      <c r="AE45" s="130"/>
+      <c r="AF45" s="130"/>
+      <c r="AG45" s="130"/>
+      <c r="AH45" s="130"/>
+      <c r="AI45" s="130"/>
+      <c r="AJ45" s="130"/>
+      <c r="AK45" s="130"/>
+      <c r="AL45" s="130"/>
+      <c r="AM45" s="130"/>
+      <c r="AN45" s="130"/>
+      <c r="AO45" s="130"/>
+      <c r="AP45" s="130"/>
+      <c r="AQ45" s="130"/>
+      <c r="AR45" s="130"/>
+      <c r="AS45" s="130"/>
+      <c r="AT45" s="130"/>
+      <c r="AU45" s="130"/>
+      <c r="AV45" s="130"/>
+      <c r="AW45" s="130"/>
+      <c r="AX45" s="130"/>
+      <c r="AY45" s="130"/>
+      <c r="AZ45" s="130"/>
+      <c r="BA45" s="130"/>
+      <c r="BB45" s="130"/>
+      <c r="BC45" s="130"/>
+      <c r="BD45" s="130"/>
+      <c r="BE45" s="130"/>
+      <c r="BF45" s="130"/>
+      <c r="BG45" s="130"/>
+      <c r="BH45" s="130"/>
+      <c r="BI45" s="130"/>
+      <c r="BJ45" s="130"/>
+      <c r="BK45" s="130"/>
+      <c r="BL45" s="130"/>
+      <c r="BM45" s="130"/>
+      <c r="BN45" s="130"/>
+      <c r="BO45" s="130"/>
+      <c r="BP45" s="130"/>
+      <c r="BQ45" s="130"/>
+      <c r="BR45" s="130"/>
+      <c r="BS45" s="130"/>
+      <c r="BT45" s="130"/>
+      <c r="BU45" s="130"/>
+      <c r="BV45" s="130"/>
+      <c r="BW45" s="130"/>
+      <c r="BX45" s="130"/>
+      <c r="BY45" s="130"/>
+      <c r="BZ45" s="130"/>
+      <c r="CA45" s="130"/>
+      <c r="CB45" s="130"/>
+      <c r="CC45" s="130"/>
+      <c r="CD45" s="130"/>
+      <c r="CE45" s="130"/>
+      <c r="CF45" s="130"/>
+      <c r="CG45" s="130"/>
+      <c r="CH45" s="130"/>
+      <c r="CI45" s="130"/>
+      <c r="CJ45" s="130"/>
+      <c r="CK45" s="130"/>
+      <c r="CL45" s="130"/>
+      <c r="CM45" s="130"/>
+      <c r="CN45" s="130"/>
+      <c r="CO45" s="130"/>
+      <c r="CP45" s="130"/>
+      <c r="CQ45" s="130"/>
+      <c r="CR45" s="130"/>
+      <c r="CS45" s="130"/>
+      <c r="CT45" s="130"/>
+      <c r="CU45" s="130"/>
+      <c r="CV45" s="130"/>
+      <c r="CW45" s="130"/>
     </row>
     <row customFormat="1" r="46" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A46" s="56" t="s">
@@ -49876,19 +50480,19 @@
     </row>
     <row customFormat="1" r="47" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A47" s="58" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
     </row>
     <row customFormat="1" r="48" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A48" s="58" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>3544</v>
+        <v>3543</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -49991,11 +50595,11 @@
     </row>
     <row customFormat="1" r="49" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A49" s="58" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -50098,7 +50702,7 @@
     </row>
     <row customFormat="1" r="50" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A50" s="58" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
@@ -50205,7 +50809,7 @@
     </row>
     <row customFormat="1" r="51" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A51" s="58" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>39</v>
@@ -50213,7 +50817,7 @@
     </row>
     <row customFormat="1" r="52" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A52" s="58" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>39</v>
@@ -50221,7 +50825,7 @@
     </row>
     <row customFormat="1" r="53" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A53" s="58" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>2405</v>
@@ -50229,23 +50833,23 @@
     </row>
     <row customFormat="1" r="54" s="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A54" s="58" t="s">
-        <v>3285</v>
+        <v>3284</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>270</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="60" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A60" s="167" t="s">
+      <c r="A60" s="168" t="s">
         <v>95</v>
       </c>
-      <c r="B60" s="167" t="s">
-        <v>3135</v>
+      <c r="B60" s="168" t="s">
+        <v>3134</v>
       </c>
     </row>
     <row r="61" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A61" s="168"/>
-      <c r="B61" s="168"/>
+      <c r="A61" s="169"/>
+      <c r="B61" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -50253,62 +50857,62 @@
     <mergeCell ref="A60:A61"/>
   </mergeCells>
   <conditionalFormatting sqref="A15:XFD17">
-    <cfRule dxfId="178" priority="15" type="expression">
+    <cfRule dxfId="192" priority="15" type="expression">
       <formula>A$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:XFD34 A29:A34 A46:XFD54 A19:A24 G19:XFD19 C20:XFD24 C29:F30 C33:F34">
-    <cfRule dxfId="177" priority="14" type="expression">
+    <cfRule dxfId="191" priority="14" type="expression">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22 C22:XFD22">
-    <cfRule dxfId="176" priority="11" type="expression">
+    <cfRule dxfId="190" priority="11" type="expression">
       <formula>OR(A$21="E-KTP",A$21="AKTA",A$21="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:A37 C36:XFD37">
-    <cfRule dxfId="175" priority="10" type="expression">
+    <cfRule dxfId="189" priority="10" type="expression">
       <formula>AND(A$35&lt;&gt;"Foreigner",A$35&lt;&gt;"Nationality",A$35&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:XFD54">
-    <cfRule dxfId="174" priority="9" type="expression">
+    <cfRule dxfId="188" priority="9" type="expression">
       <formula>A$46="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:F32">
-    <cfRule dxfId="173" priority="8" type="expression">
+    <cfRule dxfId="187" priority="8" type="expression">
       <formula>C$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:F19">
-    <cfRule dxfId="172" priority="7" type="expression">
+    <cfRule dxfId="186" priority="7" type="expression">
       <formula>C$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B24 B29:B30 B33:B34">
-    <cfRule dxfId="171" priority="5" type="expression">
+    <cfRule dxfId="185" priority="5" type="expression">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule dxfId="170" priority="4" type="expression">
+    <cfRule dxfId="184" priority="4" type="expression">
       <formula>OR(B$21="E-KTP",B$21="AKTA",B$21="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:B37">
-    <cfRule dxfId="169" priority="3" type="expression">
+    <cfRule dxfId="183" priority="3" type="expression">
       <formula>AND(B$35&lt;&gt;"Foreigner",B$35&lt;&gt;"Nationality",B$35&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B32">
-    <cfRule dxfId="168" priority="2" type="expression">
+    <cfRule dxfId="182" priority="2" type="expression">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule dxfId="167" priority="1" type="expression">
+    <cfRule dxfId="181" priority="1" type="expression">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50452,7 +51056,7 @@
   <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C2"/>
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50467,7 +51071,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>7</v>
@@ -50487,7 +51091,7 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>3037</v>
@@ -50586,7 +51190,7 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="18" spans="1:26" x14ac:dyDescent="0.25"/>
@@ -50596,7 +51200,7 @@
     <row customFormat="1" r="8" s="18" spans="1:26" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="9" s="18" spans="1:26" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="10" s="18" spans="1:26" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="11" s="100" spans="1:26" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="11" s="99" spans="1:26" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="12" s="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
         <v>6</v>
@@ -50614,10 +51218,10 @@
       <c r="A14" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="169" t="s">
-        <v>3136</v>
-      </c>
-      <c r="C14" s="169"/>
+      <c r="B14" s="170" t="s">
+        <v>3135</v>
+      </c>
+      <c r="C14" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -50635,7 +51239,7 @@
     <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
       <selection activeCell="G20" sqref="G20"/>
-      <selection activeCell="B1" pane="topRight" sqref="B1:B2"/>
+      <selection activeCell="B12" pane="topRight" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50649,8 +51253,8 @@
       <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>7</v>
+      <c r="B1" t="s">
+        <v>3578</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -50670,7 +51274,7 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>3037</v>
@@ -50693,30 +51297,30 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
     </row>
     <row customFormat="1" ht="16.5" r="4" s="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>3275</v>
-      </c>
-      <c r="B4" s="105">
+        <v>3274</v>
+      </c>
+      <c r="B4" s="104">
         <f>IF(B13="Input Data",COUNTIFS($A18:$A21,"*$*",B18:B21,"")+COUNTIFS($A23:$A28,"*$*",B23:B28,"")+COUNTIFS($A30:$A31,"*$*",B30:B31,"")+COUNTIFS($A33:$A34,"*$*",B33:B34,"")+IF(B38 = "No",COUNTIFS($A39:$A46,"*$*",B39:B46,""),0),IF(B13="LookUp",COUNTIFS($A15:$A18,"*$*",B15:B18,"")+COUNTIFS($A25,"*$*",B25,"")+COUNTIFS($A33:$A34,"*$*",$A33:$A34,"")))</f>
         <v>0</v>
       </c>
-      <c r="C4" s="105">
+      <c r="C4" s="104">
         <f ref="C4:F4" si="0" t="shared">IF(C13="Input Data",COUNTIFS($A18:$A21,"*$*",C18:C21,"")+COUNTIFS($A23:$A28,"*$*",C23:C28,"")+COUNTIFS($A30:$A31,"*$*",C30:C31,"")+COUNTIFS($A33:$A34,"*$*",C33:C34,"")+IF(C38 = "No",COUNTIFS($A39:$A46,"*$*",C39:C46,""),0),IF(C13="LookUp",COUNTIFS($A15:$A18,"*$*",C15:C18,"")+COUNTIFS($A25,"*$*",C25,"")+COUNTIFS($A33:$A34,"*$*",$A33:$A34,"")))</f>
         <v>0</v>
       </c>
-      <c r="D4" s="105">
+      <c r="D4" s="104">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
-      <c r="E4" s="105">
+      <c r="E4" s="104">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
-      <c r="F4" s="105">
+      <c r="F4" s="104">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
@@ -50727,12 +51331,12 @@
     <row customFormat="1" r="8" s="18" spans="1:7" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
     </row>
     <row customFormat="1" r="10" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="B10" s="33" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -50743,18 +51347,18 @@
         <v>No</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
+    <row customFormat="1" r="11" s="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
     </row>
     <row customFormat="1" r="12" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="51">
-        <f>'1.TabCustomerMainData'!C13</f>
-        <v>0</v>
+      <c r="B12" s="51" t="str">
+        <f>'1.TabCustomerMainData'!B13</f>
+        <v>0002APP20211204379</v>
       </c>
       <c r="C12" s="51"/>
       <c r="D12" s="51"/>
@@ -50764,13 +51368,13 @@
         <v>2403</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>2404</v>
+        <v>3424</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>2404</v>
@@ -50779,32 +51383,36 @@
         <v>2404</v>
       </c>
     </row>
-    <row customFormat="1" r="14" s="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="170" t="s">
+    <row customFormat="1" r="14" s="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="171" t="s">
         <v>3003</v>
       </c>
     </row>
     <row customFormat="1" r="15" s="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
-        <v>3252</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>3251</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3558</v>
+      </c>
       <c r="C15" s="2" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
     </row>
     <row customFormat="1" r="16" s="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
-        <v>3253</v>
-      </c>
-      <c r="B16" s="18"/>
+        <v>3252</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>3556</v>
+      </c>
       <c r="C16" s="18" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>5</v>
@@ -50814,21 +51422,23 @@
     </row>
     <row customFormat="1" r="17" s="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="58" t="s">
-        <v>3254</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>3253</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>3557</v>
+      </c>
       <c r="C17" s="2" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
     </row>
     <row customFormat="1" r="18" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="B18" t="s">
         <v>183</v>
@@ -50848,27 +51458,27 @@
     </row>
     <row customFormat="1" r="19" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="58" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="B19" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
     </row>
     <row customFormat="1" r="20" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="58" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>13</v>
@@ -50885,7 +51495,7 @@
     </row>
     <row customFormat="1" r="21" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="58" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -50919,7 +51529,7 @@
     </row>
     <row customFormat="1" r="23" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="58" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>16</v>
@@ -50936,25 +51546,25 @@
     </row>
     <row customFormat="1" r="24" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="58" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>3489</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>3490</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>3491</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
     </row>
     <row customFormat="1" r="25" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
-        <v>3260</v>
+        <v>3259</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>251</v>
@@ -50974,7 +51584,7 @@
     </row>
     <row customFormat="1" r="26" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="58" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>20</v>
@@ -50991,40 +51601,40 @@
     </row>
     <row customFormat="1" r="27" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="58" t="s">
-        <v>3279</v>
-      </c>
-      <c r="B27" s="135" t="s">
-        <v>3552</v>
+        <v>3278</v>
+      </c>
+      <c r="B27" s="134" t="s">
+        <v>3551</v>
       </c>
       <c r="C27" t="s">
-        <v>3535</v>
+        <v>3534</v>
       </c>
       <c r="D27" t="s">
-        <v>3534</v>
+        <v>3533</v>
       </c>
       <c r="E27" s="71" t="s">
+        <v>3193</v>
+      </c>
+      <c r="F27" s="71" t="s">
         <v>3194</v>
-      </c>
-      <c r="F27" s="71" t="s">
-        <v>3195</v>
       </c>
     </row>
     <row customFormat="1" r="28" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="58" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>3540</v>
+        <v>3539</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
     </row>
     <row customFormat="1" r="29" s="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -51033,60 +51643,60 @@
       </c>
       <c r="B29"/>
       <c r="C29" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="D29" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row customFormat="1" r="30" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="58" t="s">
-        <v>3264</v>
+        <v>3263</v>
       </c>
       <c r="B30" t="s">
-        <v>3541</v>
+        <v>3540</v>
       </c>
       <c r="C30" t="s">
-        <v>3536</v>
+        <v>3535</v>
       </c>
       <c r="D30" t="s">
-        <v>3532</v>
+        <v>3531</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
     </row>
     <row customFormat="1" r="31" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="58" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>3165</v>
+        <v>3164</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>3165</v>
-      </c>
-    </row>
-    <row customFormat="1" r="32" s="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="170" t="s">
+        <v>3164</v>
+      </c>
+    </row>
+    <row customFormat="1" r="32" s="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="171" t="s">
         <v>2999</v>
       </c>
     </row>
     <row customFormat="1" r="33" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="60" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
       <c r="B33" s="18" t="str">
         <f>VLOOKUP(B34,Master!$M:$N,2,FALSE)</f>
@@ -51107,7 +51717,7 @@
     </row>
     <row customFormat="1" r="34" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="57" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>33</v>
@@ -51160,7 +51770,7 @@
         <v>33</v>
       </c>
     </row>
-    <row customFormat="1" r="37" s="170" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="37" s="171" spans="1:6" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="38" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="56" t="s">
         <v>36</v>
@@ -51180,10 +51790,10 @@
     </row>
     <row customFormat="1" r="39" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="58" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>3056</v>
@@ -51194,7 +51804,7 @@
     </row>
     <row customFormat="1" r="40" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="58" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>2443</v>
@@ -51210,10 +51820,10 @@
     </row>
     <row customFormat="1" r="41" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="58" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -51226,7 +51836,7 @@
     </row>
     <row customFormat="1" r="42" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="58" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>38</v>
@@ -51242,7 +51852,7 @@
     </row>
     <row customFormat="1" r="43" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="58" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="B43" s="18" t="s">
         <v>39</v>
@@ -51256,7 +51866,7 @@
     </row>
     <row customFormat="1" r="44" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="58" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>39</v>
@@ -51270,7 +51880,7 @@
     </row>
     <row customFormat="1" r="45" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="58" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="B45" s="18" t="s">
         <v>2405</v>
@@ -51284,7 +51894,7 @@
     </row>
     <row customFormat="1" r="46" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="58" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="B46" s="18" t="s">
         <v>41</v>
@@ -51303,62 +51913,62 @@
     <mergeCell ref="A14:XFD14"/>
   </mergeCells>
   <conditionalFormatting sqref="B15:XFD17">
-    <cfRule dxfId="166" priority="12" type="expression">
+    <cfRule dxfId="180" priority="12" type="expression">
       <formula>B$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:XFD24 B26:XFD31 A38 D19:XFD19 C38:XFD46">
-    <cfRule dxfId="165" priority="11" type="expression">
+    <cfRule dxfId="179" priority="11" type="expression">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:XFD22">
-    <cfRule dxfId="164" priority="10" type="expression">
+    <cfRule dxfId="178" priority="10" type="expression">
       <formula>OR(B$21="E-KTP",B$21="AKTA",B$21="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:XFD46">
-    <cfRule dxfId="163" priority="9" type="expression">
+    <cfRule dxfId="177" priority="9" type="expression">
       <formula>C$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A17">
-    <cfRule dxfId="162" priority="8" type="expression">
+    <cfRule dxfId="176" priority="8" type="expression">
       <formula>A$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:A24 A26:A31">
-    <cfRule dxfId="161" priority="7" type="expression">
+    <cfRule dxfId="175" priority="7" type="expression">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule dxfId="160" priority="6" type="expression">
+    <cfRule dxfId="174" priority="6" type="expression">
       <formula>OR(A$21="E-KTP",A$21="AKTA",A$21="NPWP")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A46">
-    <cfRule dxfId="159" priority="5" type="expression">
+    <cfRule dxfId="173" priority="5" type="expression">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A46">
-    <cfRule dxfId="158" priority="4" type="expression">
+    <cfRule dxfId="172" priority="4" type="expression">
       <formula>A$38="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:C19">
-    <cfRule dxfId="157" priority="3" type="expression">
+    <cfRule dxfId="171" priority="3" type="expression">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:B46">
-    <cfRule dxfId="156" priority="2" type="expression">
+    <cfRule dxfId="170" priority="2" type="expression">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:B46">
-    <cfRule dxfId="155" priority="1" type="expression">
+    <cfRule dxfId="169" priority="1" type="expression">
       <formula>B$46="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51504,7 +52114,7 @@
     <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
       <selection activeCell="G20" sqref="G20"/>
-      <selection activeCell="C12" pane="topRight" sqref="B12:C12"/>
+      <selection activeCell="B12" pane="topRight" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51520,7 +52130,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>3578</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -51540,7 +52150,7 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>3037</v>
@@ -51563,30 +52173,30 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
     </row>
     <row customFormat="1" ht="16.5" r="4" s="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>3275</v>
-      </c>
-      <c r="B4" s="105">
+        <v>3274</v>
+      </c>
+      <c r="B4" s="104">
         <f>IF(B13="Input Data",COUNTIFS($A17:$A21,"*$*",B17:B21,"")+IF(B23 = "No",COUNTIFS($A24:$A31,"*$*",B24:B31,""),0),IF(B13="LookUp",COUNTIFS($A15:$A16,"*$*",B15:B16,"")))</f>
         <v>0</v>
       </c>
-      <c r="C4" s="105">
+      <c r="C4" s="104">
         <f>IF(C13="Input Data",COUNTIFS($A17:$A21,"*$*",C17:C21,"")+IF(C23 = "No",COUNTIFS($A24:$A31,"*$*",C24:C31,""),0),IF(C13="LookUp",COUNTIFS($A15:$A16,"*$*",C15:C16,"")))</f>
         <v>0</v>
       </c>
-      <c r="D4" s="105">
+      <c r="D4" s="104">
         <f>IF(D13="Input Data",COUNTIFS($A17:$A21,"*$*",D17:D21,"")+IF(D23 = "No",COUNTIFS($A24:$A31,"*$*",D24:D31,""),0),IF(D13="LookUp",COUNTIFS($A15:$A16,"*$*",D15:D16,"")))</f>
         <v>0</v>
       </c>
-      <c r="E4" s="105">
+      <c r="E4" s="104">
         <f>IF(E13="Input Data",COUNTIFS($A17:$A21,"*$*",E17:E21,"")+IF(E23 = "No",COUNTIFS($A24:$A31,"*$*",E24:E31,""),0),IF(E13="LookUp",COUNTIFS($A15:$A16,"*$*",E15:E16,"")))</f>
         <v>0</v>
       </c>
-      <c r="F4" s="105">
+      <c r="F4" s="104">
         <f>IF(F13="Input Data",COUNTIFS($A17:$A21,"*$*",F17:F21,"")+IF(F23 = "No",COUNTIFS($A24:$A31,"*$*",F24:F31,""),0),IF(F13="LookUp",COUNTIFS($A15:$A16,"*$*",F15:F16,"")))</f>
         <v>0</v>
       </c>
@@ -51597,12 +52207,12 @@
     <row customFormat="1" r="8" s="18" spans="1:7" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
     </row>
     <row customFormat="1" r="10" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="B10" s="33" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -51617,16 +52227,19 @@
         <v>No</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
+    <row customFormat="1" r="11" s="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
     </row>
     <row customFormat="1" r="12" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="51" t="str">
+        <f>'1.TabCustomerMainData'!B13</f>
+        <v>0002APP20211204379</v>
+      </c>
       <c r="C12" s="51"/>
       <c r="D12" s="51"/>
     </row>
@@ -51635,13 +52248,13 @@
         <v>2403</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>2404</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>2404</v>
@@ -51650,42 +52263,42 @@
         <v>2404</v>
       </c>
     </row>
-    <row customFormat="1" r="14" s="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="170" t="s">
+    <row customFormat="1" r="14" s="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="171" t="s">
         <v>3003</v>
       </c>
     </row>
     <row customFormat="1" r="15" s="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="2" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
     </row>
     <row customFormat="1" r="16" s="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
     </row>
     <row customFormat="1" r="17" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="57" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>49</v>
@@ -51705,47 +52318,47 @@
     </row>
     <row customFormat="1" r="18" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="58" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="B18" t="s">
-        <v>3533</v>
+        <v>3532</v>
       </c>
       <c r="C18" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="D18" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
     </row>
     <row customFormat="1" r="19" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="58" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="B19" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="D19" t="s">
-        <v>3538</v>
+        <v>3537</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
     </row>
     <row customFormat="1" r="20" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>184</v>
@@ -51765,7 +52378,7 @@
     </row>
     <row customFormat="1" r="21" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="58" t="s">
-        <v>3260</v>
+        <v>3259</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>51</v>
@@ -51783,8 +52396,8 @@
         <v>51</v>
       </c>
     </row>
-    <row customFormat="1" r="22" s="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="170" t="s">
+    <row customFormat="1" r="22" s="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="171" t="s">
         <v>3000</v>
       </c>
     </row>
@@ -51807,7 +52420,7 @@
     </row>
     <row customFormat="1" r="24" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="58" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>3057</v>
@@ -51821,7 +52434,7 @@
     </row>
     <row customFormat="1" r="25" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="58" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2">
@@ -51837,7 +52450,7 @@
     </row>
     <row customFormat="1" r="26" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="58" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2">
@@ -51853,7 +52466,7 @@
     </row>
     <row customFormat="1" r="27" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="58" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
@@ -51861,15 +52474,15 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
+        <v>3195</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>3196</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>3197</v>
       </c>
     </row>
     <row customFormat="1" r="28" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="58" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>52</v>
@@ -51883,7 +52496,7 @@
     </row>
     <row customFormat="1" r="29" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="58" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>52</v>
@@ -51897,7 +52510,7 @@
     </row>
     <row customFormat="1" r="30" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="58" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>2405</v>
@@ -51911,7 +52524,7 @@
     </row>
     <row customFormat="1" r="31" s="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="58" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>40</v>
@@ -51929,37 +52542,37 @@
     <mergeCell ref="A22:XFD22"/>
   </mergeCells>
   <conditionalFormatting sqref="B15:XFD16">
-    <cfRule dxfId="154" priority="7" type="expression">
+    <cfRule dxfId="168" priority="7" type="expression">
       <formula>B$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:XFD19 B21:XFD21 A23:XFD23 B24:XFD31">
-    <cfRule dxfId="153" priority="6" type="expression">
+    <cfRule dxfId="167" priority="6" type="expression">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:XFD31">
-    <cfRule dxfId="152" priority="5" type="expression">
+    <cfRule dxfId="166" priority="5" type="expression">
       <formula>B$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule dxfId="151" priority="4" type="expression">
+    <cfRule dxfId="165" priority="4" type="expression">
       <formula>A$13="Input Data"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21 A18:A19">
-    <cfRule dxfId="150" priority="3" type="expression">
+    <cfRule dxfId="164" priority="3" type="expression">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A31">
-    <cfRule dxfId="149" priority="2" type="expression">
+    <cfRule dxfId="163" priority="2" type="expression">
       <formula>A$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A31">
-    <cfRule dxfId="148" priority="1" type="expression">
+    <cfRule dxfId="162" priority="1" type="expression">
       <formula>A$23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52041,7 +52654,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
-      <selection activeCell="B11" pane="topRight" sqref="B11"/>
+      <selection activeCell="B1" pane="topRight" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52057,7 +52670,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>7</v>
@@ -52077,7 +52690,7 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>3037</v>
@@ -52100,18 +52713,18 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
     </row>
     <row customFormat="1" ht="16.5" r="4" s="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>3275</v>
-      </c>
-      <c r="B4" s="105">
+        <v>3274</v>
+      </c>
+      <c r="B4" s="104">
         <f>COUNTIFS($A$12:$A$21, "*$*",B12:B21, "")</f>
         <v>0</v>
       </c>
-      <c r="C4" s="105">
+      <c r="C4" s="104">
         <f>COUNTIFS($A$12:$A$21, "*$*",C12:C21, "")</f>
         <v>0</v>
       </c>
@@ -52123,21 +52736,21 @@
     <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="10" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>3634</v>
-      </c>
-      <c r="B10" s="162">
+        <v>3623</v>
+      </c>
+      <c r="B10" s="161">
         <v>0</v>
       </c>
-      <c r="C10" s="162">
+      <c r="C10" s="161">
         <v>1</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="101"/>
+    <row customFormat="1" r="11" s="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="100"/>
     </row>
     <row customFormat="1" r="12" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="B12" s="18" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
@@ -52150,101 +52763,101 @@
     </row>
     <row customFormat="1" r="13" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="82" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>3589</v>
+        <v>3586</v>
       </c>
       <c r="C13" s="83" t="s">
-        <v>3589</v>
+        <v>3586</v>
       </c>
     </row>
     <row customFormat="1" r="14" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="82" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="B14" s="83" t="s">
+        <v>3408</v>
+      </c>
+      <c r="C14" s="83" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row customFormat="1" r="15" s="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="158" t="s">
         <v>3409</v>
       </c>
-      <c r="C14" s="83" t="s">
-        <v>3409</v>
-      </c>
-    </row>
-    <row customFormat="1" r="15" s="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="159" t="s">
-        <v>3410</v>
-      </c>
-      <c r="B15" s="161" t="s">
+      <c r="B15" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="161" t="s">
+      <c r="C15" s="160" t="s">
         <v>37</v>
       </c>
     </row>
     <row customFormat="1" r="16" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="82" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
     </row>
     <row customFormat="1" r="17" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="82" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="B17" s="83" t="s">
+        <v>3408</v>
+      </c>
+      <c r="C17" s="83" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row customFormat="1" r="18" s="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="158" t="s">
         <v>3409</v>
       </c>
-      <c r="C17" s="83" t="s">
-        <v>3409</v>
-      </c>
-    </row>
-    <row customFormat="1" r="18" s="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="159" t="s">
-        <v>3410</v>
-      </c>
-      <c r="B18" s="161" t="s">
+      <c r="B18" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="161" t="s">
+      <c r="C18" s="160" t="s">
         <v>37</v>
       </c>
     </row>
     <row customFormat="1" r="19" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="82" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="B19" t="s">
-        <v>3566</v>
+        <v>3565</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
     </row>
     <row customFormat="1" r="20" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="82" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="B20" s="83" t="s">
+        <v>3563</v>
+      </c>
+      <c r="C20" s="83" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row customFormat="1" r="21" s="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="158" t="s">
+        <v>3409</v>
+      </c>
+      <c r="B21" s="159" t="s">
         <v>3564</v>
       </c>
-      <c r="C20" s="83" t="s">
-        <v>3409</v>
-      </c>
-    </row>
-    <row customFormat="1" r="21" s="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="159" t="s">
-        <v>3410</v>
-      </c>
-      <c r="B21" s="160" t="s">
-        <v>3565</v>
-      </c>
-      <c r="C21" s="160" t="s">
-        <v>3568</v>
+      <c r="C21" s="159" t="s">
+        <v>3567</v>
       </c>
     </row>
     <row ht="33" r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -52278,7 +52891,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
-      <selection activeCell="D12" pane="topRight" sqref="B12:D12"/>
+      <selection activeCell="B12" pane="topRight" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52296,7 +52909,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>3578</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -52311,7 +52924,7 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>7</v>
@@ -52325,7 +52938,7 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>3037</v>
@@ -52357,12 +52970,12 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="B4" s="18">
         <f>COUNTIFS($A13:$A17,"*$*",B13:B17,"")</f>
@@ -52395,12 +53008,12 @@
     <row customFormat="1" r="8" s="18" spans="1:10" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="9" s="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
     </row>
     <row customFormat="1" r="10" s="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>37</v>
@@ -52421,22 +53034,25 @@
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
+    <row customFormat="1" r="11" s="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
     </row>
     <row customFormat="1" r="12" s="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="51" t="str">
+        <f>'1.TabCustomerMainData'!B13</f>
+        <v>0002APP20211204379</v>
+      </c>
       <c r="C12" s="51"/>
       <c r="D12" s="51"/>
       <c r="E12" s="51">
@@ -52457,7 +53073,7 @@
     </row>
     <row customFormat="1" r="13" s="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>2400</v>
@@ -52466,7 +53082,7 @@
         <v>53</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>2400</v>
@@ -52475,7 +53091,7 @@
         <v>53</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>2400</v>
@@ -52489,34 +53105,34 @@
     </row>
     <row customFormat="1" r="14" s="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>3414</v>
+        <v>3413</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>3414</v>
+        <v>3413</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
     </row>
     <row customFormat="1" r="15" s="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -52526,7 +53142,7 @@
     </row>
     <row customFormat="1" r="16" s="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="B16" s="18">
         <v>1</v>
@@ -52558,13 +53174,13 @@
     </row>
     <row customFormat="1" r="17" s="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="57" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>2401</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>2401</v>
@@ -52573,7 +53189,7 @@
         <v>2401</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>2401</v>
@@ -52588,9 +53204,9 @@
         <v>2401</v>
       </c>
     </row>
-    <row customFormat="1" r="18" s="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>3586</v>
+        <v>3584</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -52600,18 +53216,18 @@
       <c r="G18" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="138" t="s">
+      <c r="H18" s="137" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A18:B18 D18:XFD18">
-    <cfRule dxfId="147" priority="2" type="expression">
+    <cfRule dxfId="161" priority="2" type="expression">
       <formula>AND(A$13&lt;&gt;"Customer",A$13&lt;&gt;"$Referantor Category")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule dxfId="146" priority="1" type="expression">
+    <cfRule dxfId="160" priority="1" type="expression">
       <formula>AND(C$13&lt;&gt;"Customer",C$13&lt;&gt;"$Referantor Category")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52649,7 +53265,7 @@
     <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
       <selection activeCell="A34" sqref="A34"/>
-      <selection activeCell="C1" pane="topRight" sqref="B1:C2"/>
+      <selection activeCell="D1" pane="topRight" sqref="B1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52665,9 +53281,9 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3664</v>
-      </c>
-      <c r="C1" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="18" t="s">
@@ -52685,12 +53301,12 @@
     </row>
     <row customFormat="1" r="2" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="B2" t="s">
-        <v>3665</v>
-      </c>
-      <c r="C2" t="s">
+        <v>3668</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>3037</v>
       </c>
       <c r="D2" s="18" t="s">
@@ -52708,12 +53324,12 @@
     </row>
     <row customFormat="1" r="3" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="B4" s="18">
         <f>IF(AND(ISBLANK(B31),B51="Credit / Pembayaran yang Di Restrukturisasi", B26="Auto Debit"),COUNTIFS($A12:$A60,"*$*",B12:B60,""),IF(AND(NOT(ISBLANK(B31)),B51="Credit / Pembayaran yang Di Restrukturisasi", B26="Auto Debit"),COUNTIFS($A12:$A28,"*$*",B12:B28,"")+COUNTIFS($A51:$A60,"*$*",B51:B60,""),IF(AND(ISBLANK(B31),B51="Lainnya", B26="Auto Debit"),COUNTIFS($A12:$A51,"*$*",B12:B51,"")+COUNTIFS($A55:$A60,"*$*",B55:B60,""),IF(AND(NOT(ISBLANK(B31)),B51="Lainnya", B26="Auto Debit"),COUNTIFS($A12:$A28,"*$*",B12:B28,"")+COUNTIFS($A51:$A51,"*$*",B51:B51,"")+COUNTIFS($A55:$A60,"*$*",B55:B60,""),IF(AND(ISBLANK(B31),B51="Lainnya", B26&lt;&gt;"Auto Debit"),COUNTIFS($A12:$A26,"*$*",B12:B26,"")+COUNTIFS($A28:$A51,"*$*",B28:B51,"")+COUNTIFS($A55:$A60,"*$*",B55:B60,""),IF(AND(NOT(ISBLANK(B31)),B51="Lainnya", B26&lt;&gt;"Auto Debit"),COUNTIFS($A12:$A26,"*$*",B12:B26,"")+COUNTIFS($A28:$A28,"*$*",B28:B28,"")+COUNTIFS($A51:$A51,"*$*",B51:B51,"")+COUNTIFS($A55:$A60,"*$*",B55:B60,""),IF(AND(ISBLANK(B31),B51="Credit / Pembayaran yang Di Restrukturisasi", B26&lt;&gt;"Auto Debit"),COUNTIFS($A12:$A26,"*$*",B12:B26,"")+COUNTIFS($A28:$A60,"*$*",B28:B60,""),IF(AND(NOT(ISBLANK(B31)),B51="Credit / Pembayaran yang Di Restrukturisasi", B26&lt;&gt;"Auto Debit"),COUNTIFS($A12:$A26,"*$*",B12:B26,"")+COUNTIFS($A28:$A28,"*$*",B28:B28,"")+COUNTIFS($A51:$A60,"*$*",B51:B60,"")))))))))</f>
@@ -52742,12 +53358,12 @@
     </row>
     <row customFormat="1" r="9" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
     </row>
     <row customFormat="1" r="10" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>37</v>
@@ -52756,20 +53372,20 @@
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="170" t="s">
+    <row customFormat="1" r="11" s="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="171" t="s">
         <v>3004</v>
       </c>
     </row>
     <row customFormat="1" r="12" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
     </row>
     <row customFormat="1" r="13" s="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -52777,36 +53393,36 @@
         <v>55</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
     </row>
     <row customFormat="1" r="14" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
     </row>
     <row customFormat="1" r="15" s="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>3393</v>
-      </c>
-    </row>
-    <row customFormat="1" r="16" s="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="170" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row customFormat="1" r="16" s="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="171" t="s">
         <v>3005</v>
       </c>
     </row>
     <row customFormat="1" r="17" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="57" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>254</v>
@@ -52828,7 +53444,7 @@
     </row>
     <row customFormat="1" r="19" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>64</v>
@@ -52839,7 +53455,7 @@
     </row>
     <row customFormat="1" r="20" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="B20" s="18">
         <v>12</v>
@@ -52850,7 +53466,7 @@
     </row>
     <row customFormat="1" r="21" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="57" t="s">
-        <v>3612</v>
+        <v>3608</v>
       </c>
     </row>
     <row customFormat="1" r="22" s="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -52874,7 +53490,7 @@
     </row>
     <row customFormat="1" r="24" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="57" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>64</v>
@@ -52885,7 +53501,7 @@
     </row>
     <row customFormat="1" r="25" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>189</v>
@@ -52896,7 +53512,7 @@
     </row>
     <row customFormat="1" r="26" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>215</v>
@@ -52907,7 +53523,7 @@
     </row>
     <row customFormat="1" r="27" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="58" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="B27" s="18">
         <v>1</v>
@@ -52918,7 +53534,7 @@
     </row>
     <row customFormat="1" r="28" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="57" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>239</v>
@@ -52935,8 +53551,8 @@
         <v>68</v>
       </c>
     </row>
-    <row customFormat="1" r="30" s="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="170" t="s">
+    <row customFormat="1" r="30" s="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="171" t="s">
         <v>3006</v>
       </c>
     </row>
@@ -52950,18 +53566,18 @@
     </row>
     <row customFormat="1" r="32" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="58" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>3198</v>
+        <v>3197</v>
       </c>
     </row>
     <row customFormat="1" r="33" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="58" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
@@ -52972,7 +53588,7 @@
     </row>
     <row customFormat="1" r="34" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="58" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
@@ -52983,7 +53599,7 @@
     </row>
     <row customFormat="1" r="35" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="58" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="B35" s="18">
         <v>11530</v>
@@ -52994,10 +53610,10 @@
     </row>
     <row customFormat="1" r="36" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="58" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>3059</v>
@@ -53005,10 +53621,10 @@
     </row>
     <row customFormat="1" r="37" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="58" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>3060</v>
@@ -53016,10 +53632,10 @@
     </row>
     <row customFormat="1" r="38" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="58" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>3124</v>
@@ -53086,14 +53702,14 @@
         <v>81</v>
       </c>
     </row>
-    <row customFormat="1" r="50" s="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="170" t="s">
+    <row customFormat="1" r="50" s="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="171" t="s">
         <v>3007</v>
       </c>
     </row>
     <row customFormat="1" r="51" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="57" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="B51" s="18" t="s">
         <v>82</v>
@@ -53112,7 +53728,7 @@
     </row>
     <row customFormat="1" r="53" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="58" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>218</v>
@@ -53136,7 +53752,7 @@
     </row>
     <row customFormat="1" r="55" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="57" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="B55" s="18" t="s">
         <v>2281</v>
@@ -53145,14 +53761,14 @@
         <v>2284</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="13.5" r="56" s="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="170" t="s">
+    <row customFormat="1" customHeight="1" ht="13.5" r="56" s="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="171" t="s">
         <v>3008</v>
       </c>
     </row>
     <row customFormat="1" r="57" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="57" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="B57" s="18" t="s">
         <v>116</v>
@@ -53187,42 +53803,42 @@
     </row>
     <row customFormat="1" r="60" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="57" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>3622</v>
+        <v>3618</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="14.25" r="61" s="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="170" t="s">
-        <v>3463</v>
+    <row customFormat="1" customHeight="1" ht="14.25" r="61" s="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="171" t="s">
+        <v>3462</v>
       </c>
     </row>
     <row customFormat="1" r="62" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
     </row>
     <row customFormat="1" r="63" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
     </row>
     <row customFormat="1" r="64" s="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
     </row>
   </sheetData>
@@ -53235,47 +53851,47 @@
     <mergeCell ref="A56:XFD56"/>
   </mergeCells>
   <conditionalFormatting sqref="B24:XFD24">
-    <cfRule dxfId="145" priority="10" type="expression">
+    <cfRule dxfId="159" priority="10" type="expression">
       <formula>B$23="Fixed Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:XFD27">
-    <cfRule dxfId="144" priority="9" type="expression">
+    <cfRule dxfId="158" priority="9" type="expression">
       <formula>AND(B$26&lt;&gt;"Auto Debit",B$26&lt;&gt;"Way Of Payment",B$26&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:XFD38 B32:C35 B38:C38">
-    <cfRule dxfId="143" priority="8" type="expression">
+    <cfRule dxfId="157" priority="8" type="expression">
       <formula>AND(B$31&lt;&gt;"",B$31&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:XFD53">
-    <cfRule dxfId="142" priority="7" type="expression">
+    <cfRule dxfId="156" priority="7" type="expression">
       <formula>B$51="Lainnya"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:C37">
-    <cfRule dxfId="141" priority="5" type="expression">
+    <cfRule dxfId="155" priority="5" type="expression">
       <formula>AND(B$31&lt;&gt;"",B$31&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule dxfId="140" priority="4" type="expression">
+    <cfRule dxfId="154" priority="4" type="expression">
       <formula>A$23="Fixed Rate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule dxfId="139" priority="3" type="expression">
+    <cfRule dxfId="153" priority="3" type="expression">
       <formula>AND(A$26&lt;&gt;"Auto Debit",A$26&lt;&gt;"Way Of Payment",A$26&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:A38">
-    <cfRule dxfId="138" priority="2" type="expression">
+    <cfRule dxfId="152" priority="2" type="expression">
       <formula>AND(A$31&lt;&gt;"",A$31&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:A53">
-    <cfRule dxfId="137" priority="1" type="expression">
+    <cfRule dxfId="151" priority="1" type="expression">
       <formula>A$51="Lainnya"</formula>
     </cfRule>
   </conditionalFormatting>
